--- a/output/processed_file.xlsx
+++ b/output/processed_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:O148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,1769 +444,7567 @@
           <t>URL</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>POSITIVE SCORE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NEGATIVE SCORE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>POLARITY SCORE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>SUBJECTIVITY SCORE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AVG SENTENCE LENGTH</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENTAGE OF COMPLEX WORDS</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>FOG INDEX</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>AVG NUMBER OF WORDS PER SENTENCE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>COMPLEX WORD COUNT</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>WORD COUNT</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>SYLLABLE PER WORD</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>PERSONAL PRONOUNS</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>AVG WORD LENGTH</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Netclan20241017</t>
+          <t>article_1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-and-ml-based-youtube-analytics-and-content-creation-tool-for-optimizing-subscriber-engagement-and-content-strategy/</t>
-        </is>
+          <t>Your URL for article_1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.02766798418972332</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03557312252964427</v>
+      </c>
+      <c r="G2" t="n">
+        <v>18.07142857142857</v>
+      </c>
+      <c r="H2" t="n">
+        <v>43.87351778656127</v>
+      </c>
+      <c r="I2" t="n">
+        <v>24.77797854319594</v>
+      </c>
+      <c r="J2" t="n">
+        <v>18.07142857142857</v>
+      </c>
+      <c r="K2" t="n">
+        <v>111</v>
+      </c>
+      <c r="L2" t="n">
+        <v>253</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.494071146245059</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7.110671936758894</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Netclan20241018</t>
+          <t>article_10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/enhancing-front-end-features-and-functionality-for-improved-user-experience-and-dashboard-accuracy-in-partner-hospital-application/</t>
-        </is>
+          <t>Your URL for article_10</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.03122432210353328</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.06737880032867707</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.22826086956522</v>
+      </c>
+      <c r="H3" t="n">
+        <v>56.28594905505341</v>
+      </c>
+      <c r="I3" t="n">
+        <v>27.80568396984745</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.22826086956522</v>
+      </c>
+      <c r="K3" t="n">
+        <v>685</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1217</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.746096959737058</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7.623664749383731</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Netclan20241019</t>
+          <t>article_100</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/roas-dashboard-for-campaign-wise-google-ads-budget-tracking-using-google-ads-ap/</t>
-        </is>
+          <t>Your URL for article_100</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.02334630350194553</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0311284046692607</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11.68181818181818</v>
+      </c>
+      <c r="H4" t="n">
+        <v>38.13229571984436</v>
+      </c>
+      <c r="I4" t="n">
+        <v>19.92564556066502</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.68181818181818</v>
+      </c>
+      <c r="K4" t="n">
+        <v>98</v>
+      </c>
+      <c r="L4" t="n">
+        <v>257</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.517509727626459</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6.879377431906615</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Netclan20241020</t>
+          <t>article_101</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/efficient-processing-and-analysis-of-financial-data-from-pdf-files-addressing-formatting-inconsistencies-and-ensuring-data-integrity-for-a-toyota-dealership-management-firm/</t>
-        </is>
+          <t>Your URL for article_101</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.01006711409395973</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.03691275167785235</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13.54545454545454</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36.57718120805369</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20.0490543014033</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13.54545454545454</v>
+      </c>
+      <c r="K5" t="n">
+        <v>109</v>
+      </c>
+      <c r="L5" t="n">
+        <v>298</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.402684563758389</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6.640939597315437</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Netclan20241021</t>
+          <t>article_102</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/development-of-ea-robot-for-automated-trading/</t>
-        </is>
+          <t>Your URL for article_102</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.00975609756097561</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02926829268292683</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15.76923076923077</v>
+      </c>
+      <c r="H6" t="n">
+        <v>44.87804878048781</v>
+      </c>
+      <c r="I6" t="n">
+        <v>24.25891181988743</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15.76923076923077</v>
+      </c>
+      <c r="K6" t="n">
+        <v>92</v>
+      </c>
+      <c r="L6" t="n">
+        <v>205</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.560975609756098</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7.014634146341463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Netclan20241022</t>
+          <t>article_103</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-and-ml-based-youtube-analytics-and-content-creation-tool-for-optimizing-subscriber-engagement-and-content-strategy/</t>
-        </is>
+          <t>Your URL for article_103</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01003344481605351</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.03010033444816054</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16.61111111111111</v>
+      </c>
+      <c r="H7" t="n">
+        <v>41.47157190635451</v>
+      </c>
+      <c r="I7" t="n">
+        <v>23.23307320698625</v>
+      </c>
+      <c r="J7" t="n">
+        <v>16.61111111111111</v>
+      </c>
+      <c r="K7" t="n">
+        <v>124</v>
+      </c>
+      <c r="L7" t="n">
+        <v>299</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.511705685618729</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.795986622073579</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Netclan20241023</t>
+          <t>article_104</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/enhancing-front-end-features-and-functionality-for-improved-user-experience-and-dashboard-accuracy-in-partner-hospital-application/</t>
-        </is>
+          <t>Your URL for article_104</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.01863354037267081</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.03105590062111801</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20.125</v>
+      </c>
+      <c r="H8" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25.19285714285714</v>
+      </c>
+      <c r="J8" t="n">
+        <v>20.125</v>
+      </c>
+      <c r="K8" t="n">
+        <v>69</v>
+      </c>
+      <c r="L8" t="n">
+        <v>161</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.559006211180124</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7.006211180124224</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Netclan20241024</t>
+          <t>article_105</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/roas-dashboard-for-campaign-wise-google-ads-budget-tracking-using-google-ads-ap/</t>
-        </is>
+          <t>Your URL for article_105</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03508771929824561</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12</v>
+      </c>
+      <c r="H9" t="n">
+        <v>38.37719298245614</v>
+      </c>
+      <c r="I9" t="n">
+        <v>20.15087719298246</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12</v>
+      </c>
+      <c r="K9" t="n">
+        <v>175</v>
+      </c>
+      <c r="L9" t="n">
+        <v>456</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.385964912280702</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6.692982456140351</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Netclan20241025</t>
+          <t>article_106</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/efficient-processing-and-analysis-of-financial-data-from-pdf-files-addressing-formatting-inconsistencies-and-ensuring-data-integrity-for-a-toyota-dealership-management-firm/</t>
-        </is>
+          <t>Your URL for article_106</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>11</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0380952380952381</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H10" t="n">
+        <v>32.38095238095238</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18.95238095238095</v>
+      </c>
+      <c r="J10" t="n">
+        <v>15</v>
+      </c>
+      <c r="K10" t="n">
+        <v>102</v>
+      </c>
+      <c r="L10" t="n">
+        <v>315</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.238095238095238</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6.365079365079365</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Netclan20241026</t>
+          <t>article_107</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/transforming-and-managing-a-large-scale-sql-pedigree-database-to-neo4j-graph-db/</t>
-        </is>
+          <t>Your URL for article_107</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.003174603174603175</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="G11" t="n">
+        <v>13.125</v>
+      </c>
+      <c r="H11" t="n">
+        <v>38.73015873015873</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20.74206349206349</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13.125</v>
+      </c>
+      <c r="K11" t="n">
+        <v>122</v>
+      </c>
+      <c r="L11" t="n">
+        <v>315</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.336507936507937</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6.634920634920635</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Netclan20241027</t>
+          <t>article_108</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/enhancing-model-accuracy-from-58-to-over-90-strategies-for-improving-predictive-performance/</t>
-        </is>
+          <t>Your URL for article_108</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.03153153153153153</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.04054054054054054</v>
+      </c>
+      <c r="G12" t="n">
+        <v>17.07692307692308</v>
+      </c>
+      <c r="H12" t="n">
+        <v>45.04504504504504</v>
+      </c>
+      <c r="I12" t="n">
+        <v>24.84878724878725</v>
+      </c>
+      <c r="J12" t="n">
+        <v>17.07692307692308</v>
+      </c>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
+      <c r="L12" t="n">
+        <v>222</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.522522522522523</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6.873873873873874</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Netclan20241028</t>
+          <t>article_109</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/securing-sensitive-financial-data-with-privacy-preserving-machine-learning-for-predictive-analytics/</t>
-        </is>
+          <t>Your URL for article_109</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.02422145328719723</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10.7037037037037</v>
+      </c>
+      <c r="H13" t="n">
+        <v>32.8719723183391</v>
+      </c>
+      <c r="I13" t="n">
+        <v>17.43027040881712</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10.7037037037037</v>
+      </c>
+      <c r="K13" t="n">
+        <v>95</v>
+      </c>
+      <c r="L13" t="n">
+        <v>289</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.397923875432526</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6.664359861591696</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Netclan20241029</t>
+          <t>article_11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/enhancing-data-collection-for-research-institutions-addressing-survey-fatigue-and-incorporating-verbal-communication-for-richer-insights/</t>
-        </is>
+          <t>Your URL for article_11</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>21</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.03381642512077294</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.06763285024154589</v>
+      </c>
+      <c r="G14" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>54.10628019323671</v>
+      </c>
+      <c r="I14" t="n">
+        <v>27.16251207729469</v>
+      </c>
+      <c r="J14" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>224</v>
+      </c>
+      <c r="L14" t="n">
+        <v>414</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.765700483091787</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" t="n">
+        <v>7.560386473429952</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Netclan20241030</t>
+          <t>article_110</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/analyzing-the-impact-of-positive-emotions-and-pandemic-severity-on-mental-health-and-resilience-among-entrepreneurs-insights-and-predictive-modeling/</t>
-        </is>
+          <t>Your URL for article_110</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>11</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0226537216828479</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.04854368932038835</v>
+      </c>
+      <c r="G15" t="n">
+        <v>17.16666666666667</v>
+      </c>
+      <c r="H15" t="n">
+        <v>36.89320388349515</v>
+      </c>
+      <c r="I15" t="n">
+        <v>21.62394822006473</v>
+      </c>
+      <c r="J15" t="n">
+        <v>17.16666666666667</v>
+      </c>
+      <c r="K15" t="n">
+        <v>114</v>
+      </c>
+      <c r="L15" t="n">
+        <v>309</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.372168284789644</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6.579288025889968</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Netclan20241031</t>
+          <t>article_111</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/dynamic-brand-centric-dashboard-for-automotive-dealerships-pdf-to-financial-insights-with-flask-react-architecture-and-aws-cloud-hosting/</t>
-        </is>
+          <t>Your URL for article_111</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>13</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.02506265664160401</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.04010025062656641</v>
+      </c>
+      <c r="G16" t="n">
+        <v>16.625</v>
+      </c>
+      <c r="H16" t="n">
+        <v>31.57894736842105</v>
+      </c>
+      <c r="I16" t="n">
+        <v>19.28157894736842</v>
+      </c>
+      <c r="J16" t="n">
+        <v>16.625</v>
+      </c>
+      <c r="K16" t="n">
+        <v>126</v>
+      </c>
+      <c r="L16" t="n">
+        <v>399</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.233082706766917</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6.521303258145363</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Netclan20241032</t>
+          <t>article_112</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/cloud-based-data-modeling-and-analysis-platform-with-drag-and-drop-interface-and-openai-api-integration-for-simulation-insights/</t>
-        </is>
+          <t>Your URL for article_112</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.02142857142857143</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.04285714285714286</v>
+      </c>
+      <c r="G17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H17" t="n">
+        <v>38.21428571428571</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20.88571428571429</v>
+      </c>
+      <c r="J17" t="n">
+        <v>14</v>
+      </c>
+      <c r="K17" t="n">
+        <v>107</v>
+      </c>
+      <c r="L17" t="n">
+        <v>280</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.407142857142857</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6.621428571428571</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Netclan20241033</t>
+          <t>article_113</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/voter-profile-analysis-and-search-application-for-targeted-campaign-engagement-using-government-voter-data/</t>
-        </is>
+          <t>Your URL for article_113</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>18</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.05466237942122187</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.06109324758842444</v>
+      </c>
+      <c r="G18" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="H18" t="n">
+        <v>37.94212218649518</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21.39684887459807</v>
+      </c>
+      <c r="J18" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="K18" t="n">
+        <v>118</v>
+      </c>
+      <c r="L18" t="n">
+        <v>311</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.440514469453376</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>6.752411575562701</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Netclan20241034</t>
+          <t>article_114</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/bert-based-classification-of-individuals-and-organizations-into-two-categories-using-natural-language-processing/</t>
-        </is>
+          <t>Your URL for article_114</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="G19" t="n">
+        <v>18</v>
+      </c>
+      <c r="H19" t="n">
+        <v>43.88888888888889</v>
+      </c>
+      <c r="I19" t="n">
+        <v>24.75555555555556</v>
+      </c>
+      <c r="J19" t="n">
+        <v>18</v>
+      </c>
+      <c r="K19" t="n">
+        <v>79</v>
+      </c>
+      <c r="L19" t="n">
+        <v>180</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.538888888888889</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6.966666666666667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Netclan20241035</t>
+          <t>article_115</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/comprehensive-analysis-of-solana-and-ethereum-contributors-using-github-api-with-comparative-study-of-1000-random-github-profiles/</t>
-        </is>
+          <t>Your URL for article_115</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.02479338842975207</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.04958677685950413</v>
+      </c>
+      <c r="G20" t="n">
+        <v>15.125</v>
+      </c>
+      <c r="H20" t="n">
+        <v>42.14876033057851</v>
+      </c>
+      <c r="I20" t="n">
+        <v>22.9095041322314</v>
+      </c>
+      <c r="J20" t="n">
+        <v>15.125</v>
+      </c>
+      <c r="K20" t="n">
+        <v>102</v>
+      </c>
+      <c r="L20" t="n">
+        <v>242</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.578512396694215</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>7.243801652892562</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Netclan20241036</t>
+          <t>article_116</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/powerbi-rest-api-fetching-dataflow-and-refresh-schedules-with-semantic-models/</t>
-        </is>
+          <t>Your URL for article_116</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.009389671361502348</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.02816901408450704</v>
+      </c>
+      <c r="G21" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="H21" t="n">
+        <v>39.43661971830986</v>
+      </c>
+      <c r="I21" t="n">
+        <v>22.87464788732395</v>
+      </c>
+      <c r="J21" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="K21" t="n">
+        <v>84</v>
+      </c>
+      <c r="L21" t="n">
+        <v>213</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.427230046948357</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6.807511737089202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Netclan20241037</t>
+          <t>article_117</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/automated-job-data-import-and-management-solution-for-enhanced-efficiency/</t>
-        </is>
+          <t>Your URL for article_117</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0308641975308642</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="G22" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>41.9753086419753</v>
+      </c>
+      <c r="I22" t="n">
+        <v>23.27012345679012</v>
+      </c>
+      <c r="J22" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>136</v>
+      </c>
+      <c r="L22" t="n">
+        <v>324</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.493827160493827</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6.966049382716049</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Netclan20241038</t>
+          <t>article_118</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/data-analytics-and-optimization-solution-for-enhancing-renewable-energy-efficiency/</t>
-        </is>
+          <t>Your URL for article_118</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01067615658362989</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.01779359430604982</v>
+      </c>
+      <c r="G23" t="n">
+        <v>12.77272727272727</v>
+      </c>
+      <c r="H23" t="n">
+        <v>38.07829181494662</v>
+      </c>
+      <c r="I23" t="n">
+        <v>20.34040763506956</v>
+      </c>
+      <c r="J23" t="n">
+        <v>12.77272727272727</v>
+      </c>
+      <c r="K23" t="n">
+        <v>107</v>
+      </c>
+      <c r="L23" t="n">
+        <v>281</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.444839857651246</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>6.879003558718861</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Netclan20241039</t>
+          <t>article_119</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/time-series-analysis-and-trend-forecasting-solution-for-predicting-news-trends/</t>
-        </is>
+          <t>Your URL for article_119</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01298701298701299</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.02597402597402598</v>
+      </c>
+      <c r="G24" t="n">
+        <v>22</v>
+      </c>
+      <c r="H24" t="n">
+        <v>44.8051948051948</v>
+      </c>
+      <c r="I24" t="n">
+        <v>26.72207792207792</v>
+      </c>
+      <c r="J24" t="n">
+        <v>22</v>
+      </c>
+      <c r="K24" t="n">
+        <v>69</v>
+      </c>
+      <c r="L24" t="n">
+        <v>154</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.564935064935065</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>7.012987012987013</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Netclan20241040</t>
+          <t>article_12</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/advanced-data-visualization-solutions-for-monitoring-key-business-metrics-with-integrated-interactive-dashboards/</t>
-        </is>
+          <t>Your URL for article_12</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>30</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0488245931283906</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.05967450271247739</v>
+      </c>
+      <c r="G25" t="n">
+        <v>17.28125</v>
+      </c>
+      <c r="H25" t="n">
+        <v>56.78119349005425</v>
+      </c>
+      <c r="I25" t="n">
+        <v>29.6249773960217</v>
+      </c>
+      <c r="J25" t="n">
+        <v>17.28125</v>
+      </c>
+      <c r="K25" t="n">
+        <v>314</v>
+      </c>
+      <c r="L25" t="n">
+        <v>553</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2.772151898734177</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4</v>
+      </c>
+      <c r="O25" t="n">
+        <v>7.618444846292948</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Netclan20241041</t>
+          <t>article_120</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/advanced-patient-data-analysis-solution-for-trend-identification-and-improved-healthcare-outcome/</t>
-        </is>
+          <t>Your URL for article_120</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>6</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.02463054187192118</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="G26" t="n">
+        <v>15.61538461538461</v>
+      </c>
+      <c r="H26" t="n">
+        <v>44.82758620689656</v>
+      </c>
+      <c r="I26" t="n">
+        <v>24.17718832891247</v>
+      </c>
+      <c r="J26" t="n">
+        <v>15.61538461538461</v>
+      </c>
+      <c r="K26" t="n">
+        <v>91</v>
+      </c>
+      <c r="L26" t="n">
+        <v>203</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2.532019704433497</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>6.935960591133005</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Netclan20241042</t>
+          <t>article_121</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/anomaly-detection-and-analysis-for-enhanced-data-integrity-and-user-experience-on-bright-datas-website/</t>
-        </is>
+          <t>Your URL for article_121</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0380952380952381</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="G27" t="n">
+        <v>16.15384615384615</v>
+      </c>
+      <c r="H27" t="n">
+        <v>42.38095238095238</v>
+      </c>
+      <c r="I27" t="n">
+        <v>23.41391941391942</v>
+      </c>
+      <c r="J27" t="n">
+        <v>16.15384615384615</v>
+      </c>
+      <c r="K27" t="n">
+        <v>89</v>
+      </c>
+      <c r="L27" t="n">
+        <v>210</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>6.885714285714286</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Netclan20241043</t>
+          <t>article_122</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/building-custom-tflite-models-and-benchmarking-on-voxl2-chips/</t>
-        </is>
+          <t>Your URL for article_122</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>6</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0155440414507772</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.04663212435233161</v>
+      </c>
+      <c r="G28" t="n">
+        <v>17.54545454545455</v>
+      </c>
+      <c r="H28" t="n">
+        <v>40.93264248704664</v>
+      </c>
+      <c r="I28" t="n">
+        <v>23.39123881300047</v>
+      </c>
+      <c r="J28" t="n">
+        <v>17.54545454545455</v>
+      </c>
+      <c r="K28" t="n">
+        <v>79</v>
+      </c>
+      <c r="L28" t="n">
+        <v>193</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.476683937823834</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>6.797927461139897</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Netclan20241044</t>
+          <t>article_123</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/sports-prediction-model-for-multiple-sports-leagues/</t>
-        </is>
+          <t>Your URL for article_123</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>7</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0155440414507772</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.05699481865284974</v>
+      </c>
+      <c r="G29" t="n">
+        <v>13.78571428571429</v>
+      </c>
+      <c r="H29" t="n">
+        <v>46.1139896373057</v>
+      </c>
+      <c r="I29" t="n">
+        <v>23.95988156920799</v>
+      </c>
+      <c r="J29" t="n">
+        <v>13.78571428571429</v>
+      </c>
+      <c r="K29" t="n">
+        <v>89</v>
+      </c>
+      <c r="L29" t="n">
+        <v>193</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.559585492227979</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>6.953367875647668</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Netclan20241045</t>
+          <t>article_124</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/efficient-coach-allocation-system-for-sports-coaching-organization/</t>
-        </is>
+          <t>Your URL for article_124</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>6</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.02116402116402116</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.04232804232804233</v>
+      </c>
+      <c r="G30" t="n">
+        <v>14.53846153846154</v>
+      </c>
+      <c r="H30" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="I30" t="n">
+        <v>23.59316239316239</v>
+      </c>
+      <c r="J30" t="n">
+        <v>14.53846153846154</v>
+      </c>
+      <c r="K30" t="n">
+        <v>84</v>
+      </c>
+      <c r="L30" t="n">
+        <v>189</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2.529100529100529</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6.962962962962963</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Netclan20241046</t>
+          <t>article_125</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/data-studio-dashboard-with-a-data-pipeline-tool-synced-with-podio-using-custom-webhooks-and-google-cloud-function-2/</t>
-        </is>
+          <t>Your URL for article_125</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>12</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.03873239436619718</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.04577464788732395</v>
+      </c>
+      <c r="G31" t="n">
+        <v>12.34782608695652</v>
+      </c>
+      <c r="H31" t="n">
+        <v>41.90140845070422</v>
+      </c>
+      <c r="I31" t="n">
+        <v>21.6996938150643</v>
+      </c>
+      <c r="J31" t="n">
+        <v>12.34782608695652</v>
+      </c>
+      <c r="K31" t="n">
+        <v>119</v>
+      </c>
+      <c r="L31" t="n">
+        <v>284</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.507042253521127</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7</v>
+      </c>
+      <c r="O31" t="n">
+        <v>6.996478873239437</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Netclan20241047</t>
+          <t>article_126</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-driven-backend-for-audio-to-text-conversion-and-analytical-assessment-in-pharmaceutical-practice/</t>
-        </is>
+          <t>Your URL for article_126</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.01388888888888889</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.02314814814814815</v>
+      </c>
+      <c r="G32" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>40.27777777777778</v>
+      </c>
+      <c r="I32" t="n">
+        <v>21.87111111111111</v>
+      </c>
+      <c r="J32" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>87</v>
+      </c>
+      <c r="L32" t="n">
+        <v>216</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.527777777777778</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5</v>
+      </c>
+      <c r="O32" t="n">
+        <v>6.921296296296297</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Netclan20241048</t>
+          <t>article_127</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/cloud-based-web-application-for-financial-data-processing-and-visualization-of-sp-500-metrics/</t>
-        </is>
+          <t>Your URL for article_127</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>6</v>
+      </c>
+      <c r="D33" t="n">
+        <v>9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.008108108108108109</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.04054054054054054</v>
+      </c>
+      <c r="G33" t="n">
+        <v>16.08695652173913</v>
+      </c>
+      <c r="H33" t="n">
+        <v>40.81081081081081</v>
+      </c>
+      <c r="I33" t="n">
+        <v>22.75910693301998</v>
+      </c>
+      <c r="J33" t="n">
+        <v>16.08695652173913</v>
+      </c>
+      <c r="K33" t="n">
+        <v>151</v>
+      </c>
+      <c r="L33" t="n">
+        <v>370</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2.491891891891892</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4</v>
+      </c>
+      <c r="O33" t="n">
+        <v>6.767567567567568</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Netclan20241049</t>
+          <t>article_128</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/department-wise-kpi-tracking-dashboard-with-technician-performance-analysis-for-atoz-dependable-service/</t>
-        </is>
+          <t>Your URL for article_128</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>13</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.03501945525291829</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.06614785992217899</v>
+      </c>
+      <c r="G34" t="n">
+        <v>14.27777777777778</v>
+      </c>
+      <c r="H34" t="n">
+        <v>38.52140077821012</v>
+      </c>
+      <c r="I34" t="n">
+        <v>21.11967142239516</v>
+      </c>
+      <c r="J34" t="n">
+        <v>14.27777777777778</v>
+      </c>
+      <c r="K34" t="n">
+        <v>99</v>
+      </c>
+      <c r="L34" t="n">
+        <v>257</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.470817120622568</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6.914396887159533</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Netclan20241050</t>
+          <t>article_129</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/steps-to-convert-a-node-js-api-to-python-for-aws-lambda-deployment/</t>
-        </is>
+          <t>Your URL for article_129</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12</v>
+      </c>
+      <c r="H35" t="n">
+        <v>43.20987654320987</v>
+      </c>
+      <c r="I35" t="n">
+        <v>22.08395061728395</v>
+      </c>
+      <c r="J35" t="n">
+        <v>12</v>
+      </c>
+      <c r="K35" t="n">
+        <v>140</v>
+      </c>
+      <c r="L35" t="n">
+        <v>324</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.592592592592593</v>
+      </c>
+      <c r="N35" t="n">
+        <v>13</v>
+      </c>
+      <c r="O35" t="n">
+        <v>7.166666666666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Netclan20241051</t>
+          <t>article_13</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/building-an-analytics-dashboard-with-a-pdf-parsing-pipeline-for-data-extraction/</t>
-        </is>
+          <t>Your URL for article_13</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>25</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.04846938775510204</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.07908163265306123</v>
+      </c>
+      <c r="G36" t="n">
+        <v>15.07692307692308</v>
+      </c>
+      <c r="H36" t="n">
+        <v>46.93877551020408</v>
+      </c>
+      <c r="I36" t="n">
+        <v>24.80627943485086</v>
+      </c>
+      <c r="J36" t="n">
+        <v>15.07692307692308</v>
+      </c>
+      <c r="K36" t="n">
+        <v>184</v>
+      </c>
+      <c r="L36" t="n">
+        <v>392</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2.594387755102041</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4</v>
+      </c>
+      <c r="O36" t="n">
+        <v>7.436224489795919</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Netclan20241052</t>
+          <t>article_130</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/building-a-real-time-log-file-visualization-dashboard-in-kibana/</t>
-        </is>
+          <t>Your URL for article_130</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>12</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.02816901408450704</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.05633802816901409</v>
+      </c>
+      <c r="G37" t="n">
+        <v>13.52380952380952</v>
+      </c>
+      <c r="H37" t="n">
+        <v>41.19718309859155</v>
+      </c>
+      <c r="I37" t="n">
+        <v>21.88839704896043</v>
+      </c>
+      <c r="J37" t="n">
+        <v>13.52380952380952</v>
+      </c>
+      <c r="K37" t="n">
+        <v>117</v>
+      </c>
+      <c r="L37" t="n">
+        <v>284</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2.48943661971831</v>
+      </c>
+      <c r="N37" t="n">
+        <v>7</v>
+      </c>
+      <c r="O37" t="n">
+        <v>6.975352112676056</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Netclan20241053</t>
+          <t>article_131</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/analyzing-the-impact-of-female-ceo-appointments-on-company-stock-prices/</t>
-        </is>
+          <t>Your URL for article_131</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>7</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0272108843537415</v>
+      </c>
+      <c r="G38" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="H38" t="n">
+        <v>41.15646258503401</v>
+      </c>
+      <c r="I38" t="n">
+        <v>22.34258503401361</v>
+      </c>
+      <c r="J38" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K38" t="n">
+        <v>121</v>
+      </c>
+      <c r="L38" t="n">
+        <v>294</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2.479591836734694</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>6.880952380952381</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Netclan20241054</t>
+          <t>article_132</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-chatbot-using-llm-langchain-llama/</t>
-        </is>
+          <t>Your URL for article_132</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.01730103806228374</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.03114186851211072</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10.7037037037037</v>
+      </c>
+      <c r="H39" t="n">
+        <v>38.06228373702422</v>
+      </c>
+      <c r="I39" t="n">
+        <v>19.50639497629117</v>
+      </c>
+      <c r="J39" t="n">
+        <v>10.7037037037037</v>
+      </c>
+      <c r="K39" t="n">
+        <v>110</v>
+      </c>
+      <c r="L39" t="n">
+        <v>289</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2.442906574394464</v>
+      </c>
+      <c r="N39" t="n">
+        <v>8</v>
+      </c>
+      <c r="O39" t="n">
+        <v>6.906574394463668</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Netclan20241055</t>
+          <t>article_133</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/healthcare-ai-chatbot-using-llama-llm-langchain/</t>
-        </is>
+          <t>Your URL for article_133</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.01716738197424893</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.02575107296137339</v>
+      </c>
+      <c r="G40" t="n">
+        <v>17.92307692307692</v>
+      </c>
+      <c r="H40" t="n">
+        <v>41.20171673819743</v>
+      </c>
+      <c r="I40" t="n">
+        <v>23.64991746450974</v>
+      </c>
+      <c r="J40" t="n">
+        <v>17.92307692307692</v>
+      </c>
+      <c r="K40" t="n">
+        <v>96</v>
+      </c>
+      <c r="L40" t="n">
+        <v>233</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2.467811158798283</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>6.729613733905579</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Netclan20241056</t>
+          <t>article_134</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-bot-audio-to-audio/</t>
-        </is>
+          <t>Your URL for article_134</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.008583690987124463</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.03433476394849785</v>
+      </c>
+      <c r="G41" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>39.05579399141631</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24.94231759656653</v>
+      </c>
+      <c r="J41" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>91</v>
+      </c>
+      <c r="L41" t="n">
+        <v>233</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.407725321888412</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>6.725321888412017</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Netclan20241057</t>
+          <t>article_135</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/recommendation-engine-for-insurance-sector-to-expand-business-in-the-rural-area/</t>
-        </is>
+          <t>Your URL for article_135</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.02654867256637168</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.03539823008849557</v>
+      </c>
+      <c r="G42" t="n">
+        <v>17.38461538461538</v>
+      </c>
+      <c r="H42" t="n">
+        <v>42.0353982300885</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23.76800544588155</v>
+      </c>
+      <c r="J42" t="n">
+        <v>17.38461538461538</v>
+      </c>
+      <c r="K42" t="n">
+        <v>95</v>
+      </c>
+      <c r="L42" t="n">
+        <v>226</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.491150442477876</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>6.831858407079646</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Netclan20241058</t>
+          <t>article_136</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/data-from-crm-via-zapier-to-google-sheets-dynamic-to-powerbi/</t>
-        </is>
+          <t>Your URL for article_136</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.02608695652173913</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.03478260869565217</v>
+      </c>
+      <c r="G43" t="n">
+        <v>19.16666666666667</v>
+      </c>
+      <c r="H43" t="n">
+        <v>40</v>
+      </c>
+      <c r="I43" t="n">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="J43" t="n">
+        <v>19.16666666666667</v>
+      </c>
+      <c r="K43" t="n">
+        <v>92</v>
+      </c>
+      <c r="L43" t="n">
+        <v>230</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2.460869565217391</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>6.843478260869565</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Netclan20241059</t>
+          <t>article_137</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/data-warehouse-to-google-data-studio-looker-dashboard/</t>
-        </is>
+          <t>Your URL for article_137</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>6</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.02232142857142857</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="G44" t="n">
+        <v>17.23076923076923</v>
+      </c>
+      <c r="H44" t="n">
+        <v>40.625</v>
+      </c>
+      <c r="I44" t="n">
+        <v>23.14230769230769</v>
+      </c>
+      <c r="J44" t="n">
+        <v>17.23076923076923</v>
+      </c>
+      <c r="K44" t="n">
+        <v>91</v>
+      </c>
+      <c r="L44" t="n">
+        <v>224</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.504464285714286</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>6.879464285714286</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Netclan20241060</t>
+          <t>article_138</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/crm-monday-com-via-zapier-to-power-bi-dashboard/</t>
-        </is>
+          <t>Your URL for article_138</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.01904761904761905</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="G45" t="n">
+        <v>23.33333333333333</v>
+      </c>
+      <c r="H45" t="n">
+        <v>41.42857142857143</v>
+      </c>
+      <c r="I45" t="n">
+        <v>25.90476190476191</v>
+      </c>
+      <c r="J45" t="n">
+        <v>23.33333333333333</v>
+      </c>
+      <c r="K45" t="n">
+        <v>87</v>
+      </c>
+      <c r="L45" t="n">
+        <v>210</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2.471428571428572</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>6.823809523809524</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Netclan20241061</t>
+          <t>article_139</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/monday-com-to-kpi-dashboard-to-manage-view-and-generate-insights-from-the-crm-data/</t>
-        </is>
+          <t>Your URL for article_139</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.02369668246445497</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.03317535545023697</v>
+      </c>
+      <c r="G46" t="n">
+        <v>19.18181818181818</v>
+      </c>
+      <c r="H46" t="n">
+        <v>42.18009478672986</v>
+      </c>
+      <c r="I46" t="n">
+        <v>24.54476518741922</v>
+      </c>
+      <c r="J46" t="n">
+        <v>19.18181818181818</v>
+      </c>
+      <c r="K46" t="n">
+        <v>89</v>
+      </c>
+      <c r="L46" t="n">
+        <v>211</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2.511848341232227</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>6.824644549763033</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Netclan20241062</t>
+          <t>article_14</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/data-management-for-a-political-saas-application/</t>
-        </is>
+          <t>Your URL for article_14</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>16</v>
+      </c>
+      <c r="D47" t="n">
+        <v>6</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0267379679144385</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="G47" t="n">
+        <v>13.85185185185185</v>
+      </c>
+      <c r="H47" t="n">
+        <v>53.20855614973262</v>
+      </c>
+      <c r="I47" t="n">
+        <v>26.82416320063379</v>
+      </c>
+      <c r="J47" t="n">
+        <v>13.85185185185185</v>
+      </c>
+      <c r="K47" t="n">
+        <v>199</v>
+      </c>
+      <c r="L47" t="n">
+        <v>374</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.745989304812834</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6</v>
+      </c>
+      <c r="O47" t="n">
+        <v>7.655080213903743</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Netclan20241063</t>
+          <t>article_140</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/google-lsa-ads-google-local-service-ads-etl-tools-and-dashboards/</t>
-        </is>
+          <t>Your URL for article_140</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>7</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.01716738197424893</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.04291845493562232</v>
+      </c>
+      <c r="G48" t="n">
+        <v>13.70588235294118</v>
+      </c>
+      <c r="H48" t="n">
+        <v>39.05579399141631</v>
+      </c>
+      <c r="I48" t="n">
+        <v>21.10467053774299</v>
+      </c>
+      <c r="J48" t="n">
+        <v>13.70588235294118</v>
+      </c>
+      <c r="K48" t="n">
+        <v>91</v>
+      </c>
+      <c r="L48" t="n">
+        <v>233</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2.433476394849786</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2</v>
+      </c>
+      <c r="O48" t="n">
+        <v>6.793991416309013</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Netclan20241064</t>
+          <t>article_141</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ad-networks-marketing-campaign-data-dashboard-in-looker-google-data-studio/</t>
-        </is>
+          <t>Your URL for article_141</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>16</v>
+      </c>
+      <c r="D49" t="n">
+        <v>11</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.007836990595611285</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.04231974921630094</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9.522388059701493</v>
+      </c>
+      <c r="H49" t="n">
+        <v>33.69905956112852</v>
+      </c>
+      <c r="I49" t="n">
+        <v>17.28857904833201</v>
+      </c>
+      <c r="J49" t="n">
+        <v>9.522388059701493</v>
+      </c>
+      <c r="K49" t="n">
+        <v>215</v>
+      </c>
+      <c r="L49" t="n">
+        <v>638</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2.371473354231975</v>
+      </c>
+      <c r="N49" t="n">
+        <v>7</v>
+      </c>
+      <c r="O49" t="n">
+        <v>6.755485893416928</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Netclan20241065</t>
+          <t>article_142</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/analytical-solution-for-a-tech-firm/</t>
-        </is>
+          <t>Your URL for article_142</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>12</v>
+      </c>
+      <c r="D50" t="n">
+        <v>8</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.009732360097323601</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.04866180048661801</v>
+      </c>
+      <c r="G50" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="H50" t="n">
+        <v>48.9051094890511</v>
+      </c>
+      <c r="I50" t="n">
+        <v>26.13804379562044</v>
+      </c>
+      <c r="J50" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="K50" t="n">
+        <v>201</v>
+      </c>
+      <c r="L50" t="n">
+        <v>411</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2.632603406326034</v>
+      </c>
+      <c r="N50" t="n">
+        <v>5</v>
+      </c>
+      <c r="O50" t="n">
+        <v>7.201946472019465</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Netclan20241066</t>
+          <t>article_143</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-solution-for-a-technology-information-and-internet-firm/</t>
-        </is>
+          <t>Your URL for article_143</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>15</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.009584664536741214</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.03833865814696485</v>
+      </c>
+      <c r="G51" t="n">
+        <v>13.04166666666667</v>
+      </c>
+      <c r="H51" t="n">
+        <v>42.17252396166134</v>
+      </c>
+      <c r="I51" t="n">
+        <v>22.0856762513312</v>
+      </c>
+      <c r="J51" t="n">
+        <v>13.04166666666667</v>
+      </c>
+      <c r="K51" t="n">
+        <v>264</v>
+      </c>
+      <c r="L51" t="n">
+        <v>626</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2.468051118210862</v>
+      </c>
+      <c r="N51" t="n">
+        <v>4</v>
+      </c>
+      <c r="O51" t="n">
+        <v>6.827476038338658</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Netclan20241067</t>
+          <t>article_144</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-and-nlp-based-solutions-to-automate-data-discovery-for-venture-capital-and-private-equity-principals/</t>
-        </is>
+          <t>Your URL for article_144</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>23</v>
+      </c>
+      <c r="D52" t="n">
+        <v>20</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.003264417845484222</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.04678998911860718</v>
+      </c>
+      <c r="G52" t="n">
+        <v>11.63291139240506</v>
+      </c>
+      <c r="H52" t="n">
+        <v>37.10554951033732</v>
+      </c>
+      <c r="I52" t="n">
+        <v>19.49538436109695</v>
+      </c>
+      <c r="J52" t="n">
+        <v>11.63291139240506</v>
+      </c>
+      <c r="K52" t="n">
+        <v>341</v>
+      </c>
+      <c r="L52" t="n">
+        <v>919</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2.347116430903156</v>
+      </c>
+      <c r="N52" t="n">
+        <v>6</v>
+      </c>
+      <c r="O52" t="n">
+        <v>6.636561479869424</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Netclan20241068</t>
+          <t>article_145</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/an-etl-solution-for-an-internet-publishing-firm/</t>
-        </is>
+          <t>Your URL for article_145</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="n">
+        <v>8</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.008298755186721992</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.07468879668049792</v>
+      </c>
+      <c r="G53" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="H53" t="n">
+        <v>39.41908713692946</v>
+      </c>
+      <c r="I53" t="n">
+        <v>20.58763485477179</v>
+      </c>
+      <c r="J53" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="K53" t="n">
+        <v>95</v>
+      </c>
+      <c r="L53" t="n">
+        <v>241</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2.452282157676349</v>
+      </c>
+      <c r="N53" t="n">
+        <v>12</v>
+      </c>
+      <c r="O53" t="n">
+        <v>6.813278008298755</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Netclan20241069</t>
+          <t>article_146</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-based-algorithmic-trading-bot-for-forex/</t>
-        </is>
+          <t>Your URL for article_146</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.01273885350318471</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.02547770700636943</v>
+      </c>
+      <c r="G54" t="n">
+        <v>22.42857142857143</v>
+      </c>
+      <c r="H54" t="n">
+        <v>43.94904458598726</v>
+      </c>
+      <c r="I54" t="n">
+        <v>26.55104640582347</v>
+      </c>
+      <c r="J54" t="n">
+        <v>22.42857142857143</v>
+      </c>
+      <c r="K54" t="n">
+        <v>69</v>
+      </c>
+      <c r="L54" t="n">
+        <v>157</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2.662420382165605</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>7.29936305732484</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Netclan20241070</t>
+          <t>article_147</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/equity-waterfalls-model-based-saas-application-for-real-estate-sector/</t>
-        </is>
+          <t>Your URL for article_147</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.01923076923076923</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.02884615384615385</v>
+      </c>
+      <c r="G55" t="n">
+        <v>13.86666666666667</v>
+      </c>
+      <c r="H55" t="n">
+        <v>40.38461538461539</v>
+      </c>
+      <c r="I55" t="n">
+        <v>21.70051282051282</v>
+      </c>
+      <c r="J55" t="n">
+        <v>13.86666666666667</v>
+      </c>
+      <c r="K55" t="n">
+        <v>84</v>
+      </c>
+      <c r="L55" t="n">
+        <v>208</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2.456730769230769</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" t="n">
+        <v>6.817307692307693</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Netclan20241071</t>
+          <t>article_15</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-solutions-for-foreign-exchange-an-automated-algo-trading-tool/</t>
-        </is>
+          <t>Your URL for article_15</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>66</v>
+      </c>
+      <c r="D56" t="n">
+        <v>26</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.04012036108324975</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.09227683049147442</v>
+      </c>
+      <c r="G56" t="n">
+        <v>12.15853658536585</v>
+      </c>
+      <c r="H56" t="n">
+        <v>49.64894684052156</v>
+      </c>
+      <c r="I56" t="n">
+        <v>24.72299337035497</v>
+      </c>
+      <c r="J56" t="n">
+        <v>12.15853658536585</v>
+      </c>
+      <c r="K56" t="n">
+        <v>495</v>
+      </c>
+      <c r="L56" t="n">
+        <v>997</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2.605817452357071</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6</v>
+      </c>
+      <c r="O56" t="n">
+        <v>7.425275827482447</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Netclan20241072</t>
+          <t>article_16</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-agent-development-and-deployment-in-jina-ai/</t>
-        </is>
+          <t>Your URL for article_16</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>10</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.01212121212121212</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.04848484848484848</v>
+      </c>
+      <c r="G57" t="n">
+        <v>15.71428571428571</v>
+      </c>
+      <c r="H57" t="n">
+        <v>43.03030303030303</v>
+      </c>
+      <c r="I57" t="n">
+        <v>23.4978354978355</v>
+      </c>
+      <c r="J57" t="n">
+        <v>15.71428571428571</v>
+      </c>
+      <c r="K57" t="n">
+        <v>142</v>
+      </c>
+      <c r="L57" t="n">
+        <v>330</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2.521212121212121</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2</v>
+      </c>
+      <c r="O57" t="n">
+        <v>7.024242424242424</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Netclan20241073</t>
+          <t>article_17</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/golden-record-a-knowledge-graph-database-approach-to-unfold-discovery-using-neo4j/</t>
-        </is>
+          <t>Your URL for article_17</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>44</v>
+      </c>
+      <c r="D58" t="n">
+        <v>8</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.05529953917050692</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.07987711213517665</v>
+      </c>
+      <c r="G58" t="n">
+        <v>14.46666666666667</v>
+      </c>
+      <c r="H58" t="n">
+        <v>54.68509984639017</v>
+      </c>
+      <c r="I58" t="n">
+        <v>27.66070660522274</v>
+      </c>
+      <c r="J58" t="n">
+        <v>14.46666666666667</v>
+      </c>
+      <c r="K58" t="n">
+        <v>356</v>
+      </c>
+      <c r="L58" t="n">
+        <v>651</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2.76036866359447</v>
+      </c>
+      <c r="N58" t="n">
+        <v>16</v>
+      </c>
+      <c r="O58" t="n">
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Netclan20241074</t>
+          <t>article_18</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/advanced-ai-for-trading-automation/</t>
-        </is>
+          <t>Your URL for article_18</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.01568627450980392</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="G59" t="n">
+        <v>13.42105263157895</v>
+      </c>
+      <c r="H59" t="n">
+        <v>44.70588235294118</v>
+      </c>
+      <c r="I59" t="n">
+        <v>23.25077399380805</v>
+      </c>
+      <c r="J59" t="n">
+        <v>13.42105263157895</v>
+      </c>
+      <c r="K59" t="n">
+        <v>114</v>
+      </c>
+      <c r="L59" t="n">
+        <v>255</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2.564705882352941</v>
+      </c>
+      <c r="N59" t="n">
+        <v>4</v>
+      </c>
+      <c r="O59" t="n">
+        <v>7.188235294117647</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Netclan20241075</t>
+          <t>article_19</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/create-a-knowledge-graph-to-provide-real-time-analytics-recommendations-and-a-single-source-of-truth/</t>
-        </is>
+          <t>Your URL for article_19</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>17</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.03468208092485549</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.06358381502890173</v>
+      </c>
+      <c r="G60" t="n">
+        <v>14.41666666666667</v>
+      </c>
+      <c r="H60" t="n">
+        <v>49.42196531791907</v>
+      </c>
+      <c r="I60" t="n">
+        <v>25.5354527938343</v>
+      </c>
+      <c r="J60" t="n">
+        <v>14.41666666666667</v>
+      </c>
+      <c r="K60" t="n">
+        <v>171</v>
+      </c>
+      <c r="L60" t="n">
+        <v>346</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2.673410404624277</v>
+      </c>
+      <c r="N60" t="n">
+        <v>4</v>
+      </c>
+      <c r="O60" t="n">
+        <v>7.30635838150289</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Netclan20241076</t>
+          <t>article_2</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/advanced-ai-for-thermal-person-detection/</t>
-        </is>
+          <t>Your URL for article_2</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>18</v>
+      </c>
+      <c r="D61" t="n">
+        <v>8</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.01879699248120301</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.04887218045112782</v>
+      </c>
+      <c r="G61" t="n">
+        <v>12.09090909090909</v>
+      </c>
+      <c r="H61" t="n">
+        <v>37.59398496240601</v>
+      </c>
+      <c r="I61" t="n">
+        <v>19.87395762132604</v>
+      </c>
+      <c r="J61" t="n">
+        <v>12.09090909090909</v>
+      </c>
+      <c r="K61" t="n">
+        <v>200</v>
+      </c>
+      <c r="L61" t="n">
+        <v>532</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2.385338345864662</v>
+      </c>
+      <c r="N61" t="n">
+        <v>7</v>
+      </c>
+      <c r="O61" t="n">
+        <v>6.815789473684211</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Netclan20241077</t>
+          <t>article_20</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/advanced-ai-for-road-cam-threat-detection/</t>
-        </is>
+          <t>Your URL for article_20</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>23</v>
+      </c>
+      <c r="D62" t="n">
+        <v>8</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.04143646408839779</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0856353591160221</v>
+      </c>
+      <c r="G62" t="n">
+        <v>15.08333333333333</v>
+      </c>
+      <c r="H62" t="n">
+        <v>48.06629834254144</v>
+      </c>
+      <c r="I62" t="n">
+        <v>25.25985267034991</v>
+      </c>
+      <c r="J62" t="n">
+        <v>15.08333333333333</v>
+      </c>
+      <c r="K62" t="n">
+        <v>174</v>
+      </c>
+      <c r="L62" t="n">
+        <v>362</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2.604972375690608</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3</v>
+      </c>
+      <c r="O62" t="n">
+        <v>7.052486187845304</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Netclan20241078</t>
+          <t>article_21</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/advanced-ai-for-pedestrian-crossing-safety/</t>
-        </is>
+          <t>Your URL for article_21</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>14</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.05329153605015674</v>
+      </c>
+      <c r="G63" t="n">
+        <v>10.63333333333333</v>
+      </c>
+      <c r="H63" t="n">
+        <v>41.37931034482759</v>
+      </c>
+      <c r="I63" t="n">
+        <v>20.80505747126437</v>
+      </c>
+      <c r="J63" t="n">
+        <v>10.63333333333333</v>
+      </c>
+      <c r="K63" t="n">
+        <v>132</v>
+      </c>
+      <c r="L63" t="n">
+        <v>319</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2.520376175548589</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3</v>
+      </c>
+      <c r="O63" t="n">
+        <v>6.93730407523511</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Netclan20241079</t>
+          <t>article_22</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/handgun-detection-using-yolo/</t>
-        </is>
+          <t>Your URL for article_22</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>14</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.03283582089552239</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.05074626865671641</v>
+      </c>
+      <c r="G64" t="n">
+        <v>12.40740740740741</v>
+      </c>
+      <c r="H64" t="n">
+        <v>51.34328358208955</v>
+      </c>
+      <c r="I64" t="n">
+        <v>25.50027639579878</v>
+      </c>
+      <c r="J64" t="n">
+        <v>12.40740740740741</v>
+      </c>
+      <c r="K64" t="n">
+        <v>172</v>
+      </c>
+      <c r="L64" t="n">
+        <v>335</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2.71044776119403</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3</v>
+      </c>
+      <c r="O64" t="n">
+        <v>7.388059701492537</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Netclan20241080</t>
+          <t>article_23</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/using-graph-technology-to-create-single-customer-view/</t>
-        </is>
+          <t>Your URL for article_23</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>14</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.03384615384615385</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.05230769230769231</v>
+      </c>
+      <c r="G65" t="n">
+        <v>10.83333333333333</v>
+      </c>
+      <c r="H65" t="n">
+        <v>42.46153846153846</v>
+      </c>
+      <c r="I65" t="n">
+        <v>21.31794871794872</v>
+      </c>
+      <c r="J65" t="n">
+        <v>10.83333333333333</v>
+      </c>
+      <c r="K65" t="n">
+        <v>138</v>
+      </c>
+      <c r="L65" t="n">
+        <v>325</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2.523076923076923</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3</v>
+      </c>
+      <c r="O65" t="n">
+        <v>7.153846153846154</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Netclan20241081</t>
+          <t>article_24</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/car-detection-in-satellite-images/</t>
-        </is>
+          <t>Your URL for article_24</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>20</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.05538461538461539</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.06769230769230769</v>
+      </c>
+      <c r="G66" t="n">
+        <v>11.60714285714286</v>
+      </c>
+      <c r="H66" t="n">
+        <v>47.38461538461539</v>
+      </c>
+      <c r="I66" t="n">
+        <v>23.5967032967033</v>
+      </c>
+      <c r="J66" t="n">
+        <v>11.60714285714286</v>
+      </c>
+      <c r="K66" t="n">
+        <v>154</v>
+      </c>
+      <c r="L66" t="n">
+        <v>325</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2.655384615384615</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3</v>
+      </c>
+      <c r="O66" t="n">
+        <v>7.415384615384616</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Netclan20241082</t>
+          <t>article_25</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/building-a-physics-informed-neural-network-for-circuit-evaluation/</t>
-        </is>
+          <t>Your URL for article_25</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>23</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.06097560975609756</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.07926829268292683</v>
+      </c>
+      <c r="G67" t="n">
+        <v>12.14814814814815</v>
+      </c>
+      <c r="H67" t="n">
+        <v>48.47560975609756</v>
+      </c>
+      <c r="I67" t="n">
+        <v>24.24950316169829</v>
+      </c>
+      <c r="J67" t="n">
+        <v>12.14814814814815</v>
+      </c>
+      <c r="K67" t="n">
+        <v>159</v>
+      </c>
+      <c r="L67" t="n">
+        <v>328</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2.649390243902439</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3</v>
+      </c>
+      <c r="O67" t="n">
+        <v>7.375</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Netclan20241083</t>
+          <t>article_26</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/connecting-mongodb-database-to-power-bi-dashboard-dashboard-automation/</t>
-        </is>
+          <t>Your URL for article_26</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>18</v>
+      </c>
+      <c r="D68" t="n">
+        <v>10</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.02373887240356083</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0830860534124629</v>
+      </c>
+      <c r="G68" t="n">
+        <v>11.62068965517241</v>
+      </c>
+      <c r="H68" t="n">
+        <v>48.6646884272997</v>
+      </c>
+      <c r="I68" t="n">
+        <v>24.11415123298885</v>
+      </c>
+      <c r="J68" t="n">
+        <v>11.62068965517241</v>
+      </c>
+      <c r="K68" t="n">
+        <v>164</v>
+      </c>
+      <c r="L68" t="n">
+        <v>337</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2.623145400593472</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3</v>
+      </c>
+      <c r="O68" t="n">
+        <v>7.15727002967359</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Netclan20241084</t>
+          <t>article_27</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/data-transformation/</t>
-        </is>
+          <t>Your URL for article_27</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>12</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.03642384105960265</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.04304635761589404</v>
+      </c>
+      <c r="G69" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>45.36423841059602</v>
+      </c>
+      <c r="I69" t="n">
+        <v>24.18569536423841</v>
+      </c>
+      <c r="J69" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>137</v>
+      </c>
+      <c r="L69" t="n">
+        <v>302</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2.572847682119205</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2</v>
+      </c>
+      <c r="O69" t="n">
+        <v>7.357615894039735</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Netclan20241085</t>
+          <t>article_28</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/e-commerce-store-analysis-purchase-behavior-ad-spend-conversion-traffic-etc/</t>
-        </is>
+          <t>Your URL for article_28</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>20</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.04009433962264151</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.05424528301886793</v>
+      </c>
+      <c r="G70" t="n">
+        <v>15.14285714285714</v>
+      </c>
+      <c r="H70" t="n">
+        <v>44.5754716981132</v>
+      </c>
+      <c r="I70" t="n">
+        <v>23.88733153638814</v>
+      </c>
+      <c r="J70" t="n">
+        <v>15.14285714285714</v>
+      </c>
+      <c r="K70" t="n">
+        <v>189</v>
+      </c>
+      <c r="L70" t="n">
+        <v>424</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2.485849056603774</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2</v>
+      </c>
+      <c r="O70" t="n">
+        <v>7.19811320754717</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Netclan20241086</t>
+          <t>article_29</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/kpi-dashboard-for-accountants/</t>
-        </is>
+          <t>Your URL for article_29</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>16</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.02989130434782609</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.05706521739130434</v>
+      </c>
+      <c r="G71" t="n">
+        <v>14.15384615384615</v>
+      </c>
+      <c r="H71" t="n">
+        <v>41.84782608695652</v>
+      </c>
+      <c r="I71" t="n">
+        <v>22.40066889632107</v>
+      </c>
+      <c r="J71" t="n">
+        <v>14.15384615384615</v>
+      </c>
+      <c r="K71" t="n">
+        <v>154</v>
+      </c>
+      <c r="L71" t="n">
+        <v>368</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2.548913043478261</v>
+      </c>
+      <c r="N71" t="n">
+        <v>3</v>
+      </c>
+      <c r="O71" t="n">
+        <v>7.211956521739131</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Netclan20241087</t>
+          <t>article_3</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/return-on-advertising-spend-dashboard-marketing-automation-and-analytics-using-etl-and-dashboard/</t>
-        </is>
+          <t>Your URL for article_3</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>16</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.06643356643356643</v>
+      </c>
+      <c r="G72" t="n">
+        <v>19.06666666666667</v>
+      </c>
+      <c r="H72" t="n">
+        <v>37.06293706293706</v>
+      </c>
+      <c r="I72" t="n">
+        <v>22.45184149184149</v>
+      </c>
+      <c r="J72" t="n">
+        <v>19.06666666666667</v>
+      </c>
+      <c r="K72" t="n">
+        <v>106</v>
+      </c>
+      <c r="L72" t="n">
+        <v>286</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2.41958041958042</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2</v>
+      </c>
+      <c r="O72" t="n">
+        <v>6.884615384615385</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Netclan20241088</t>
+          <t>article_30</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ranking-customer-behaviours-for-business-strategy/</t>
-        </is>
+          <t>Your URL for article_30</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>24</v>
+      </c>
+      <c r="D73" t="n">
+        <v>9</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.02976190476190476</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.06547619047619048</v>
+      </c>
+      <c r="G73" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H73" t="n">
+        <v>42.46031746031746</v>
+      </c>
+      <c r="I73" t="n">
+        <v>22.02412698412699</v>
+      </c>
+      <c r="J73" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K73" t="n">
+        <v>214</v>
+      </c>
+      <c r="L73" t="n">
+        <v>504</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2.503968253968254</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2</v>
+      </c>
+      <c r="O73" t="n">
+        <v>7.115079365079365</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Netclan20241089</t>
+          <t>article_31</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/algorithmic-trading-for-multiple-commodities-markets-like-forex-metals-energy-etc/</t>
-        </is>
+          <t>Your URL for article_31</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>11</v>
+      </c>
+      <c r="D74" t="n">
+        <v>6</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.01319261213720317</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.04485488126649077</v>
+      </c>
+      <c r="G74" t="n">
+        <v>13.53571428571429</v>
+      </c>
+      <c r="H74" t="n">
+        <v>44.32717678100263</v>
+      </c>
+      <c r="I74" t="n">
+        <v>23.14515642668677</v>
+      </c>
+      <c r="J74" t="n">
+        <v>13.53571428571429</v>
+      </c>
+      <c r="K74" t="n">
+        <v>168</v>
+      </c>
+      <c r="L74" t="n">
+        <v>379</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2.538258575197889</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3</v>
+      </c>
+      <c r="O74" t="n">
+        <v>7.055408970976253</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Netclan20241090</t>
+          <t>article_32</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/trading-bot-for-forex/</t>
-        </is>
+          <t>Your URL for article_32</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>50</v>
+      </c>
+      <c r="D75" t="n">
+        <v>16</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.05519480519480519</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="G75" t="n">
+        <v>16.21052631578947</v>
+      </c>
+      <c r="H75" t="n">
+        <v>51.2987012987013</v>
+      </c>
+      <c r="I75" t="n">
+        <v>27.00369104579631</v>
+      </c>
+      <c r="J75" t="n">
+        <v>16.21052631578947</v>
+      </c>
+      <c r="K75" t="n">
+        <v>316</v>
+      </c>
+      <c r="L75" t="n">
+        <v>616</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2.732142857142857</v>
+      </c>
+      <c r="N75" t="n">
+        <v>6</v>
+      </c>
+      <c r="O75" t="n">
+        <v>7.636363636363637</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Netclan20241091</t>
+          <t>article_33</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/python-model-for-the-analysis-of-sector-specific-stock-etfs-for-investment-purposes%ef%bf%bc/</t>
-        </is>
+          <t>Your URL for article_33</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>21</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.02877697841726619</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.04676258992805755</v>
+      </c>
+      <c r="G76" t="n">
+        <v>13.23809523809524</v>
+      </c>
+      <c r="H76" t="n">
+        <v>35.43165467625899</v>
+      </c>
+      <c r="I76" t="n">
+        <v>19.46789996574169</v>
+      </c>
+      <c r="J76" t="n">
+        <v>13.23809523809524</v>
+      </c>
+      <c r="K76" t="n">
+        <v>197</v>
+      </c>
+      <c r="L76" t="n">
+        <v>556</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2.366906474820144</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2</v>
+      </c>
+      <c r="O76" t="n">
+        <v>6.796762589928058</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Netclan20241092</t>
+          <t>article_34</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/medical-classification/</t>
-        </is>
+          <t>Your URL for article_34</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>22</v>
+      </c>
+      <c r="D77" t="n">
+        <v>7</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.04201680672268908</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.08123249299719888</v>
+      </c>
+      <c r="G77" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="H77" t="n">
+        <v>48.17927170868347</v>
+      </c>
+      <c r="I77" t="n">
+        <v>24.98370868347339</v>
+      </c>
+      <c r="J77" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="K77" t="n">
+        <v>172</v>
+      </c>
+      <c r="L77" t="n">
+        <v>357</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2.610644257703081</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2</v>
+      </c>
+      <c r="O77" t="n">
+        <v>7.375350140056023</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Netclan20241093</t>
+          <t>article_35</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/design-develop-bert-question-answering-model-explanations-with-visualization/</t>
-        </is>
+          <t>Your URL for article_35</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>33</v>
+      </c>
+      <c r="D78" t="n">
+        <v>27</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.005825242718446602</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.05825242718446602</v>
+      </c>
+      <c r="G78" t="n">
+        <v>9.80952380952381</v>
+      </c>
+      <c r="H78" t="n">
+        <v>41.74757281553398</v>
+      </c>
+      <c r="I78" t="n">
+        <v>20.62283865002312</v>
+      </c>
+      <c r="J78" t="n">
+        <v>9.80952380952381</v>
+      </c>
+      <c r="K78" t="n">
+        <v>430</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1030</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2.506796116504854</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="n">
+        <v>7.290291262135923</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Netclan20241094</t>
+          <t>article_36</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/design-and-develop-solution-to-anomaly-detection-classification-problems/</t>
-        </is>
+          <t>Your URL for article_36</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>17</v>
+      </c>
+      <c r="D79" t="n">
+        <v>20</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.06166666666666667</v>
+      </c>
+      <c r="G79" t="n">
+        <v>11.53846153846154</v>
+      </c>
+      <c r="H79" t="n">
+        <v>43.83333333333334</v>
+      </c>
+      <c r="I79" t="n">
+        <v>22.14871794871795</v>
+      </c>
+      <c r="J79" t="n">
+        <v>11.53846153846154</v>
+      </c>
+      <c r="K79" t="n">
+        <v>263</v>
+      </c>
+      <c r="L79" t="n">
+        <v>600</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2.513333333333333</v>
+      </c>
+      <c r="N79" t="n">
+        <v>3</v>
+      </c>
+      <c r="O79" t="n">
+        <v>7.048333333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Netclan20241095</t>
+          <t>article_37</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/an-etl-solution-for-currency-data-to-google-big-query/</t>
-        </is>
+          <t>Your URL for article_37</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>20</v>
+      </c>
+      <c r="D80" t="n">
+        <v>7</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.02053712480252765</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.04265402843601896</v>
+      </c>
+      <c r="G80" t="n">
+        <v>13.1875</v>
+      </c>
+      <c r="H80" t="n">
+        <v>52.29067930489732</v>
+      </c>
+      <c r="I80" t="n">
+        <v>26.19127172195893</v>
+      </c>
+      <c r="J80" t="n">
+        <v>13.1875</v>
+      </c>
+      <c r="K80" t="n">
+        <v>331</v>
+      </c>
+      <c r="L80" t="n">
+        <v>633</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2.684044233807267</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7</v>
+      </c>
+      <c r="O80" t="n">
+        <v>7.540284360189573</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Netclan20241096</t>
+          <t>article_38</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/etl-and-mlops-infrastructure-for-blockchain-analytics/</t>
-        </is>
+          <t>Your URL for article_38</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>15</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.03561643835616438</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.04657534246575343</v>
+      </c>
+      <c r="G81" t="n">
+        <v>17.38095238095238</v>
+      </c>
+      <c r="H81" t="n">
+        <v>43.01369863013699</v>
+      </c>
+      <c r="I81" t="n">
+        <v>24.15786040443575</v>
+      </c>
+      <c r="J81" t="n">
+        <v>17.38095238095238</v>
+      </c>
+      <c r="K81" t="n">
+        <v>157</v>
+      </c>
+      <c r="L81" t="n">
+        <v>365</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2.484931506849315</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2</v>
+      </c>
+      <c r="O81" t="n">
+        <v>6.980821917808219</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Netclan20241097</t>
+          <t>article_39</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/an-agent-based-model-of-a-virtual-power-plant-vpp/</t>
-        </is>
+          <t>Your URL for article_39</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>45</v>
+      </c>
+      <c r="D82" t="n">
+        <v>4</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.07130434782608695</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.08521739130434783</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4.713114754098361</v>
+      </c>
+      <c r="H82" t="n">
+        <v>31.82608695652174</v>
+      </c>
+      <c r="I82" t="n">
+        <v>14.61568068424804</v>
+      </c>
+      <c r="J82" t="n">
+        <v>4.713114754098361</v>
+      </c>
+      <c r="K82" t="n">
+        <v>183</v>
+      </c>
+      <c r="L82" t="n">
+        <v>575</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2.259130434782609</v>
+      </c>
+      <c r="N82" t="n">
+        <v>22</v>
+      </c>
+      <c r="O82" t="n">
+        <v>6.615652173913044</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Netclan20241098</t>
+          <t>article_4</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/transform-api-into-sdk-library-and-widget/</t>
-        </is>
+          <t>Your URL for article_4</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>26</v>
+      </c>
+      <c r="D83" t="n">
+        <v>12</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.07436399217221135</v>
+      </c>
+      <c r="G83" t="n">
+        <v>15.02941176470588</v>
+      </c>
+      <c r="H83" t="n">
+        <v>55.77299412915851</v>
+      </c>
+      <c r="I83" t="n">
+        <v>28.32096235754576</v>
+      </c>
+      <c r="J83" t="n">
+        <v>15.02941176470588</v>
+      </c>
+      <c r="K83" t="n">
+        <v>285</v>
+      </c>
+      <c r="L83" t="n">
+        <v>511</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2.731898238747554</v>
+      </c>
+      <c r="N83" t="n">
+        <v>5</v>
+      </c>
+      <c r="O83" t="n">
+        <v>7.632093933463796</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Netclan20241099</t>
+          <t>article_40</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/integration-of-a-product-to-a-cloud-based-crm-platform/</t>
-        </is>
+          <t>Your URL for article_40</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.01142857142857143</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.02285714285714286</v>
+      </c>
+      <c r="G84" t="n">
+        <v>25</v>
+      </c>
+      <c r="H84" t="n">
+        <v>40</v>
+      </c>
+      <c r="I84" t="n">
+        <v>26</v>
+      </c>
+      <c r="J84" t="n">
+        <v>25</v>
+      </c>
+      <c r="K84" t="n">
+        <v>70</v>
+      </c>
+      <c r="L84" t="n">
+        <v>175</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2.491428571428572</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="n">
+        <v>6.862857142857143</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Netclan20241100</t>
+          <t>article_41</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/a-web-based-dashboard-for-the-filtered-data-retrieval-of-land-records/</t>
-        </is>
+          <t>Your URL for article_41</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>12</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.02727272727272727</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="G85" t="n">
+        <v>19.41176470588235</v>
+      </c>
+      <c r="H85" t="n">
+        <v>43.33333333333334</v>
+      </c>
+      <c r="I85" t="n">
+        <v>25.09803921568628</v>
+      </c>
+      <c r="J85" t="n">
+        <v>19.41176470588235</v>
+      </c>
+      <c r="K85" t="n">
+        <v>143</v>
+      </c>
+      <c r="L85" t="n">
+        <v>330</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2.533333333333333</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3</v>
+      </c>
+      <c r="O85" t="n">
+        <v>7.045454545454546</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Netclan20241101</t>
+          <t>article_42</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/integration-of-video-conferencing-data-to-the-existing-web-app/</t>
-        </is>
+          <t>Your URL for article_42</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>13</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.05681818181818182</v>
+      </c>
+      <c r="G86" t="n">
+        <v>12.57142857142857</v>
+      </c>
+      <c r="H86" t="n">
+        <v>36.36363636363637</v>
+      </c>
+      <c r="I86" t="n">
+        <v>19.57402597402598</v>
+      </c>
+      <c r="J86" t="n">
+        <v>12.57142857142857</v>
+      </c>
+      <c r="K86" t="n">
+        <v>96</v>
+      </c>
+      <c r="L86" t="n">
+        <v>264</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2.352272727272727</v>
+      </c>
+      <c r="N86" t="n">
+        <v>5</v>
+      </c>
+      <c r="O86" t="n">
+        <v>6.681818181818182</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Netclan20241102</t>
+          <t>article_43</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/design-develop-an-app-in-retool-which-shows-the-progress-of-the-added-video/</t>
-        </is>
+          <t>Your URL for article_43</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>7</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0176678445229682</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.03180212014134275</v>
+      </c>
+      <c r="G87" t="n">
+        <v>12.30434782608696</v>
+      </c>
+      <c r="H87" t="n">
+        <v>36.74911660777385</v>
+      </c>
+      <c r="I87" t="n">
+        <v>19.62138577354433</v>
+      </c>
+      <c r="J87" t="n">
+        <v>12.30434782608696</v>
+      </c>
+      <c r="K87" t="n">
+        <v>104</v>
+      </c>
+      <c r="L87" t="n">
+        <v>283</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2.424028268551237</v>
+      </c>
+      <c r="N87" t="n">
+        <v>10</v>
+      </c>
+      <c r="O87" t="n">
+        <v>6.879858657243816</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Netclan20241103</t>
+          <t>article_44</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/auvik-connectwise-integration-in-grafana/</t>
-        </is>
+          <t>Your URL for article_44</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>14</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.02903225806451613</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.06129032258064516</v>
+      </c>
+      <c r="G88" t="n">
+        <v>8.857142857142858</v>
+      </c>
+      <c r="H88" t="n">
+        <v>33.5483870967742</v>
+      </c>
+      <c r="I88" t="n">
+        <v>16.96221198156682</v>
+      </c>
+      <c r="J88" t="n">
+        <v>8.857142857142858</v>
+      </c>
+      <c r="K88" t="n">
+        <v>104</v>
+      </c>
+      <c r="L88" t="n">
+        <v>310</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2.238709677419355</v>
+      </c>
+      <c r="N88" t="n">
+        <v>17</v>
+      </c>
+      <c r="O88" t="n">
+        <v>6.532258064516129</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Netclan20241104</t>
+          <t>article_45</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/data-integration-and-big-data-performance-using-elk-stack/</t>
-        </is>
+          <t>Your URL for article_45</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>19</v>
+      </c>
+      <c r="D89" t="n">
+        <v>9</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.03021148036253777</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.08459214501510574</v>
+      </c>
+      <c r="G89" t="n">
+        <v>8.710526315789474</v>
+      </c>
+      <c r="H89" t="n">
+        <v>36.25377643504532</v>
+      </c>
+      <c r="I89" t="n">
+        <v>17.98572110033392</v>
+      </c>
+      <c r="J89" t="n">
+        <v>8.710526315789474</v>
+      </c>
+      <c r="K89" t="n">
+        <v>120</v>
+      </c>
+      <c r="L89" t="n">
+        <v>331</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2.226586102719033</v>
+      </c>
+      <c r="N89" t="n">
+        <v>7</v>
+      </c>
+      <c r="O89" t="n">
+        <v>6.583081570996979</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Netclan20241105</t>
+          <t>article_46</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/web-data-connector/</t>
-        </is>
+          <t>Your URL for article_46</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>7</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.005847953216374269</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.03508771929824561</v>
+      </c>
+      <c r="G90" t="n">
+        <v>11.79310344827586</v>
+      </c>
+      <c r="H90" t="n">
+        <v>41.52046783625731</v>
+      </c>
+      <c r="I90" t="n">
+        <v>21.32542851381327</v>
+      </c>
+      <c r="J90" t="n">
+        <v>11.79310344827586</v>
+      </c>
+      <c r="K90" t="n">
+        <v>142</v>
+      </c>
+      <c r="L90" t="n">
+        <v>342</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2.432748538011696</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5</v>
+      </c>
+      <c r="O90" t="n">
+        <v>6.885964912280702</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Netclan20241106</t>
+          <t>article_47</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/an-app-for-updating-the-email-id-of-the-user-and-stripe-refund-tool-using-retool/</t>
-        </is>
+          <t>Your URL for article_47</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>9</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.02054794520547945</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="G91" t="n">
+        <v>17.17647058823529</v>
+      </c>
+      <c r="H91" t="n">
+        <v>36.3013698630137</v>
+      </c>
+      <c r="I91" t="n">
+        <v>21.3911361804996</v>
+      </c>
+      <c r="J91" t="n">
+        <v>17.17647058823529</v>
+      </c>
+      <c r="K91" t="n">
+        <v>106</v>
+      </c>
+      <c r="L91" t="n">
+        <v>292</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2.373287671232877</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2</v>
+      </c>
+      <c r="O91" t="n">
+        <v>6.746575342465754</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Netclan20241107</t>
+          <t>article_48</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/an-ai-ml-based-web-application-that-detects-the-correctness-of-text-in-a-given-video/</t>
-        </is>
+          <t>Your URL for article_48</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>6</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.01904761904761905</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0380952380952381</v>
+      </c>
+      <c r="G92" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H92" t="n">
+        <v>39.52380952380953</v>
+      </c>
+      <c r="I92" t="n">
+        <v>22.80952380952381</v>
+      </c>
+      <c r="J92" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>83</v>
+      </c>
+      <c r="L92" t="n">
+        <v>210</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2.447619047619048</v>
+      </c>
+      <c r="N92" t="n">
+        <v>2</v>
+      </c>
+      <c r="O92" t="n">
+        <v>6.938095238095238</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Netclan20241108</t>
+          <t>article_49</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/website-tracking-and-insights-using-google-analytics-google-tag-manager/</t>
-        </is>
+          <t>Your URL for article_49</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>7</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.01530612244897959</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.05612244897959184</v>
+      </c>
+      <c r="G93" t="n">
+        <v>13.06666666666667</v>
+      </c>
+      <c r="H93" t="n">
+        <v>41.3265306122449</v>
+      </c>
+      <c r="I93" t="n">
+        <v>21.75727891156463</v>
+      </c>
+      <c r="J93" t="n">
+        <v>13.06666666666667</v>
+      </c>
+      <c r="K93" t="n">
+        <v>81</v>
+      </c>
+      <c r="L93" t="n">
+        <v>196</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2.489795918367347</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3</v>
+      </c>
+      <c r="O93" t="n">
+        <v>7.005102040816326</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Netclan20241109</t>
+          <t>article_5</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/dashboard-to-track-the-analytics-of-the-website-using-google-analytics-and-google-tag-manager/</t>
-        </is>
+          <t>Your URL for article_5</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>5</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="G94" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="H94" t="n">
+        <v>43.25396825396825</v>
+      </c>
+      <c r="I94" t="n">
+        <v>24.0215873015873</v>
+      </c>
+      <c r="J94" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K94" t="n">
+        <v>109</v>
+      </c>
+      <c r="L94" t="n">
+        <v>252</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2.523809523809524</v>
+      </c>
+      <c r="N94" t="n">
+        <v>2</v>
+      </c>
+      <c r="O94" t="n">
+        <v>6.98015873015873</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Netclan20241110</t>
+          <t>article_50</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/power-bi-dashboard-on-operations-transactions-and-marketing-embedding-the-dashboard-to-web-app/</t>
-        </is>
+          <t>Your URL for article_50</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>7</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.02403846153846154</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.04326923076923077</v>
+      </c>
+      <c r="G95" t="n">
+        <v>18.90909090909091</v>
+      </c>
+      <c r="H95" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="I95" t="n">
+        <v>25.06363636363636</v>
+      </c>
+      <c r="J95" t="n">
+        <v>18.90909090909091</v>
+      </c>
+      <c r="K95" t="n">
+        <v>91</v>
+      </c>
+      <c r="L95" t="n">
+        <v>208</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2.533653846153846</v>
+      </c>
+      <c r="N95" t="n">
+        <v>2</v>
+      </c>
+      <c r="O95" t="n">
+        <v>7.004807692307693</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Netclan20241111</t>
+          <t>article_51</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/nft-data-automation-looksrare-and-etl-tool/</t>
-        </is>
+          <t>Your URL for article_51</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>9</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.02158273381294964</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.04316546762589928</v>
+      </c>
+      <c r="G96" t="n">
+        <v>16.35294117647059</v>
+      </c>
+      <c r="H96" t="n">
+        <v>46.0431654676259</v>
+      </c>
+      <c r="I96" t="n">
+        <v>24.9584426576386</v>
+      </c>
+      <c r="J96" t="n">
+        <v>16.35294117647059</v>
+      </c>
+      <c r="K96" t="n">
+        <v>128</v>
+      </c>
+      <c r="L96" t="n">
+        <v>278</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2.492805755395683</v>
+      </c>
+      <c r="N96" t="n">
+        <v>2</v>
+      </c>
+      <c r="O96" t="n">
+        <v>6.956834532374101</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Netclan20241112</t>
+          <t>article_52</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/optimize-the-data-scraper-program-to-easily-accommodate-large-files-and-solve-oom-errors/</t>
-        </is>
+          <t>Your URL for article_52</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>14</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.03883495145631068</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.05177993527508091</v>
+      </c>
+      <c r="G97" t="n">
+        <v>13.43478260869565</v>
+      </c>
+      <c r="H97" t="n">
+        <v>35.92233009708738</v>
+      </c>
+      <c r="I97" t="n">
+        <v>19.74284508231322</v>
+      </c>
+      <c r="J97" t="n">
+        <v>13.43478260869565</v>
+      </c>
+      <c r="K97" t="n">
+        <v>111</v>
+      </c>
+      <c r="L97" t="n">
+        <v>309</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2.349514563106796</v>
+      </c>
+      <c r="N97" t="n">
+        <v>11</v>
+      </c>
+      <c r="O97" t="n">
+        <v>6.53074433656958</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Netclan20241113</t>
+          <t>article_53</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/making-a-robust-way-to-sync-data-from-airtables-to-mongodb-using-python-etl-solution/</t>
-        </is>
+          <t>Your URL for article_53</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.01376146788990826</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.04128440366972477</v>
+      </c>
+      <c r="G98" t="n">
+        <v>13.625</v>
+      </c>
+      <c r="H98" t="n">
+        <v>38.53211009174312</v>
+      </c>
+      <c r="I98" t="n">
+        <v>20.86284403669725</v>
+      </c>
+      <c r="J98" t="n">
+        <v>13.625</v>
+      </c>
+      <c r="K98" t="n">
+        <v>84</v>
+      </c>
+      <c r="L98" t="n">
+        <v>218</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2.44954128440367</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2</v>
+      </c>
+      <c r="O98" t="n">
+        <v>6.885321100917431</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Netclan20241114</t>
+          <t>article_54</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/incident-duration-prediction-infrastructure-and-real-estate/</t>
-        </is>
+          <t>Your URL for article_54</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>6</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.003174603174603175</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.03492063492063492</v>
+      </c>
+      <c r="G99" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H99" t="n">
+        <v>43.17460317460318</v>
+      </c>
+      <c r="I99" t="n">
+        <v>21.46984126984127</v>
+      </c>
+      <c r="J99" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>136</v>
+      </c>
+      <c r="L99" t="n">
+        <v>315</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2.457142857142857</v>
+      </c>
+      <c r="N99" t="n">
+        <v>9</v>
+      </c>
+      <c r="O99" t="n">
+        <v>6.904761904761905</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Netclan20241115</t>
+          <t>article_55</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/statistical-data-analysis-of-reinforced-concrete/</t>
-        </is>
+          <t>Your URL for article_55</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>11</v>
+      </c>
+      <c r="D100" t="n">
+        <v>7</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.01146131805157593</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.05157593123209169</v>
+      </c>
+      <c r="G100" t="n">
+        <v>16.61904761904762</v>
+      </c>
+      <c r="H100" t="n">
+        <v>41.54727793696275</v>
+      </c>
+      <c r="I100" t="n">
+        <v>23.26653022240415</v>
+      </c>
+      <c r="J100" t="n">
+        <v>16.61904761904762</v>
+      </c>
+      <c r="K100" t="n">
+        <v>145</v>
+      </c>
+      <c r="L100" t="n">
+        <v>349</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2.424068767908309</v>
+      </c>
+      <c r="N100" t="n">
+        <v>4</v>
+      </c>
+      <c r="O100" t="n">
+        <v>6.925501432664756</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Netclan20241116</t>
+          <t>article_56</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/database-normalization-segmentation-with-google-data-studio-dashboard-insights/</t>
-        </is>
+          <t>Your URL for article_56</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>13</v>
+      </c>
+      <c r="D101" t="n">
+        <v>9</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.01550387596899225</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.08527131782945736</v>
+      </c>
+      <c r="G101" t="n">
+        <v>15.17647058823529</v>
+      </c>
+      <c r="H101" t="n">
+        <v>40.69767441860465</v>
+      </c>
+      <c r="I101" t="n">
+        <v>22.34965800273598</v>
+      </c>
+      <c r="J101" t="n">
+        <v>15.17647058823529</v>
+      </c>
+      <c r="K101" t="n">
+        <v>105</v>
+      </c>
+      <c r="L101" t="n">
+        <v>258</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2.515503875968992</v>
+      </c>
+      <c r="N101" t="n">
+        <v>4</v>
+      </c>
+      <c r="O101" t="n">
+        <v>6.98062015503876</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Netclan20241117</t>
+          <t>article_57</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/power-bi-dashboard-to-drive-insights-from-complex-data-to-generate-business-insights/</t>
-        </is>
+          <t>Your URL for article_57</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>15</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.03144654088050314</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.06289308176100629</v>
+      </c>
+      <c r="G102" t="n">
+        <v>11.77777777777778</v>
+      </c>
+      <c r="H102" t="n">
+        <v>40.56603773584906</v>
+      </c>
+      <c r="I102" t="n">
+        <v>20.93752620545074</v>
+      </c>
+      <c r="J102" t="n">
+        <v>11.77777777777778</v>
+      </c>
+      <c r="K102" t="n">
+        <v>129</v>
+      </c>
+      <c r="L102" t="n">
+        <v>318</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2.462264150943396</v>
+      </c>
+      <c r="N102" t="n">
+        <v>12</v>
+      </c>
+      <c r="O102" t="n">
+        <v>6.955974842767295</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Netclan20241118</t>
+          <t>article_58</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/real-time-dashboard-to-monitor-infrastructure-activity-and-machines/</t>
-        </is>
+          <t>Your URL for article_58</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>15</v>
+      </c>
+      <c r="D103" t="n">
+        <v>6</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.06140350877192982</v>
+      </c>
+      <c r="G103" t="n">
+        <v>10.36363636363636</v>
+      </c>
+      <c r="H103" t="n">
+        <v>41.2280701754386</v>
+      </c>
+      <c r="I103" t="n">
+        <v>20.63668261562999</v>
+      </c>
+      <c r="J103" t="n">
+        <v>10.36363636363636</v>
+      </c>
+      <c r="K103" t="n">
+        <v>141</v>
+      </c>
+      <c r="L103" t="n">
+        <v>342</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2.473684210526316</v>
+      </c>
+      <c r="N103" t="n">
+        <v>10</v>
+      </c>
+      <c r="O103" t="n">
+        <v>6.847953216374269</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Netclan20241119</t>
+          <t>article_59</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/electric-vehicles-ev-load-management-system-to-forecast-energy-demand/</t>
-        </is>
+          <t>Your URL for article_59</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>8</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.008264462809917356</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.05785123966942149</v>
+      </c>
+      <c r="G104" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H104" t="n">
+        <v>43.38842975206612</v>
+      </c>
+      <c r="I104" t="n">
+        <v>22.19537190082645</v>
+      </c>
+      <c r="J104" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>105</v>
+      </c>
+      <c r="L104" t="n">
+        <v>242</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2.516528925619835</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2</v>
+      </c>
+      <c r="O104" t="n">
+        <v>6.954545454545454</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Netclan20241120</t>
+          <t>article_6</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/power-bi-data-driven-map-dashboard/</t>
-        </is>
+          <t>Your URL for article_6</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>8</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.02766798418972332</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.03557312252964427</v>
+      </c>
+      <c r="G105" t="n">
+        <v>18.07142857142857</v>
+      </c>
+      <c r="H105" t="n">
+        <v>43.87351778656127</v>
+      </c>
+      <c r="I105" t="n">
+        <v>24.77797854319594</v>
+      </c>
+      <c r="J105" t="n">
+        <v>18.07142857142857</v>
+      </c>
+      <c r="K105" t="n">
+        <v>111</v>
+      </c>
+      <c r="L105" t="n">
+        <v>253</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2.494071146245059</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2</v>
+      </c>
+      <c r="O105" t="n">
+        <v>7.110671936758894</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Netclan20241121</t>
+          <t>article_60</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/google-local-service-ads-lsa-leads-dashboard/</t>
-        </is>
+          <t>Your URL for article_60</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>7</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.02538071065989848</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.04568527918781726</v>
+      </c>
+      <c r="G106" t="n">
+        <v>14.07142857142857</v>
+      </c>
+      <c r="H106" t="n">
+        <v>41.11675126903553</v>
+      </c>
+      <c r="I106" t="n">
+        <v>22.07527193618564</v>
+      </c>
+      <c r="J106" t="n">
+        <v>14.07142857142857</v>
+      </c>
+      <c r="K106" t="n">
+        <v>81</v>
+      </c>
+      <c r="L106" t="n">
+        <v>197</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2.49746192893401</v>
+      </c>
+      <c r="N106" t="n">
+        <v>3</v>
+      </c>
+      <c r="O106" t="n">
+        <v>6.949238578680203</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Netclan20241122</t>
+          <t>article_61</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/aws-lex-voice-and-chatbot/</t>
-        </is>
+          <t>Your URL for article_61</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>7</v>
+      </c>
+      <c r="D107" t="n">
+        <v>5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.00966183574879227</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.05797101449275362</v>
+      </c>
+      <c r="G107" t="n">
+        <v>12.9375</v>
+      </c>
+      <c r="H107" t="n">
+        <v>43.47826086956522</v>
+      </c>
+      <c r="I107" t="n">
+        <v>22.56630434782609</v>
+      </c>
+      <c r="J107" t="n">
+        <v>12.9375</v>
+      </c>
+      <c r="K107" t="n">
+        <v>90</v>
+      </c>
+      <c r="L107" t="n">
+        <v>207</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2.526570048309179</v>
+      </c>
+      <c r="N107" t="n">
+        <v>2</v>
+      </c>
+      <c r="O107" t="n">
+        <v>7.028985507246377</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Netclan20241123</t>
+          <t>article_62</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/metabridges-api-decentraland-integration/</t>
-        </is>
+          <t>Your URL for article_62</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>9</v>
+      </c>
+      <c r="D108" t="n">
+        <v>5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.0186046511627907</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.06511627906976744</v>
+      </c>
+      <c r="G108" t="n">
+        <v>14.33333333333333</v>
+      </c>
+      <c r="H108" t="n">
+        <v>42.7906976744186</v>
+      </c>
+      <c r="I108" t="n">
+        <v>22.84961240310078</v>
+      </c>
+      <c r="J108" t="n">
+        <v>14.33333333333333</v>
+      </c>
+      <c r="K108" t="n">
+        <v>92</v>
+      </c>
+      <c r="L108" t="n">
+        <v>215</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2.52093023255814</v>
+      </c>
+      <c r="N108" t="n">
+        <v>4</v>
+      </c>
+      <c r="O108" t="n">
+        <v>7.079069767441861</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Netclan20241124</t>
+          <t>article_63</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/microsoft-azure-chatbot-with-luis-language-understanding/</t>
-        </is>
+          <t>Your URL for article_63</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>8</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.04901960784313725</v>
+      </c>
+      <c r="G109" t="n">
+        <v>12</v>
+      </c>
+      <c r="H109" t="n">
+        <v>45.09803921568628</v>
+      </c>
+      <c r="I109" t="n">
+        <v>22.83921568627451</v>
+      </c>
+      <c r="J109" t="n">
+        <v>12</v>
+      </c>
+      <c r="K109" t="n">
+        <v>92</v>
+      </c>
+      <c r="L109" t="n">
+        <v>204</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2.563725490196079</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3</v>
+      </c>
+      <c r="O109" t="n">
+        <v>7.078431372549019</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Netclan20241125</t>
+          <t>article_64</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/impact-of-news-media-and-press-on-innovation-startups-and-investments/</t>
-        </is>
+          <t>Your URL for article_64</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>7</v>
+      </c>
+      <c r="D110" t="n">
+        <v>9</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-0.008438818565400843</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.06751054852320675</v>
+      </c>
+      <c r="G110" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="H110" t="n">
+        <v>45.14767932489451</v>
+      </c>
+      <c r="I110" t="n">
+        <v>22.79907172995781</v>
+      </c>
+      <c r="J110" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="K110" t="n">
+        <v>107</v>
+      </c>
+      <c r="L110" t="n">
+        <v>237</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2.590717299578059</v>
+      </c>
+      <c r="N110" t="n">
+        <v>5</v>
+      </c>
+      <c r="O110" t="n">
+        <v>7.135021097046414</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Netclan20241126</t>
+          <t>article_65</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/aws-quicksight-reporting-dashboard/</t>
-        </is>
+          <t>Your URL for article_65</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>14</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.03947368421052631</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="G111" t="n">
+        <v>10.13333333333333</v>
+      </c>
+      <c r="H111" t="n">
+        <v>40.13157894736842</v>
+      </c>
+      <c r="I111" t="n">
+        <v>20.1059649122807</v>
+      </c>
+      <c r="J111" t="n">
+        <v>10.13333333333333</v>
+      </c>
+      <c r="K111" t="n">
+        <v>122</v>
+      </c>
+      <c r="L111" t="n">
+        <v>304</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2.440789473684211</v>
+      </c>
+      <c r="N111" t="n">
+        <v>9</v>
+      </c>
+      <c r="O111" t="n">
+        <v>6.828947368421052</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Netclan20241127</t>
+          <t>article_66</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/google-data-studio-dashboard-for-marketing-ads-and-traction-data/</t>
-        </is>
+          <t>Your URL for article_66</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>13</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.01796407185628742</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.05988023952095808</v>
+      </c>
+      <c r="G112" t="n">
+        <v>11.92857142857143</v>
+      </c>
+      <c r="H112" t="n">
+        <v>42.51497005988024</v>
+      </c>
+      <c r="I112" t="n">
+        <v>21.77741659538067</v>
+      </c>
+      <c r="J112" t="n">
+        <v>11.92857142857143</v>
+      </c>
+      <c r="K112" t="n">
+        <v>142</v>
+      </c>
+      <c r="L112" t="n">
+        <v>334</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2.502994011976048</v>
+      </c>
+      <c r="N112" t="n">
+        <v>13</v>
+      </c>
+      <c r="O112" t="n">
+        <v>7.1437125748503</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Netclan20241128</t>
+          <t>article_67</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/gangala-in-e-commerce-big-data-etl-elt-solution-and-data-warehouse/</t>
-        </is>
+          <t>Your URL for article_67</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>10</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.01123595505617977</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0449438202247191</v>
+      </c>
+      <c r="G113" t="n">
+        <v>11.86666666666667</v>
+      </c>
+      <c r="H113" t="n">
+        <v>41.85393258426966</v>
+      </c>
+      <c r="I113" t="n">
+        <v>21.48823970037454</v>
+      </c>
+      <c r="J113" t="n">
+        <v>11.86666666666667</v>
+      </c>
+      <c r="K113" t="n">
+        <v>149</v>
+      </c>
+      <c r="L113" t="n">
+        <v>356</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2.452247191011236</v>
+      </c>
+      <c r="N113" t="n">
+        <v>11</v>
+      </c>
+      <c r="O113" t="n">
+        <v>6.707865168539326</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Netclan20241129</t>
+          <t>article_68</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/big-data-solution-to-an-online-multivendor-marketplace-ecommerce-business/</t>
-        </is>
+          <t>Your URL for article_68</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>23</v>
+      </c>
+      <c r="D114" t="n">
+        <v>14</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.0233160621761658</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.09585492227979274</v>
+      </c>
+      <c r="G114" t="n">
+        <v>11.6969696969697</v>
+      </c>
+      <c r="H114" t="n">
+        <v>38.34196891191709</v>
+      </c>
+      <c r="I114" t="n">
+        <v>20.01557544355472</v>
+      </c>
+      <c r="J114" t="n">
+        <v>11.6969696969697</v>
+      </c>
+      <c r="K114" t="n">
+        <v>148</v>
+      </c>
+      <c r="L114" t="n">
+        <v>386</v>
+      </c>
+      <c r="M114" t="n">
+        <v>2.362694300518135</v>
+      </c>
+      <c r="N114" t="n">
+        <v>12</v>
+      </c>
+      <c r="O114" t="n">
+        <v>6.598445595854923</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Netclan20241130</t>
+          <t>article_69</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/creating-a-custom-report-and-dashboard-using-the-data-got-from-atera-api/</t>
-        </is>
+          <t>Your URL for article_69</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>10</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.03409090909090909</v>
+      </c>
+      <c r="G115" t="n">
+        <v>12.13793103448276</v>
+      </c>
+      <c r="H115" t="n">
+        <v>41.19318181818182</v>
+      </c>
+      <c r="I115" t="n">
+        <v>21.33244514106583</v>
+      </c>
+      <c r="J115" t="n">
+        <v>12.13793103448276</v>
+      </c>
+      <c r="K115" t="n">
+        <v>145</v>
+      </c>
+      <c r="L115" t="n">
+        <v>352</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2.454545454545455</v>
+      </c>
+      <c r="N115" t="n">
+        <v>15</v>
+      </c>
+      <c r="O115" t="n">
+        <v>6.897727272727272</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Netclan20241131</t>
+          <t>article_7</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/azure-data-lake-and-power-bi-dashboard/</t>
-        </is>
+          <t>Your URL for article_7</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>18</v>
+      </c>
+      <c r="D116" t="n">
+        <v>8</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.01879699248120301</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.04887218045112782</v>
+      </c>
+      <c r="G116" t="n">
+        <v>12.09090909090909</v>
+      </c>
+      <c r="H116" t="n">
+        <v>37.59398496240601</v>
+      </c>
+      <c r="I116" t="n">
+        <v>19.87395762132604</v>
+      </c>
+      <c r="J116" t="n">
+        <v>12.09090909090909</v>
+      </c>
+      <c r="K116" t="n">
+        <v>200</v>
+      </c>
+      <c r="L116" t="n">
+        <v>532</v>
+      </c>
+      <c r="M116" t="n">
+        <v>2.385338345864662</v>
+      </c>
+      <c r="N116" t="n">
+        <v>7</v>
+      </c>
+      <c r="O116" t="n">
+        <v>6.815789473684211</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Netclan20241132</t>
+          <t>article_70</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/google-data-studio-pipeline-with-gcp-mysql/</t>
-        </is>
+          <t>Your URL for article_70</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>14</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.04113924050632911</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.04746835443037975</v>
+      </c>
+      <c r="G117" t="n">
+        <v>16.63157894736842</v>
+      </c>
+      <c r="H117" t="n">
+        <v>39.87341772151899</v>
+      </c>
+      <c r="I117" t="n">
+        <v>22.60199866755497</v>
+      </c>
+      <c r="J117" t="n">
+        <v>16.63157894736842</v>
+      </c>
+      <c r="K117" t="n">
+        <v>126</v>
+      </c>
+      <c r="L117" t="n">
+        <v>316</v>
+      </c>
+      <c r="M117" t="n">
+        <v>2.414556962025316</v>
+      </c>
+      <c r="N117" t="n">
+        <v>7</v>
+      </c>
+      <c r="O117" t="n">
+        <v>7.003164556962025</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Netclan20241133</t>
+          <t>article_71</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/quickbooks-dashboard-to-find-patterns-in-finance-sales-and-forecasts/</t>
-        </is>
+          <t>Your URL for article_71</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>28</v>
+      </c>
+      <c r="D118" t="n">
+        <v>5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.03938356164383561</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.05650684931506849</v>
+      </c>
+      <c r="G118" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H118" t="n">
+        <v>46.06164383561644</v>
+      </c>
+      <c r="I118" t="n">
+        <v>24.26465753424658</v>
+      </c>
+      <c r="J118" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K118" t="n">
+        <v>269</v>
+      </c>
+      <c r="L118" t="n">
+        <v>584</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2.559931506849315</v>
+      </c>
+      <c r="N118" t="n">
+        <v>7</v>
+      </c>
+      <c r="O118" t="n">
+        <v>7.193493150684931</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Netclan20241134</t>
+          <t>article_72</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/marketing-sales-and-financial-data-business-dashboard-wink-report/</t>
-        </is>
+          <t>Your URL for article_72</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>7</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.01908396946564886</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.03435114503816794</v>
+      </c>
+      <c r="G119" t="n">
+        <v>20.15384615384615</v>
+      </c>
+      <c r="H119" t="n">
+        <v>36.6412213740458</v>
+      </c>
+      <c r="I119" t="n">
+        <v>22.71802701115678</v>
+      </c>
+      <c r="J119" t="n">
+        <v>20.15384615384615</v>
+      </c>
+      <c r="K119" t="n">
+        <v>96</v>
+      </c>
+      <c r="L119" t="n">
+        <v>262</v>
+      </c>
+      <c r="M119" t="n">
+        <v>2.427480916030534</v>
+      </c>
+      <c r="N119" t="n">
+        <v>3</v>
+      </c>
+      <c r="O119" t="n">
+        <v>6.812977099236641</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Netclan20241135</t>
+          <t>article_73</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/react-native-apps-in-the-development-portfolio/</t>
-        </is>
+          <t>Your URL for article_73</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>8</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.02114803625377644</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.02719033232628399</v>
+      </c>
+      <c r="G120" t="n">
+        <v>15.76190476190476</v>
+      </c>
+      <c r="H120" t="n">
+        <v>41.99395770392749</v>
+      </c>
+      <c r="I120" t="n">
+        <v>23.1023449863329</v>
+      </c>
+      <c r="J120" t="n">
+        <v>15.76190476190476</v>
+      </c>
+      <c r="K120" t="n">
+        <v>139</v>
+      </c>
+      <c r="L120" t="n">
+        <v>331</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2.51963746223565</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2</v>
+      </c>
+      <c r="O120" t="n">
+        <v>7.060422960725075</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Netclan20241136</t>
+          <t>article_74</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/a-leading-firm-website-seo-optimization/</t>
-        </is>
+          <t>Your URL for article_74</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.0160427807486631</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0374331550802139</v>
+      </c>
+      <c r="G121" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H121" t="n">
+        <v>40.10695187165776</v>
+      </c>
+      <c r="I121" t="n">
+        <v>23.52278074866311</v>
+      </c>
+      <c r="J121" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K121" t="n">
+        <v>75</v>
+      </c>
+      <c r="L121" t="n">
+        <v>187</v>
+      </c>
+      <c r="M121" t="n">
+        <v>2.502673796791444</v>
+      </c>
+      <c r="N121" t="n">
+        <v>2</v>
+      </c>
+      <c r="O121" t="n">
+        <v>6.86096256684492</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Netclan20241137</t>
+          <t>article_75</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/a-leading-hospitality-firm-in-the-usa-website-seo-optimization/</t>
-        </is>
+          <t>Your URL for article_75</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>10</v>
+      </c>
+      <c r="D122" t="n">
+        <v>3</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.02333333333333333</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.04333333333333333</v>
+      </c>
+      <c r="G122" t="n">
+        <v>14.28571428571429</v>
+      </c>
+      <c r="H122" t="n">
+        <v>40</v>
+      </c>
+      <c r="I122" t="n">
+        <v>21.71428571428572</v>
+      </c>
+      <c r="J122" t="n">
+        <v>14.28571428571429</v>
+      </c>
+      <c r="K122" t="n">
+        <v>120</v>
+      </c>
+      <c r="L122" t="n">
+        <v>300</v>
+      </c>
+      <c r="M122" t="n">
+        <v>2.456666666666667</v>
+      </c>
+      <c r="N122" t="n">
+        <v>5</v>
+      </c>
+      <c r="O122" t="n">
+        <v>7.013333333333334</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Netclan20241138</t>
+          <t>article_76</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/a-leading-firm-in-the-usa-website-seo-optimization/</t>
-        </is>
+          <t>Your URL for article_76</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>8</v>
+      </c>
+      <c r="D123" t="n">
+        <v>3</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.0165016501650165</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.03630363036303631</v>
+      </c>
+      <c r="G123" t="n">
+        <v>17.82352941176471</v>
+      </c>
+      <c r="H123" t="n">
+        <v>37.95379537953795</v>
+      </c>
+      <c r="I123" t="n">
+        <v>22.31092991652107</v>
+      </c>
+      <c r="J123" t="n">
+        <v>17.82352941176471</v>
+      </c>
+      <c r="K123" t="n">
+        <v>115</v>
+      </c>
+      <c r="L123" t="n">
+        <v>303</v>
+      </c>
+      <c r="M123" t="n">
+        <v>2.36963696369637</v>
+      </c>
+      <c r="N123" t="n">
+        <v>6</v>
+      </c>
+      <c r="O123" t="n">
+        <v>6.825082508250826</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Netclan20241139</t>
+          <t>article_77</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/a-leading-musical-instrumental-website-seo-optimization/</t>
-        </is>
+          <t>Your URL for article_77</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.01388888888888889</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.02314814814814815</v>
+      </c>
+      <c r="G124" t="n">
+        <v>18</v>
+      </c>
+      <c r="H124" t="n">
+        <v>42.12962962962963</v>
+      </c>
+      <c r="I124" t="n">
+        <v>24.05185185185185</v>
+      </c>
+      <c r="J124" t="n">
+        <v>18</v>
+      </c>
+      <c r="K124" t="n">
+        <v>91</v>
+      </c>
+      <c r="L124" t="n">
+        <v>216</v>
+      </c>
+      <c r="M124" t="n">
+        <v>2.518518518518519</v>
+      </c>
+      <c r="N124" t="n">
+        <v>3</v>
+      </c>
+      <c r="O124" t="n">
+        <v>7.11574074074074</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Netclan20241140</t>
+          <t>article_78</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/a-leading-firm-in-the-usa-seo-and-website-optimization/</t>
-        </is>
+          <t>Your URL for article_78</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>8</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-0.01229508196721311</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.05327868852459016</v>
+      </c>
+      <c r="G125" t="n">
+        <v>16.26666666666667</v>
+      </c>
+      <c r="H125" t="n">
+        <v>45.90163934426229</v>
+      </c>
+      <c r="I125" t="n">
+        <v>24.86732240437158</v>
+      </c>
+      <c r="J125" t="n">
+        <v>16.26666666666667</v>
+      </c>
+      <c r="K125" t="n">
+        <v>112</v>
+      </c>
+      <c r="L125" t="n">
+        <v>244</v>
+      </c>
+      <c r="M125" t="n">
+        <v>2.614754098360656</v>
+      </c>
+      <c r="N125" t="n">
+        <v>6</v>
+      </c>
+      <c r="O125" t="n">
+        <v>7.131147540983607</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Netclan20241141</t>
+          <t>article_79</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/immigration-datawarehouse-ai-based-recommendations/</t>
-        </is>
+          <t>Your URL for article_79</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>10</v>
+      </c>
+      <c r="D126" t="n">
+        <v>13</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-0.01030927835051546</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.07903780068728522</v>
+      </c>
+      <c r="G126" t="n">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="H126" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="I126" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="J126" t="n">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="K126" t="n">
+        <v>97</v>
+      </c>
+      <c r="L126" t="n">
+        <v>291</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2.31958762886598</v>
+      </c>
+      <c r="N126" t="n">
+        <v>12</v>
+      </c>
+      <c r="O126" t="n">
+        <v>6.512027491408935</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Netclan20241142</t>
+          <t>article_8</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/lipsync-automation-for-celebrities-and-influencers/</t>
-        </is>
+          <t>Your URL for article_8</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>16</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.06643356643356643</v>
+      </c>
+      <c r="G127" t="n">
+        <v>19.06666666666667</v>
+      </c>
+      <c r="H127" t="n">
+        <v>37.06293706293706</v>
+      </c>
+      <c r="I127" t="n">
+        <v>22.45184149184149</v>
+      </c>
+      <c r="J127" t="n">
+        <v>19.06666666666667</v>
+      </c>
+      <c r="K127" t="n">
+        <v>106</v>
+      </c>
+      <c r="L127" t="n">
+        <v>286</v>
+      </c>
+      <c r="M127" t="n">
+        <v>2.41958041958042</v>
+      </c>
+      <c r="N127" t="n">
+        <v>2</v>
+      </c>
+      <c r="O127" t="n">
+        <v>6.884615384615385</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Netclan20241143</t>
+          <t>article_80</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/key-audit-matters-predictive-modeling/</t>
-        </is>
+          <t>Your URL for article_80</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.01286173633440514</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.01929260450160772</v>
+      </c>
+      <c r="G128" t="n">
+        <v>25.91666666666667</v>
+      </c>
+      <c r="H128" t="n">
+        <v>41.80064308681672</v>
+      </c>
+      <c r="I128" t="n">
+        <v>27.08692390139336</v>
+      </c>
+      <c r="J128" t="n">
+        <v>25.91666666666667</v>
+      </c>
+      <c r="K128" t="n">
+        <v>130</v>
+      </c>
+      <c r="L128" t="n">
+        <v>311</v>
+      </c>
+      <c r="M128" t="n">
+        <v>2.411575562700965</v>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+      <c r="O128" t="n">
+        <v>6.832797427652733</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Netclan20241144</t>
+          <t>article_81</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/splitting-of-songs-into-its-vocals-and-instrumental/</t>
-        </is>
+          <t>Your URL for article_81</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.0213903743315508</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.03208556149732621</v>
+      </c>
+      <c r="G129" t="n">
+        <v>20.77777777777778</v>
+      </c>
+      <c r="H129" t="n">
+        <v>41.17647058823529</v>
+      </c>
+      <c r="I129" t="n">
+        <v>24.78169934640523</v>
+      </c>
+      <c r="J129" t="n">
+        <v>20.77777777777778</v>
+      </c>
+      <c r="K129" t="n">
+        <v>77</v>
+      </c>
+      <c r="L129" t="n">
+        <v>187</v>
+      </c>
+      <c r="M129" t="n">
+        <v>2.518716577540107</v>
+      </c>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+      <c r="O129" t="n">
+        <v>6.919786096256685</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Netclan20241145</t>
+          <t>article_82</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-and-ml-technologies-to-evaluate-learning-assessments/</t>
-        </is>
+          <t>Your URL for article_82</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>11</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.03813559322033899</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.05508474576271186</v>
+      </c>
+      <c r="G130" t="n">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="H130" t="n">
+        <v>41.10169491525424</v>
+      </c>
+      <c r="I130" t="n">
+        <v>24.30734463276837</v>
+      </c>
+      <c r="J130" t="n">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="K130" t="n">
+        <v>97</v>
+      </c>
+      <c r="L130" t="n">
+        <v>236</v>
+      </c>
+      <c r="M130" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N130" t="n">
+        <v>2</v>
+      </c>
+      <c r="O130" t="n">
+        <v>6.995762711864407</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Netclan20241146</t>
+          <t>article_83</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/datawarehouse-and-recommendations-engine-for-airbnb/</t>
-        </is>
+          <t>Your URL for article_83</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-0.003333333333333334</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.05666666666666666</v>
+      </c>
+      <c r="G131" t="n">
+        <v>13.63636363636364</v>
+      </c>
+      <c r="H131" t="n">
+        <v>38.66666666666666</v>
+      </c>
+      <c r="I131" t="n">
+        <v>20.92121212121212</v>
+      </c>
+      <c r="J131" t="n">
+        <v>13.63636363636364</v>
+      </c>
+      <c r="K131" t="n">
+        <v>116</v>
+      </c>
+      <c r="L131" t="n">
+        <v>300</v>
+      </c>
+      <c r="M131" t="n">
+        <v>2.423333333333333</v>
+      </c>
+      <c r="N131" t="n">
+        <v>2</v>
+      </c>
+      <c r="O131" t="n">
+        <v>6.97</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Netclan20241147</t>
+          <t>article_84</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/real-estate-data-warehouse/</t>
-        </is>
+          <t>Your URL for article_84</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>13</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.02402402402402402</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="G132" t="n">
+        <v>15.13636363636364</v>
+      </c>
+      <c r="H132" t="n">
+        <v>36.33633633633634</v>
+      </c>
+      <c r="I132" t="n">
+        <v>20.58907998907999</v>
+      </c>
+      <c r="J132" t="n">
+        <v>15.13636363636364</v>
+      </c>
+      <c r="K132" t="n">
+        <v>121</v>
+      </c>
+      <c r="L132" t="n">
+        <v>333</v>
+      </c>
+      <c r="M132" t="n">
+        <v>2.375375375375375</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+      <c r="O132" t="n">
+        <v>6.81981981981982</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Netclan20241148</t>
+          <t>article_85</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/traction-dashboards-of-marketing-campaigns-and-posts/</t>
-        </is>
+          <t>Your URL for article_85</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>4</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.01075268817204301</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.01792114695340502</v>
+      </c>
+      <c r="G133" t="n">
+        <v>17.4375</v>
+      </c>
+      <c r="H133" t="n">
+        <v>35.48387096774194</v>
+      </c>
+      <c r="I133" t="n">
+        <v>21.16854838709678</v>
+      </c>
+      <c r="J133" t="n">
+        <v>17.4375</v>
+      </c>
+      <c r="K133" t="n">
+        <v>99</v>
+      </c>
+      <c r="L133" t="n">
+        <v>279</v>
+      </c>
+      <c r="M133" t="n">
+        <v>2.426523297491039</v>
+      </c>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+      <c r="O133" t="n">
+        <v>6.810035842293907</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Netclan20241149</t>
+          <t>article_86</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/google-local-service-ads-lsa-data-warehouse/</t>
-        </is>
+          <t>Your URL for article_86</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.02512562814070352</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.03517587939698492</v>
+      </c>
+      <c r="G134" t="n">
+        <v>24.875</v>
+      </c>
+      <c r="H134" t="n">
+        <v>40.7035175879397</v>
+      </c>
+      <c r="I134" t="n">
+        <v>26.23140703517588</v>
+      </c>
+      <c r="J134" t="n">
+        <v>24.875</v>
+      </c>
+      <c r="K134" t="n">
+        <v>81</v>
+      </c>
+      <c r="L134" t="n">
+        <v>199</v>
+      </c>
+      <c r="M134" t="n">
+        <v>2.482412060301507</v>
+      </c>
+      <c r="N134" t="n">
+        <v>3</v>
+      </c>
+      <c r="O134" t="n">
+        <v>6.798994974874372</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Netclan20241150</t>
+          <t>article_87</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/google-local-service-ads-missed-calls-and-messages-automation-tool/</t>
-        </is>
+          <t>Your URL for article_87</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>3</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.008368200836820083</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.03347280334728033</v>
+      </c>
+      <c r="G135" t="n">
+        <v>14.9375</v>
+      </c>
+      <c r="H135" t="n">
+        <v>45.18828451882845</v>
+      </c>
+      <c r="I135" t="n">
+        <v>24.05031380753138</v>
+      </c>
+      <c r="J135" t="n">
+        <v>14.9375</v>
+      </c>
+      <c r="K135" t="n">
+        <v>108</v>
+      </c>
+      <c r="L135" t="n">
+        <v>239</v>
+      </c>
+      <c r="M135" t="n">
+        <v>2.548117154811715</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+      <c r="O135" t="n">
+        <v>7.01255230125523</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Netclan20241151</t>
+          <t>article_88</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/marketing-ads-leads-call-status-data-tool-to-bigquery/</t>
-        </is>
+          <t>Your URL for article_88</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.01056338028169014</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.03169014084507042</v>
+      </c>
+      <c r="G136" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H136" t="n">
+        <v>43.30985915492958</v>
+      </c>
+      <c r="I136" t="n">
+        <v>23.00394366197183</v>
+      </c>
+      <c r="J136" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="K136" t="n">
+        <v>123</v>
+      </c>
+      <c r="L136" t="n">
+        <v>284</v>
+      </c>
+      <c r="M136" t="n">
+        <v>2.542253521126761</v>
+      </c>
+      <c r="N136" t="n">
+        <v>3</v>
+      </c>
+      <c r="O136" t="n">
+        <v>7.133802816901408</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Netclan20241152</t>
+          <t>article_89</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/marketing-analytics-to-automate-leads-call-status-and-reporting/</t>
-        </is>
+          <t>Your URL for article_89</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>4</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.00819672131147541</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.02459016393442623</v>
+      </c>
+      <c r="G137" t="n">
+        <v>13.55555555555556</v>
+      </c>
+      <c r="H137" t="n">
+        <v>39.75409836065574</v>
+      </c>
+      <c r="I137" t="n">
+        <v>21.32386156648452</v>
+      </c>
+      <c r="J137" t="n">
+        <v>13.55555555555556</v>
+      </c>
+      <c r="K137" t="n">
+        <v>97</v>
+      </c>
+      <c r="L137" t="n">
+        <v>244</v>
+      </c>
+      <c r="M137" t="n">
+        <v>2.483606557377049</v>
+      </c>
+      <c r="N137" t="n">
+        <v>2</v>
+      </c>
+      <c r="O137" t="n">
+        <v>6.840163934426229</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Netclan20241153</t>
+          <t>article_9</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/callrail-analytics-leads-report-alert/</t>
-        </is>
+          <t>Your URL for article_9</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>26</v>
+      </c>
+      <c r="D138" t="n">
+        <v>12</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.07436399217221135</v>
+      </c>
+      <c r="G138" t="n">
+        <v>15.02941176470588</v>
+      </c>
+      <c r="H138" t="n">
+        <v>55.77299412915851</v>
+      </c>
+      <c r="I138" t="n">
+        <v>28.32096235754576</v>
+      </c>
+      <c r="J138" t="n">
+        <v>15.02941176470588</v>
+      </c>
+      <c r="K138" t="n">
+        <v>285</v>
+      </c>
+      <c r="L138" t="n">
+        <v>511</v>
+      </c>
+      <c r="M138" t="n">
+        <v>2.731898238747554</v>
+      </c>
+      <c r="N138" t="n">
+        <v>5</v>
+      </c>
+      <c r="O138" t="n">
+        <v>7.632093933463796</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Netclan20241154</t>
+          <t>article_90</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/marketing-automation-tool-to-notify-lead-details-to-clients-over-email-and-phone/</t>
-        </is>
+          <t>Your URL for article_90</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>10</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.03603603603603604</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="G139" t="n">
+        <v>20.18181818181818</v>
+      </c>
+      <c r="H139" t="n">
+        <v>36.93693693693694</v>
+      </c>
+      <c r="I139" t="n">
+        <v>22.84750204750205</v>
+      </c>
+      <c r="J139" t="n">
+        <v>20.18181818181818</v>
+      </c>
+      <c r="K139" t="n">
+        <v>82</v>
+      </c>
+      <c r="L139" t="n">
+        <v>222</v>
+      </c>
+      <c r="M139" t="n">
+        <v>2.400900900900901</v>
+      </c>
+      <c r="N139" t="n">
+        <v>4</v>
+      </c>
+      <c r="O139" t="n">
+        <v>6.752252252252252</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Netclan20241155</t>
+          <t>article_91</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/data-etl-local-service-ads-leads-to-bigquery/</t>
-        </is>
+          <t>Your URL for article_91</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-0.01879699248120301</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.04887218045112782</v>
+      </c>
+      <c r="G140" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="H140" t="n">
+        <v>32.70676691729324</v>
+      </c>
+      <c r="I140" t="n">
+        <v>26.38270676691729</v>
+      </c>
+      <c r="J140" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="K140" t="n">
+        <v>87</v>
+      </c>
+      <c r="L140" t="n">
+        <v>266</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2.266917293233083</v>
+      </c>
+      <c r="N140" t="n">
+        <v>3</v>
+      </c>
+      <c r="O140" t="n">
+        <v>6.620300751879699</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Netclan20241156</t>
+          <t>article_92</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/marbles-stimulation-using-python/</t>
-        </is>
+          <t>Your URL for article_92</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>20</v>
+      </c>
+      <c r="D141" t="n">
+        <v>3</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.03068592057761733</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.04151624548736462</v>
+      </c>
+      <c r="G141" t="n">
+        <v>13.51219512195122</v>
+      </c>
+      <c r="H141" t="n">
+        <v>45.66787003610109</v>
+      </c>
+      <c r="I141" t="n">
+        <v>23.67202606322092</v>
+      </c>
+      <c r="J141" t="n">
+        <v>13.51219512195122</v>
+      </c>
+      <c r="K141" t="n">
+        <v>253</v>
+      </c>
+      <c r="L141" t="n">
+        <v>554</v>
+      </c>
+      <c r="M141" t="n">
+        <v>2.472924187725632</v>
+      </c>
+      <c r="N141" t="n">
+        <v>4</v>
+      </c>
+      <c r="O141" t="n">
+        <v>6.85740072202166</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Netclan20241157</t>
+          <t>article_93</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/stocktwits-data-structurization/</t>
-        </is>
+          <t>Your URL for article_93</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>20</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.03819444444444445</v>
+      </c>
+      <c r="G142" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="H142" t="n">
+        <v>41.49305555555556</v>
+      </c>
+      <c r="I142" t="n">
+        <v>22.35722222222222</v>
+      </c>
+      <c r="J142" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K142" t="n">
+        <v>239</v>
+      </c>
+      <c r="L142" t="n">
+        <v>576</v>
+      </c>
+      <c r="M142" t="n">
+        <v>2.435763888888889</v>
+      </c>
+      <c r="N142" t="n">
+        <v>2</v>
+      </c>
+      <c r="O142" t="n">
+        <v>6.829861111111111</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Netclan20241158</t>
+          <t>article_94</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/sentimental-analysis-on-shareholder-letter-of-companies/</t>
-        </is>
+          <t>Your URL for article_94</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>4</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.01595744680851064</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.02659574468085106</v>
+      </c>
+      <c r="G143" t="n">
+        <v>20.88888888888889</v>
+      </c>
+      <c r="H143" t="n">
+        <v>43.08510638297872</v>
+      </c>
+      <c r="I143" t="n">
+        <v>25.58959810874704</v>
+      </c>
+      <c r="J143" t="n">
+        <v>20.88888888888889</v>
+      </c>
+      <c r="K143" t="n">
+        <v>81</v>
+      </c>
+      <c r="L143" t="n">
+        <v>188</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2.531914893617021</v>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+      <c r="O143" t="n">
+        <v>6.978723404255319</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Netclan20241159</t>
+          <t>article_95</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/population-and-community-survey-of-america/</t>
-        </is>
+          <t>Your URL for article_95</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>7</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.01090909090909091</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G144" t="n">
+        <v>11.95652173913044</v>
+      </c>
+      <c r="H144" t="n">
+        <v>39.27272727272727</v>
+      </c>
+      <c r="I144" t="n">
+        <v>20.49169960474309</v>
+      </c>
+      <c r="J144" t="n">
+        <v>11.95652173913044</v>
+      </c>
+      <c r="K144" t="n">
+        <v>108</v>
+      </c>
+      <c r="L144" t="n">
+        <v>275</v>
+      </c>
+      <c r="M144" t="n">
+        <v>2.414545454545455</v>
+      </c>
+      <c r="N144" t="n">
+        <v>4</v>
+      </c>
+      <c r="O144" t="n">
+        <v>6.665454545454545</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Netclan20241160</t>
+          <t>article_96</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/google-lsa-api-data-automation-and-dashboarding/</t>
-        </is>
+          <t>Your URL for article_96</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>7</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.01293103448275862</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.04741379310344827</v>
+      </c>
+      <c r="G145" t="n">
+        <v>15.46666666666667</v>
+      </c>
+      <c r="H145" t="n">
+        <v>42.67241379310344</v>
+      </c>
+      <c r="I145" t="n">
+        <v>23.25563218390805</v>
+      </c>
+      <c r="J145" t="n">
+        <v>15.46666666666667</v>
+      </c>
+      <c r="K145" t="n">
+        <v>99</v>
+      </c>
+      <c r="L145" t="n">
+        <v>232</v>
+      </c>
+      <c r="M145" t="n">
+        <v>2.504310344827586</v>
+      </c>
+      <c r="N145" t="n">
+        <v>3</v>
+      </c>
+      <c r="O145" t="n">
+        <v>6.935344827586207</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Netclan20241161</t>
+          <t>article_97</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/healthcare-data-analysis/</t>
-        </is>
+          <t>Your URL for article_97</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.04195804195804196</v>
+      </c>
+      <c r="G146" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H146" t="n">
+        <v>36.71328671328671</v>
+      </c>
+      <c r="I146" t="n">
+        <v>20.40531468531469</v>
+      </c>
+      <c r="J146" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="K146" t="n">
+        <v>105</v>
+      </c>
+      <c r="L146" t="n">
+        <v>286</v>
+      </c>
+      <c r="M146" t="n">
+        <v>2.384615384615385</v>
+      </c>
+      <c r="N146" t="n">
+        <v>2</v>
+      </c>
+      <c r="O146" t="n">
+        <v>6.727272727272728</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Netclan20241162</t>
+          <t>article_98</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/budget-sales-kpi-dashboard-using-power-bi/</t>
-        </is>
+          <t>Your URL for article_98</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>4</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.007843137254901961</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.02352941176470588</v>
+      </c>
+      <c r="G147" t="n">
+        <v>18.21428571428572</v>
+      </c>
+      <c r="H147" t="n">
+        <v>45.49019607843137</v>
+      </c>
+      <c r="I147" t="n">
+        <v>25.48179271708684</v>
+      </c>
+      <c r="J147" t="n">
+        <v>18.21428571428572</v>
+      </c>
+      <c r="K147" t="n">
+        <v>116</v>
+      </c>
+      <c r="L147" t="n">
+        <v>255</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2.537254901960784</v>
+      </c>
+      <c r="N147" t="n">
+        <v>4</v>
+      </c>
+      <c r="O147" t="n">
+        <v>7.129411764705883</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Netclan20241163</t>
+          <t>article_99</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/amazon-buy-bot-an-automation-ai-tool-to-auto-checkouts/</t>
-        </is>
+          <t>Your URL for article_99</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>10</v>
+      </c>
+      <c r="D148" t="n">
+        <v>3</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.02180685358255452</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.04049844236760124</v>
+      </c>
+      <c r="G148" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="H148" t="n">
+        <v>45.79439252336449</v>
+      </c>
+      <c r="I148" t="n">
+        <v>24.7377570093458</v>
+      </c>
+      <c r="J148" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="K148" t="n">
+        <v>147</v>
+      </c>
+      <c r="L148" t="n">
+        <v>321</v>
+      </c>
+      <c r="M148" t="n">
+        <v>2.632398753894081</v>
+      </c>
+      <c r="N148" t="n">
+        <v>5</v>
+      </c>
+      <c r="O148" t="n">
+        <v>7.348909657320872</v>
       </c>
     </row>
   </sheetData>

--- a/output/processed_file.xlsx
+++ b/output/processed_file.xlsx
@@ -513,6693 +513,6693 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>article_1</t>
+          <t>Netclan20241017</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Your URL for article_1</t>
+          <t>https://insights.blackcoffer.com/ai-and-ml-based-youtube-analytics-and-content-creation-tool-for-optimizing-subscriber-engagement-and-content-strategy/</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02766798418972332</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03557312252964427</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G2" t="n">
-        <v>18.07142857142857</v>
+        <v>23.75</v>
       </c>
       <c r="H2" t="n">
-        <v>43.87351778656127</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="I2" t="n">
-        <v>24.77797854319594</v>
+        <v>26.3421052631579</v>
       </c>
       <c r="J2" t="n">
-        <v>18.07142857142857</v>
+        <v>23.75</v>
       </c>
       <c r="K2" t="n">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="L2" t="n">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="M2" t="n">
-        <v>2.494071146245059</v>
+        <v>2.347368421052632</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.110671936758894</v>
+        <v>7.126315789473685</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>article_10</t>
+          <t>Netclan20241018</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Your URL for article_10</t>
+          <t>https://insights.blackcoffer.com/enhancing-front-end-features-and-functionality-for-improved-user-experience-and-dashboard-accuracy-in-partner-hospital-application/</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03122432210353328</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06737880032867707</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G3" t="n">
-        <v>13.22826086956522</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>56.28594905505341</v>
+        <v>34.49197860962567</v>
       </c>
       <c r="I3" t="n">
-        <v>27.80568396984745</v>
+        <v>18.3301247771836</v>
       </c>
       <c r="J3" t="n">
-        <v>13.22826086956522</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="K3" t="n">
-        <v>685</v>
+        <v>129</v>
       </c>
       <c r="L3" t="n">
-        <v>1217</v>
+        <v>374</v>
       </c>
       <c r="M3" t="n">
-        <v>2.746096959737058</v>
+        <v>2.302139037433155</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>7.623664749383731</v>
+        <v>6.695187165775401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>article_100</t>
+          <t>Netclan20241019</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Your URL for article_100</t>
+          <t>https://insights.blackcoffer.com/roas-dashboard-for-campaign-wise-google-ads-budget-tracking-using-google-ads-ap/</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02334630350194553</v>
+        <v>0.0859375</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0311284046692607</v>
+        <v>0.1171875</v>
       </c>
       <c r="G4" t="n">
-        <v>11.68181818181818</v>
+        <v>18.28571428571428</v>
       </c>
       <c r="H4" t="n">
-        <v>38.13229571984436</v>
+        <v>27.34375</v>
       </c>
       <c r="I4" t="n">
-        <v>19.92564556066502</v>
+        <v>18.25178571428571</v>
       </c>
       <c r="J4" t="n">
-        <v>11.68181818181818</v>
+        <v>18.28571428571428</v>
       </c>
       <c r="K4" t="n">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="L4" t="n">
-        <v>257</v>
+        <v>128</v>
       </c>
       <c r="M4" t="n">
-        <v>2.517509727626459</v>
+        <v>2.21875</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.879377431906615</v>
+        <v>6.6171875</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>article_101</t>
+          <t>Netclan20241020</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Your URL for article_101</t>
+          <t>https://insights.blackcoffer.com/efficient-processing-and-analysis-of-financial-data-from-pdf-files-addressing-formatting-inconsistencies-and-ensuring-data-integrity-for-a-toyota-dealership-management-firm/</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01006711409395973</v>
+        <v>0.0339943342776204</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03691275167785235</v>
+        <v>0.09631728045325778</v>
       </c>
       <c r="G5" t="n">
-        <v>13.54545454545454</v>
+        <v>14.12</v>
       </c>
       <c r="H5" t="n">
-        <v>36.57718120805369</v>
+        <v>60.62322946175638</v>
       </c>
       <c r="I5" t="n">
-        <v>20.0490543014033</v>
+        <v>29.89729178470256</v>
       </c>
       <c r="J5" t="n">
-        <v>13.54545454545454</v>
+        <v>14.12</v>
       </c>
       <c r="K5" t="n">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="L5" t="n">
-        <v>298</v>
+        <v>353</v>
       </c>
       <c r="M5" t="n">
-        <v>2.402684563758389</v>
+        <v>2.798866855524079</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>6.640939597315437</v>
+        <v>7.869688385269122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>article_102</t>
+          <t>Netclan20241021</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Your URL for article_102</t>
+          <t>https://insights.blackcoffer.com/development-of-ea-robot-for-automated-trading/</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00975609756097561</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02926829268292683</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G6" t="n">
-        <v>15.76923076923077</v>
+        <v>11.75</v>
       </c>
       <c r="H6" t="n">
-        <v>44.87804878048781</v>
+        <v>40.42553191489361</v>
       </c>
       <c r="I6" t="n">
-        <v>24.25891181988743</v>
+        <v>20.87021276595745</v>
       </c>
       <c r="J6" t="n">
-        <v>15.76923076923077</v>
+        <v>11.75</v>
       </c>
       <c r="K6" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L6" t="n">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
-        <v>2.560975609756098</v>
+        <v>2.425531914893617</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>7.014634146341463</v>
+        <v>6.776595744680851</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>article_103</t>
+          <t>Netclan20241022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Your URL for article_103</t>
+          <t>https://insights.blackcoffer.com/ai-and-ml-based-youtube-analytics-and-content-creation-tool-for-optimizing-subscriber-engagement-and-content-strategy/</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01003344481605351</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03010033444816054</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G7" t="n">
-        <v>16.61111111111111</v>
+        <v>23.75</v>
       </c>
       <c r="H7" t="n">
-        <v>41.47157190635451</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="I7" t="n">
-        <v>23.23307320698625</v>
+        <v>26.3421052631579</v>
       </c>
       <c r="J7" t="n">
-        <v>16.61111111111111</v>
+        <v>23.75</v>
       </c>
       <c r="K7" t="n">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="L7" t="n">
-        <v>299</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
-        <v>2.511705685618729</v>
+        <v>2.347368421052632</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>6.795986622073579</v>
+        <v>7.126315789473685</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>article_104</t>
+          <t>Netclan20241023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Your URL for article_104</t>
+          <t>https://insights.blackcoffer.com/enhancing-front-end-features-and-functionality-for-improved-user-experience-and-dashboard-accuracy-in-partner-hospital-application/</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01863354037267081</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03105590062111801</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G8" t="n">
-        <v>20.125</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>42.85714285714285</v>
+        <v>34.49197860962567</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19285714285714</v>
+        <v>18.3301247771836</v>
       </c>
       <c r="J8" t="n">
-        <v>20.125</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="K8" t="n">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="L8" t="n">
-        <v>161</v>
+        <v>374</v>
       </c>
       <c r="M8" t="n">
-        <v>2.559006211180124</v>
+        <v>2.302139037433155</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>7.006211180124224</v>
+        <v>6.695187165775401</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>article_105</t>
+          <t>Netclan20241024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Your URL for article_105</t>
+          <t>https://insights.blackcoffer.com/roas-dashboard-for-campaign-wise-google-ads-budget-tracking-using-google-ads-ap/</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03508771929824561</v>
+        <v>0.0859375</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.1171875</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>18.28571428571428</v>
       </c>
       <c r="H9" t="n">
-        <v>38.37719298245614</v>
+        <v>27.34375</v>
       </c>
       <c r="I9" t="n">
-        <v>20.15087719298246</v>
+        <v>18.25178571428571</v>
       </c>
       <c r="J9" t="n">
-        <v>12</v>
+        <v>18.28571428571428</v>
       </c>
       <c r="K9" t="n">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="L9" t="n">
-        <v>456</v>
+        <v>128</v>
       </c>
       <c r="M9" t="n">
-        <v>2.385964912280702</v>
+        <v>2.21875</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>6.692982456140351</v>
+        <v>6.6171875</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>article_106</t>
+          <t>Netclan20241025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Your URL for article_106</t>
+          <t>https://insights.blackcoffer.com/efficient-processing-and-analysis-of-financial-data-from-pdf-files-addressing-formatting-inconsistencies-and-ensuring-data-integrity-for-a-toyota-dealership-management-firm/</t>
         </is>
       </c>
       <c r="C10" t="n">
+        <v>23</v>
+      </c>
+      <c r="D10" t="n">
         <v>11</v>
       </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
       <c r="E10" t="n">
-        <v>0.03174603174603174</v>
+        <v>0.0339943342776204</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0380952380952381</v>
+        <v>0.09631728045325778</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>14.12</v>
       </c>
       <c r="H10" t="n">
-        <v>32.38095238095238</v>
+        <v>60.62322946175638</v>
       </c>
       <c r="I10" t="n">
-        <v>18.95238095238095</v>
+        <v>29.89729178470256</v>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>14.12</v>
       </c>
       <c r="K10" t="n">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="L10" t="n">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="M10" t="n">
-        <v>2.238095238095238</v>
+        <v>2.798866855524079</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>6.365079365079365</v>
+        <v>7.869688385269122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>article_107</t>
+          <t>Netclan20241026</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Your URL for article_107</t>
+          <t>https://insights.blackcoffer.com/transforming-and-managing-a-large-scale-sql-pedigree-database-to-neo4j-graph-db/</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>0.003174603174603175</v>
+        <v>0.0339943342776204</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.07365439093484419</v>
       </c>
       <c r="G11" t="n">
-        <v>13.125</v>
+        <v>11.89887640449438</v>
       </c>
       <c r="H11" t="n">
-        <v>38.73015873015873</v>
+        <v>57.97922568460812</v>
       </c>
       <c r="I11" t="n">
-        <v>20.74206349206349</v>
+        <v>27.951240835641</v>
       </c>
       <c r="J11" t="n">
-        <v>13.125</v>
+        <v>11.89887640449438</v>
       </c>
       <c r="K11" t="n">
-        <v>122</v>
+        <v>614</v>
       </c>
       <c r="L11" t="n">
-        <v>315</v>
+        <v>1059</v>
       </c>
       <c r="M11" t="n">
-        <v>2.336507936507937</v>
+        <v>2.770538243626062</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>6.634920634920635</v>
+        <v>7.701605288007555</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>article_108</t>
+          <t>Netclan20241027</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Your URL for article_108</t>
+          <t>https://insights.blackcoffer.com/enhancing-model-accuracy-from-58-to-over-90-strategies-for-improving-predictive-performance/</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03153153153153153</v>
+        <v>0.046875</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04054054054054054</v>
+        <v>0.09375</v>
       </c>
       <c r="G12" t="n">
-        <v>17.07692307692308</v>
+        <v>12.19047619047619</v>
       </c>
       <c r="H12" t="n">
-        <v>45.04504504504504</v>
+        <v>59.765625</v>
       </c>
       <c r="I12" t="n">
-        <v>24.84878724878725</v>
+        <v>28.78244047619048</v>
       </c>
       <c r="J12" t="n">
-        <v>17.07692307692308</v>
+        <v>12.19047619047619</v>
       </c>
       <c r="K12" t="n">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="L12" t="n">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="M12" t="n">
-        <v>2.522522522522523</v>
+        <v>2.87890625</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>6.873873873873874</v>
+        <v>7.84375</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>article_109</t>
+          <t>Netclan20241028</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Your URL for article_109</t>
+          <t>https://insights.blackcoffer.com/securing-sensitive-financial-data-with-privacy-preserving-machine-learning-for-predictive-analytics/</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02422145328719723</v>
+        <v>0.05284552845528456</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="G13" t="n">
-        <v>10.7037037037037</v>
+        <v>17.57142857142857</v>
       </c>
       <c r="H13" t="n">
-        <v>32.8719723183391</v>
+        <v>59.34959349593496</v>
       </c>
       <c r="I13" t="n">
-        <v>17.43027040881712</v>
+        <v>30.76840882694542</v>
       </c>
       <c r="J13" t="n">
-        <v>10.7037037037037</v>
+        <v>17.57142857142857</v>
       </c>
       <c r="K13" t="n">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="L13" t="n">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="M13" t="n">
-        <v>2.397923875432526</v>
+        <v>2.829268292682927</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>6.664359861591696</v>
+        <v>7.845528455284553</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>article_11</t>
+          <t>Netclan20241029</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Your URL for article_11</t>
+          <t>https://insights.blackcoffer.com/enhancing-data-collection-for-research-institutions-addressing-survey-fatigue-and-incorporating-verbal-communication-for-richer-insights/</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03381642512077294</v>
+        <v>0.07264957264957266</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06763285024154589</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="G14" t="n">
-        <v>13.8</v>
+        <v>13.76470588235294</v>
       </c>
       <c r="H14" t="n">
-        <v>54.10628019323671</v>
+        <v>48.29059829059829</v>
       </c>
       <c r="I14" t="n">
-        <v>27.16251207729469</v>
+        <v>24.82212166918049</v>
       </c>
       <c r="J14" t="n">
-        <v>13.8</v>
+        <v>13.76470588235294</v>
       </c>
       <c r="K14" t="n">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="L14" t="n">
-        <v>414</v>
+        <v>234</v>
       </c>
       <c r="M14" t="n">
-        <v>2.765700483091787</v>
+        <v>2.602564102564103</v>
       </c>
       <c r="N14" t="n">
         <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>7.560386473429952</v>
+        <v>7.662393162393163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>article_110</t>
+          <t>Netclan20241030</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Your URL for article_110</t>
+          <t>https://insights.blackcoffer.com/analyzing-the-impact-of-positive-emotions-and-pandemic-severity-on-mental-health-and-resilience-among-entrepreneurs-insights-and-predictive-modeling/</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>59.25925925925925</v>
+      </c>
+      <c r="I15" t="n">
+        <v>28.0237037037037</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>128</v>
+      </c>
+      <c r="L15" t="n">
+        <v>216</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.865740740740741</v>
+      </c>
+      <c r="N15" t="n">
         <v>4</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.0226537216828479</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.04854368932038835</v>
-      </c>
-      <c r="G15" t="n">
-        <v>17.16666666666667</v>
-      </c>
-      <c r="H15" t="n">
-        <v>36.89320388349515</v>
-      </c>
-      <c r="I15" t="n">
-        <v>21.62394822006473</v>
-      </c>
-      <c r="J15" t="n">
-        <v>17.16666666666667</v>
-      </c>
-      <c r="K15" t="n">
-        <v>114</v>
-      </c>
-      <c r="L15" t="n">
-        <v>309</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2.372168284789644</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6</v>
-      </c>
       <c r="O15" t="n">
-        <v>6.579288025889968</v>
+        <v>8.060185185185185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>article_111</t>
+          <t>Netclan20241031</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Your URL for article_111</t>
+          <t>https://insights.blackcoffer.com/dynamic-brand-centric-dashboard-for-automotive-dealerships-pdf-to-financial-insights-with-flask-react-architecture-and-aws-cloud-hosting/</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02506265664160401</v>
+        <v>0.04529201430274136</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04010025062656641</v>
+        <v>0.1048867699642431</v>
       </c>
       <c r="G16" t="n">
-        <v>16.625</v>
+        <v>11.65277777777778</v>
       </c>
       <c r="H16" t="n">
-        <v>31.57894736842105</v>
+        <v>50.53635280095352</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28157894736842</v>
+        <v>24.87565223149252</v>
       </c>
       <c r="J16" t="n">
-        <v>16.625</v>
+        <v>11.65277777777778</v>
       </c>
       <c r="K16" t="n">
-        <v>126</v>
+        <v>424</v>
       </c>
       <c r="L16" t="n">
-        <v>399</v>
+        <v>839</v>
       </c>
       <c r="M16" t="n">
-        <v>2.233082706766917</v>
+        <v>2.610250297973778</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>6.521303258145363</v>
+        <v>7.486293206197854</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>article_112</t>
+          <t>Netclan20241032</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Your URL for article_112</t>
+          <t>https://insights.blackcoffer.com/cloud-based-data-modeling-and-analysis-platform-with-drag-and-drop-interface-and-openai-api-integration-for-simulation-insights/</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02142857142857143</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04285714285714286</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="G17" t="n">
-        <v>14</v>
+        <v>13.23076923076923</v>
       </c>
       <c r="H17" t="n">
-        <v>38.21428571428571</v>
+        <v>41.27906976744186</v>
       </c>
       <c r="I17" t="n">
-        <v>20.88571428571429</v>
+        <v>21.80393559928444</v>
       </c>
       <c r="J17" t="n">
-        <v>14</v>
+        <v>13.23076923076923</v>
       </c>
       <c r="K17" t="n">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="L17" t="n">
-        <v>280</v>
+        <v>172</v>
       </c>
       <c r="M17" t="n">
-        <v>2.407142857142857</v>
+        <v>2.465116279069767</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>6.621428571428571</v>
+        <v>6.953488372093023</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>article_113</t>
+          <t>Netclan20241033</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Your URL for article_113</t>
+          <t>https://insights.blackcoffer.com/voter-profile-analysis-and-search-application-for-targeted-campaign-engagement-using-government-voter-data/</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05466237942122187</v>
+        <v>0.07045454545454545</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06109324758842444</v>
+        <v>0.09772727272727273</v>
       </c>
       <c r="G18" t="n">
-        <v>15.55</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>37.94212218649518</v>
+        <v>58.40909090909091</v>
       </c>
       <c r="I18" t="n">
-        <v>21.39684887459807</v>
+        <v>28.6969696969697</v>
       </c>
       <c r="J18" t="n">
-        <v>15.55</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="K18" t="n">
-        <v>118</v>
+        <v>257</v>
       </c>
       <c r="L18" t="n">
-        <v>311</v>
+        <v>440</v>
       </c>
       <c r="M18" t="n">
-        <v>2.440514469453376</v>
+        <v>2.827272727272727</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>6.752411575562701</v>
+        <v>7.872727272727273</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>article_114</t>
+          <t>Netclan20241034</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Your URL for article_114</t>
+          <t>https://insights.blackcoffer.com/bert-based-classification-of-individuals-and-organizations-into-two-categories-using-natural-language-processing/</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="G19" t="n">
-        <v>18</v>
+        <v>12.125</v>
       </c>
       <c r="H19" t="n">
-        <v>43.88888888888889</v>
+        <v>44.32989690721649</v>
       </c>
       <c r="I19" t="n">
-        <v>24.75555555555556</v>
+        <v>22.5819587628866</v>
       </c>
       <c r="J19" t="n">
-        <v>18</v>
+        <v>12.125</v>
       </c>
       <c r="K19" t="n">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="L19" t="n">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="M19" t="n">
-        <v>2.538888888888889</v>
+        <v>2.536082474226804</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>6.966666666666667</v>
+        <v>7.329896907216495</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>article_115</t>
+          <t>Netclan20241035</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Your URL for article_115</t>
+          <t>https://insights.blackcoffer.com/comprehensive-analysis-of-solana-and-ethereum-contributors-using-github-api-with-comparative-study-of-1000-random-github-profiles/</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02479338842975207</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04958677685950413</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="G20" t="n">
-        <v>15.125</v>
+        <v>13.42857142857143</v>
       </c>
       <c r="H20" t="n">
-        <v>42.14876033057851</v>
+        <v>53.19148936170212</v>
       </c>
       <c r="I20" t="n">
-        <v>22.9095041322314</v>
+        <v>26.64802431610942</v>
       </c>
       <c r="J20" t="n">
-        <v>15.125</v>
+        <v>13.42857142857143</v>
       </c>
       <c r="K20" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L20" t="n">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
-        <v>2.578512396694215</v>
+        <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>7.243801652892562</v>
+        <v>7.478723404255319</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>article_116</t>
+          <t>Netclan20241036</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Your URL for article_116</t>
+          <t>https://insights.blackcoffer.com/powerbi-rest-api-fetching-dataflow-and-refresh-schedules-with-semantic-models/</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>0.009389671361502348</v>
+        <v>0.06372549019607843</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02816901408450704</v>
+        <v>0.1323529411764706</v>
       </c>
       <c r="G21" t="n">
-        <v>17.75</v>
+        <v>13.6</v>
       </c>
       <c r="H21" t="n">
-        <v>39.43661971830986</v>
+        <v>50.49019607843137</v>
       </c>
       <c r="I21" t="n">
-        <v>22.87464788732395</v>
+        <v>25.63607843137255</v>
       </c>
       <c r="J21" t="n">
-        <v>17.75</v>
+        <v>13.6</v>
       </c>
       <c r="K21" t="n">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="L21" t="n">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="M21" t="n">
-        <v>2.427230046948357</v>
+        <v>2.622549019607843</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>6.807511737089202</v>
+        <v>7.014705882352941</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>article_117</t>
+          <t>Netclan20241037</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Your URL for article_117</t>
+          <t>https://insights.blackcoffer.com/automated-job-data-import-and-management-solution-for-enhanced-efficiency/</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>11</v>
       </c>
       <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.05590062111801242</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.08074534161490683</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8.473684210526315</v>
+      </c>
+      <c r="H22" t="n">
+        <v>37.88819875776397</v>
+      </c>
+      <c r="I22" t="n">
+        <v>18.54475318731611</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8.473684210526315</v>
+      </c>
+      <c r="K22" t="n">
+        <v>61</v>
+      </c>
+      <c r="L22" t="n">
+        <v>161</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.459627329192547</v>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.0308641975308642</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="G22" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>41.9753086419753</v>
-      </c>
-      <c r="I22" t="n">
-        <v>23.27012345679012</v>
-      </c>
-      <c r="J22" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>136</v>
-      </c>
-      <c r="L22" t="n">
-        <v>324</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2.493827160493827</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3</v>
-      </c>
       <c r="O22" t="n">
-        <v>6.966049382716049</v>
+        <v>6.77639751552795</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>article_118</t>
+          <t>Netclan20241038</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Your URL for article_118</t>
+          <t>https://insights.blackcoffer.com/data-analytics-and-optimization-solution-for-enhancing-renewable-energy-efficiency/</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.05084745762711865</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.07344632768361582</v>
+      </c>
+      <c r="G23" t="n">
+        <v>9.315789473684211</v>
+      </c>
+      <c r="H23" t="n">
+        <v>57.06214689265536</v>
+      </c>
+      <c r="I23" t="n">
+        <v>26.55117454653583</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9.315789473684211</v>
+      </c>
+      <c r="K23" t="n">
+        <v>101</v>
+      </c>
+      <c r="L23" t="n">
+        <v>177</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.824858757062147</v>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.01067615658362989</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.01779359430604982</v>
-      </c>
-      <c r="G23" t="n">
-        <v>12.77272727272727</v>
-      </c>
-      <c r="H23" t="n">
-        <v>38.07829181494662</v>
-      </c>
-      <c r="I23" t="n">
-        <v>20.34040763506956</v>
-      </c>
-      <c r="J23" t="n">
-        <v>12.77272727272727</v>
-      </c>
-      <c r="K23" t="n">
-        <v>107</v>
-      </c>
-      <c r="L23" t="n">
-        <v>281</v>
-      </c>
-      <c r="M23" t="n">
-        <v>2.444839857651246</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4</v>
-      </c>
       <c r="O23" t="n">
-        <v>6.879003558718861</v>
+        <v>7.64406779661017</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>article_119</t>
+          <t>Netclan20241039</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Your URL for article_119</t>
+          <t>https://insights.blackcoffer.com/time-series-analysis-and-trend-forecasting-solution-for-predicting-news-trends/</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.05389221556886228</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02597402597402598</v>
+        <v>0.07784431137724551</v>
       </c>
       <c r="G24" t="n">
-        <v>22</v>
+        <v>8.35</v>
       </c>
       <c r="H24" t="n">
-        <v>44.8051948051948</v>
+        <v>40.11976047904191</v>
       </c>
       <c r="I24" t="n">
-        <v>26.72207792207792</v>
+        <v>19.38790419161677</v>
       </c>
       <c r="J24" t="n">
-        <v>22</v>
+        <v>8.35</v>
       </c>
       <c r="K24" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L24" t="n">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M24" t="n">
-        <v>2.564935064935065</v>
+        <v>2.467065868263473</v>
       </c>
       <c r="N24" t="n">
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>7.012987012987013</v>
+        <v>7.203592814371257</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>article_12</t>
+          <t>Netclan20241040</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Your URL for article_12</t>
+          <t>https://insights.blackcoffer.com/advanced-data-visualization-solutions-for-monitoring-key-business-metrics-with-integrated-interactive-dashboards/</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0488245931283906</v>
+        <v>0.09580838323353294</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05967450271247739</v>
+        <v>0.1077844311377246</v>
       </c>
       <c r="G25" t="n">
-        <v>17.28125</v>
+        <v>8.789473684210526</v>
       </c>
       <c r="H25" t="n">
-        <v>56.78119349005425</v>
+        <v>49.70059880239521</v>
       </c>
       <c r="I25" t="n">
-        <v>29.6249773960217</v>
+        <v>23.39602899464229</v>
       </c>
       <c r="J25" t="n">
-        <v>17.28125</v>
+        <v>8.789473684210526</v>
       </c>
       <c r="K25" t="n">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="L25" t="n">
-        <v>553</v>
+        <v>167</v>
       </c>
       <c r="M25" t="n">
-        <v>2.772151898734177</v>
+        <v>2.724550898203593</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>7.618444846292948</v>
+        <v>7.712574850299402</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>article_120</t>
+          <t>Netclan20241041</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Your URL for article_120</t>
+          <t>https://insights.blackcoffer.com/advanced-patient-data-analysis-solution-for-trend-identification-and-improved-healthcare-outcome/</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02463054187192118</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.1294117647058824</v>
       </c>
       <c r="G26" t="n">
-        <v>15.61538461538461</v>
+        <v>8.947368421052632</v>
       </c>
       <c r="H26" t="n">
-        <v>44.82758620689656</v>
+        <v>51.76470588235295</v>
       </c>
       <c r="I26" t="n">
-        <v>24.17718832891247</v>
+        <v>24.28482972136223</v>
       </c>
       <c r="J26" t="n">
-        <v>15.61538461538461</v>
+        <v>8.947368421052632</v>
       </c>
       <c r="K26" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L26" t="n">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="M26" t="n">
-        <v>2.532019704433497</v>
+        <v>2.711764705882353</v>
       </c>
       <c r="N26" t="n">
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>6.935960591133005</v>
+        <v>7.629411764705883</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>article_121</t>
+          <t>Netclan20241042</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Your URL for article_121</t>
+          <t>https://insights.blackcoffer.com/anomaly-detection-and-analysis-for-enhanced-data-integrity-and-user-experience-on-bright-datas-website/</t>
         </is>
       </c>
       <c r="C27" t="n">
+        <v>15</v>
+      </c>
+      <c r="D27" t="n">
         <v>9</v>
       </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
       <c r="E27" t="n">
-        <v>0.0380952380952381</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.1340782122905028</v>
       </c>
       <c r="G27" t="n">
-        <v>16.15384615384615</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>42.38095238095238</v>
+        <v>51.95530726256982</v>
       </c>
       <c r="I27" t="n">
-        <v>23.41391941391942</v>
+        <v>24.36212290502793</v>
       </c>
       <c r="J27" t="n">
-        <v>16.15384615384615</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L27" t="n">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="M27" t="n">
-        <v>2.5</v>
+        <v>2.659217877094972</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>6.885714285714286</v>
+        <v>7.206703910614525</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>article_122</t>
+          <t>Netclan20241043</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Your URL for article_122</t>
+          <t>https://insights.blackcoffer.com/building-custom-tflite-models-and-benchmarking-on-voxl2-chips/</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0155440414507772</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04663212435233161</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="G28" t="n">
-        <v>17.54545454545455</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
-        <v>40.93264248704664</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="I28" t="n">
-        <v>23.39123881300047</v>
+        <v>23.14285714285714</v>
       </c>
       <c r="J28" t="n">
-        <v>17.54545454545455</v>
+        <v>15</v>
       </c>
       <c r="K28" t="n">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="L28" t="n">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="M28" t="n">
-        <v>2.476683937823834</v>
+        <v>2.504761904761905</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>6.797927461139897</v>
+        <v>7.609523809523809</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>article_123</t>
+          <t>Netclan20241044</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Your URL for article_123</t>
+          <t>https://insights.blackcoffer.com/sports-prediction-model-for-multiple-sports-leagues/</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0155440414507772</v>
+        <v>0.05639097744360902</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05699481865284974</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G29" t="n">
-        <v>13.78571428571429</v>
+        <v>15.64705882352941</v>
       </c>
       <c r="H29" t="n">
-        <v>46.1139896373057</v>
+        <v>44.3609022556391</v>
       </c>
       <c r="I29" t="n">
-        <v>23.95988156920799</v>
+        <v>24.00318443166741</v>
       </c>
       <c r="J29" t="n">
-        <v>13.78571428571429</v>
+        <v>15.64705882352941</v>
       </c>
       <c r="K29" t="n">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="L29" t="n">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="M29" t="n">
-        <v>2.559585492227979</v>
+        <v>2.428571428571428</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>6.953367875647668</v>
+        <v>7.255639097744361</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>article_124</t>
+          <t>Netclan20241045</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Your URL for article_124</t>
+          <t>https://insights.blackcoffer.com/efficient-coach-allocation-system-for-sports-coaching-organization/</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02116402116402116</v>
+        <v>0.03246753246753246</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04232804232804233</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G30" t="n">
-        <v>14.53846153846154</v>
+        <v>14</v>
       </c>
       <c r="H30" t="n">
-        <v>44.44444444444444</v>
+        <v>37.01298701298701</v>
       </c>
       <c r="I30" t="n">
-        <v>23.59316239316239</v>
+        <v>20.40519480519481</v>
       </c>
       <c r="J30" t="n">
-        <v>14.53846153846154</v>
+        <v>14</v>
       </c>
       <c r="K30" t="n">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="L30" t="n">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="M30" t="n">
-        <v>2.529100529100529</v>
+        <v>2.493506493506493</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>6.962962962962963</v>
+        <v>7.298701298701299</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>article_125</t>
+          <t>Netclan20241046</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Your URL for article_125</t>
+          <t>https://insights.blackcoffer.com/data-studio-dashboard-with-a-data-pipeline-tool-synced-with-podio-using-custom-webhooks-and-google-cloud-function-2/</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03873239436619718</v>
+        <v>0.03757225433526012</v>
       </c>
       <c r="F31" t="n">
-        <v>0.04577464788732395</v>
+        <v>0.0838150289017341</v>
       </c>
       <c r="G31" t="n">
-        <v>12.34782608695652</v>
+        <v>11.53333333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>41.90140845070422</v>
+        <v>41.32947976878613</v>
       </c>
       <c r="I31" t="n">
-        <v>21.6996938150643</v>
+        <v>21.14512524084779</v>
       </c>
       <c r="J31" t="n">
-        <v>12.34782608695652</v>
+        <v>11.53333333333333</v>
       </c>
       <c r="K31" t="n">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="L31" t="n">
-        <v>284</v>
+        <v>346</v>
       </c>
       <c r="M31" t="n">
-        <v>2.507042253521127</v>
+        <v>2.468208092485549</v>
       </c>
       <c r="N31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>6.996478873239437</v>
+        <v>7.121387283236994</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>article_126</t>
+          <t>Netclan20241047</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Your URL for article_126</t>
+          <t>https://insights.blackcoffer.com/ai-driven-backend-for-audio-to-text-conversion-and-analytical-assessment-in-pharmaceutical-practice/</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.01357466063348416</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="G32" t="n">
+        <v>11.63157894736842</v>
+      </c>
+      <c r="H32" t="n">
+        <v>43.89140271493213</v>
+      </c>
+      <c r="I32" t="n">
+        <v>22.20919266492022</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.63157894736842</v>
+      </c>
+      <c r="K32" t="n">
+        <v>97</v>
+      </c>
+      <c r="L32" t="n">
+        <v>221</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.506787330316742</v>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
-      <c r="E32" t="n">
-        <v>0.01388888888888889</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.02314814814814815</v>
-      </c>
-      <c r="G32" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="H32" t="n">
-        <v>40.27777777777778</v>
-      </c>
-      <c r="I32" t="n">
-        <v>21.87111111111111</v>
-      </c>
-      <c r="J32" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K32" t="n">
-        <v>87</v>
-      </c>
-      <c r="L32" t="n">
-        <v>216</v>
-      </c>
-      <c r="M32" t="n">
-        <v>2.527777777777778</v>
-      </c>
-      <c r="N32" t="n">
-        <v>5</v>
-      </c>
       <c r="O32" t="n">
-        <v>6.921296296296297</v>
+        <v>7.02262443438914</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>article_127</t>
+          <t>Netclan20241048</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Your URL for article_127</t>
+          <t>https://insights.blackcoffer.com/cloud-based-web-application-for-financial-data-processing-and-visualization-of-sp-500-metrics/</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D33" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.008108108108108109</v>
+        <v>0.07730673316708229</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04054054054054054</v>
+        <v>0.1371571072319202</v>
       </c>
       <c r="G33" t="n">
-        <v>16.08695652173913</v>
+        <v>15.42307692307692</v>
       </c>
       <c r="H33" t="n">
-        <v>40.81081081081081</v>
+        <v>52.86783042394016</v>
       </c>
       <c r="I33" t="n">
-        <v>22.75910693301998</v>
+        <v>27.31636293880683</v>
       </c>
       <c r="J33" t="n">
-        <v>16.08695652173913</v>
+        <v>15.42307692307692</v>
       </c>
       <c r="K33" t="n">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="L33" t="n">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="M33" t="n">
-        <v>2.491891891891892</v>
+        <v>2.778054862842893</v>
       </c>
       <c r="N33" t="n">
         <v>4</v>
       </c>
       <c r="O33" t="n">
-        <v>6.767567567567568</v>
+        <v>7.832917705735661</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>article_128</t>
+          <t>Netclan20241049</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Your URL for article_128</t>
+          <t>https://insights.blackcoffer.com/department-wise-kpi-tracking-dashboard-with-technician-performance-analysis-for-atoz-dependable-service/</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03501945525291829</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="F34" t="n">
-        <v>0.06614785992217899</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G34" t="n">
-        <v>14.27777777777778</v>
+        <v>12.96</v>
       </c>
       <c r="H34" t="n">
-        <v>38.52140077821012</v>
+        <v>32.09876543209877</v>
       </c>
       <c r="I34" t="n">
-        <v>21.11967142239516</v>
+        <v>18.02350617283951</v>
       </c>
       <c r="J34" t="n">
-        <v>14.27777777777778</v>
+        <v>12.96</v>
       </c>
       <c r="K34" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L34" t="n">
-        <v>257</v>
+        <v>324</v>
       </c>
       <c r="M34" t="n">
-        <v>2.470817120622568</v>
+        <v>2.305555555555555</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>6.914396887159533</v>
+        <v>6.657407407407407</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>article_129</t>
+          <t>Netclan20241050</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Your URL for article_129</t>
+          <t>https://insights.blackcoffer.com/steps-to-convert-a-node-js-api-to-python-for-aws-lambda-deployment/</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="G35" t="n">
-        <v>12</v>
+        <v>12.4375</v>
       </c>
       <c r="H35" t="n">
-        <v>43.20987654320987</v>
+        <v>50.75376884422111</v>
       </c>
       <c r="I35" t="n">
-        <v>22.08395061728395</v>
+        <v>25.27650753768845</v>
       </c>
       <c r="J35" t="n">
-        <v>12</v>
+        <v>12.4375</v>
       </c>
       <c r="K35" t="n">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="L35" t="n">
-        <v>324</v>
+        <v>199</v>
       </c>
       <c r="M35" t="n">
-        <v>2.592592592592593</v>
+        <v>2.633165829145728</v>
       </c>
       <c r="N35" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>7.166666666666667</v>
+        <v>7.592964824120603</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>article_13</t>
+          <t>Netclan20241051</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Your URL for article_13</t>
+          <t>https://insights.blackcoffer.com/building-an-analytics-dashboard-with-a-pdf-parsing-pipeline-for-data-extraction/</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E36" t="n">
-        <v>0.04846938775510204</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="F36" t="n">
-        <v>0.07908163265306123</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="G36" t="n">
-        <v>15.07692307692308</v>
+        <v>9.909090909090908</v>
       </c>
       <c r="H36" t="n">
-        <v>46.93877551020408</v>
+        <v>41.1697247706422</v>
       </c>
       <c r="I36" t="n">
-        <v>24.80627943485086</v>
+        <v>20.43152627189325</v>
       </c>
       <c r="J36" t="n">
-        <v>15.07692307692308</v>
+        <v>9.909090909090908</v>
       </c>
       <c r="K36" t="n">
-        <v>184</v>
+        <v>359</v>
       </c>
       <c r="L36" t="n">
-        <v>392</v>
+        <v>872</v>
       </c>
       <c r="M36" t="n">
-        <v>2.594387755102041</v>
+        <v>2.493119266055046</v>
       </c>
       <c r="N36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>7.436224489795919</v>
+        <v>7.324541284403669</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>article_130</t>
+          <t>Netclan20241052</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Your URL for article_130</t>
+          <t>https://insights.blackcoffer.com/building-a-real-time-log-file-visualization-dashboard-in-kibana/</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02816901408450704</v>
+        <v>-0.004878048780487805</v>
       </c>
       <c r="F37" t="n">
-        <v>0.05633802816901409</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="G37" t="n">
-        <v>13.52380952380952</v>
+        <v>9.761904761904763</v>
       </c>
       <c r="H37" t="n">
-        <v>41.19718309859155</v>
+        <v>42.68292682926829</v>
       </c>
       <c r="I37" t="n">
-        <v>21.88839704896043</v>
+        <v>20.97793263646922</v>
       </c>
       <c r="J37" t="n">
-        <v>13.52380952380952</v>
+        <v>9.761904761904763</v>
       </c>
       <c r="K37" t="n">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="L37" t="n">
-        <v>284</v>
+        <v>410</v>
       </c>
       <c r="M37" t="n">
-        <v>2.48943661971831</v>
+        <v>2.463414634146341</v>
       </c>
       <c r="N37" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>6.975352112676056</v>
+        <v>6.997560975609757</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>article_131</t>
+          <t>Netclan20241053</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Your URL for article_131</t>
+          <t>https://insights.blackcoffer.com/analyzing-the-impact-of-female-ceo-appointments-on-company-stock-prices/</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02040816326530612</v>
+        <v>0.02315789473684211</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0272108843537415</v>
+        <v>0.04842105263157895</v>
       </c>
       <c r="G38" t="n">
-        <v>14.7</v>
+        <v>11.04651162790698</v>
       </c>
       <c r="H38" t="n">
-        <v>41.15646258503401</v>
+        <v>54.73684210526316</v>
       </c>
       <c r="I38" t="n">
-        <v>22.34258503401361</v>
+        <v>26.31334149326806</v>
       </c>
       <c r="J38" t="n">
-        <v>14.7</v>
+        <v>11.04651162790698</v>
       </c>
       <c r="K38" t="n">
-        <v>121</v>
+        <v>260</v>
       </c>
       <c r="L38" t="n">
-        <v>294</v>
+        <v>475</v>
       </c>
       <c r="M38" t="n">
-        <v>2.479591836734694</v>
+        <v>2.717894736842105</v>
       </c>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O38" t="n">
-        <v>6.880952380952381</v>
+        <v>7.686315789473684</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>article_132</t>
+          <t>Netclan20241054</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Your URL for article_132</t>
+          <t>https://insights.blackcoffer.com/ai-chatbot-using-llm-langchain-llama/</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01730103806228374</v>
+        <v>0.04032258064516129</v>
       </c>
       <c r="F39" t="n">
-        <v>0.03114186851211072</v>
+        <v>0.0564516129032258</v>
       </c>
       <c r="G39" t="n">
-        <v>10.7037037037037</v>
+        <v>15.5</v>
       </c>
       <c r="H39" t="n">
-        <v>38.06228373702422</v>
+        <v>42.74193548387097</v>
       </c>
       <c r="I39" t="n">
-        <v>19.50639497629117</v>
+        <v>23.29677419354839</v>
       </c>
       <c r="J39" t="n">
-        <v>10.7037037037037</v>
+        <v>15.5</v>
       </c>
       <c r="K39" t="n">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="L39" t="n">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="M39" t="n">
-        <v>2.442906574394464</v>
+        <v>2.354838709677419</v>
       </c>
       <c r="N39" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>6.906574394463668</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>article_133</t>
+          <t>Netclan20241055</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Your URL for article_133</t>
+          <t>https://insights.blackcoffer.com/healthcare-ai-chatbot-using-llama-llm-langchain/</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01716738197424893</v>
+        <v>0.09367088607594937</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02575107296137339</v>
+        <v>0.1088607594936709</v>
       </c>
       <c r="G40" t="n">
-        <v>17.92307692307692</v>
+        <v>4.817073170731708</v>
       </c>
       <c r="H40" t="n">
-        <v>41.20171673819743</v>
+        <v>27.84810126582278</v>
       </c>
       <c r="I40" t="n">
-        <v>23.64991746450974</v>
+        <v>13.0660697746218</v>
       </c>
       <c r="J40" t="n">
-        <v>17.92307692307692</v>
+        <v>4.817073170731708</v>
       </c>
       <c r="K40" t="n">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="L40" t="n">
-        <v>233</v>
+        <v>395</v>
       </c>
       <c r="M40" t="n">
-        <v>2.467811158798283</v>
+        <v>2.151898734177215</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="O40" t="n">
-        <v>6.729613733905579</v>
+        <v>6.450632911392405</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>article_134</t>
+          <t>Netclan20241056</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Your URL for article_134</t>
+          <t>https://insights.blackcoffer.com/ai-bot-audio-to-audio/</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.008583690987124463</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.03433476394849785</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>23.3</v>
+        <v>36</v>
       </c>
       <c r="H41" t="n">
-        <v>39.05579399141631</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="I41" t="n">
-        <v>24.94231759656653</v>
+        <v>23.28888888888889</v>
       </c>
       <c r="J41" t="n">
-        <v>23.3</v>
+        <v>36</v>
       </c>
       <c r="K41" t="n">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="L41" t="n">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="M41" t="n">
-        <v>2.407725321888412</v>
+        <v>2.055555555555555</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>6.725321888412017</v>
+        <v>6.138888888888889</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>article_135</t>
+          <t>Netclan20241057</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Your URL for article_135</t>
+          <t>https://insights.blackcoffer.com/recommendation-engine-for-insurance-sector-to-expand-business-in-the-rural-area/</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02654867256637168</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03539823008849557</v>
+        <v>0.0582010582010582</v>
       </c>
       <c r="G42" t="n">
-        <v>17.38461538461538</v>
+        <v>21</v>
       </c>
       <c r="H42" t="n">
-        <v>42.0353982300885</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="I42" t="n">
-        <v>23.76800544588155</v>
+        <v>25.54285714285714</v>
       </c>
       <c r="J42" t="n">
-        <v>17.38461538461538</v>
+        <v>21</v>
       </c>
       <c r="K42" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="L42" t="n">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="M42" t="n">
-        <v>2.491150442477876</v>
+        <v>2.486772486772487</v>
       </c>
       <c r="N42" t="n">
         <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>6.831858407079646</v>
+        <v>7.042328042328043</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>article_136</t>
+          <t>Netclan20241058</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Your URL for article_136</t>
+          <t>https://insights.blackcoffer.com/data-from-crm-via-zapier-to-google-sheets-dynamic-to-powerbi/</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02608695652173913</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="F43" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="G43" t="n">
-        <v>19.16666666666667</v>
+        <v>12.625</v>
       </c>
       <c r="H43" t="n">
-        <v>40</v>
+        <v>28.71287128712871</v>
       </c>
       <c r="I43" t="n">
-        <v>23.66666666666667</v>
+        <v>16.53514851485148</v>
       </c>
       <c r="J43" t="n">
-        <v>19.16666666666667</v>
+        <v>12.625</v>
       </c>
       <c r="K43" t="n">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="L43" t="n">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="M43" t="n">
-        <v>2.460869565217391</v>
+        <v>2.02970297029703</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O43" t="n">
-        <v>6.843478260869565</v>
+        <v>6.148514851485149</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>article_137</t>
+          <t>Netclan20241059</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Your URL for article_137</t>
+          <t>https://insights.blackcoffer.com/data-warehouse-to-google-data-studio-looker-dashboard/</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02232142857142857</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03125</v>
+        <v>0.0352112676056338</v>
       </c>
       <c r="G44" t="n">
-        <v>17.23076923076923</v>
+        <v>12.90909090909091</v>
       </c>
       <c r="H44" t="n">
-        <v>40.625</v>
+        <v>29.57746478873239</v>
       </c>
       <c r="I44" t="n">
-        <v>23.14230769230769</v>
+        <v>16.99462227912932</v>
       </c>
       <c r="J44" t="n">
-        <v>17.23076923076923</v>
+        <v>12.90909090909091</v>
       </c>
       <c r="K44" t="n">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="L44" t="n">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="M44" t="n">
-        <v>2.504464285714286</v>
+        <v>2.253521126760563</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O44" t="n">
-        <v>6.879464285714286</v>
+        <v>6.711267605633803</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>article_138</t>
+          <t>Netclan20241060</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Your URL for article_138</t>
+          <t>https://insights.blackcoffer.com/crm-monday-com-via-zapier-to-power-bi-dashboard/</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01904761904761905</v>
+        <v>0.04142011834319527</v>
       </c>
       <c r="F45" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.08875739644970414</v>
       </c>
       <c r="G45" t="n">
-        <v>23.33333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="H45" t="n">
-        <v>41.42857142857143</v>
+        <v>24.85207100591716</v>
       </c>
       <c r="I45" t="n">
-        <v>25.90476190476191</v>
+        <v>12.54082840236686</v>
       </c>
       <c r="J45" t="n">
-        <v>23.33333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="K45" t="n">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="L45" t="n">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="M45" t="n">
-        <v>2.471428571428572</v>
+        <v>1.940828402366864</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="O45" t="n">
-        <v>6.823809523809524</v>
+        <v>6.100591715976331</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>article_139</t>
+          <t>Netclan20241061</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Your URL for article_139</t>
+          <t>https://insights.blackcoffer.com/monday-com-to-kpi-dashboard-to-manage-view-and-generate-insights-from-the-crm-data/</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02369668246445497</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03317535545023697</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="G46" t="n">
-        <v>19.18181818181818</v>
+        <v>6.551724137931035</v>
       </c>
       <c r="H46" t="n">
-        <v>42.18009478672986</v>
+        <v>30.52631578947368</v>
       </c>
       <c r="I46" t="n">
-        <v>24.54476518741922</v>
+        <v>14.83121597096189</v>
       </c>
       <c r="J46" t="n">
-        <v>19.18181818181818</v>
+        <v>6.551724137931035</v>
       </c>
       <c r="K46" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="L46" t="n">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="M46" t="n">
-        <v>2.511848341232227</v>
+        <v>1.952631578947368</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O46" t="n">
-        <v>6.824644549763033</v>
+        <v>6.236842105263158</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>article_14</t>
+          <t>Netclan20241062</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Your URL for article_14</t>
+          <t>https://insights.blackcoffer.com/data-management-for-a-political-saas-application/</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0267379679144385</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.03980099502487562</v>
       </c>
       <c r="G47" t="n">
-        <v>13.85185185185185</v>
+        <v>10.57894736842105</v>
       </c>
       <c r="H47" t="n">
-        <v>53.20855614973262</v>
+        <v>39.80099502487563</v>
       </c>
       <c r="I47" t="n">
-        <v>26.82416320063379</v>
+        <v>20.15197695731867</v>
       </c>
       <c r="J47" t="n">
-        <v>13.85185185185185</v>
+        <v>10.57894736842105</v>
       </c>
       <c r="K47" t="n">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="L47" t="n">
-        <v>374</v>
+        <v>201</v>
       </c>
       <c r="M47" t="n">
-        <v>2.745989304812834</v>
+        <v>2.318407960199005</v>
       </c>
       <c r="N47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O47" t="n">
-        <v>7.655080213903743</v>
+        <v>6.771144278606966</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>article_140</t>
+          <t>Netclan20241063</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Your URL for article_140</t>
+          <t>https://insights.blackcoffer.com/google-lsa-ads-google-local-service-ads-etl-tools-and-dashboards/</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01716738197424893</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="F48" t="n">
-        <v>0.04291845493562232</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="G48" t="n">
-        <v>13.70588235294118</v>
+        <v>18</v>
       </c>
       <c r="H48" t="n">
-        <v>39.05579399141631</v>
+        <v>32.4074074074074</v>
       </c>
       <c r="I48" t="n">
-        <v>21.10467053774299</v>
+        <v>20.16296296296296</v>
       </c>
       <c r="J48" t="n">
-        <v>13.70588235294118</v>
+        <v>18</v>
       </c>
       <c r="K48" t="n">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="L48" t="n">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="M48" t="n">
-        <v>2.433476394849786</v>
+        <v>2.203703703703704</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>6.793991416309013</v>
+        <v>6.592592592592593</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>article_141</t>
+          <t>Netclan20241064</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Your URL for article_141</t>
+          <t>https://insights.blackcoffer.com/ad-networks-marketing-campaign-data-dashboard-in-looker-google-data-studio/</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0.007836990595611285</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="F49" t="n">
-        <v>0.04231974921630094</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="G49" t="n">
-        <v>9.522388059701493</v>
+        <v>34.5</v>
       </c>
       <c r="H49" t="n">
-        <v>33.69905956112852</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="I49" t="n">
-        <v>17.28857904833201</v>
+        <v>25.97391304347826</v>
       </c>
       <c r="J49" t="n">
-        <v>9.522388059701493</v>
+        <v>34.5</v>
       </c>
       <c r="K49" t="n">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="L49" t="n">
-        <v>638</v>
+        <v>69</v>
       </c>
       <c r="M49" t="n">
-        <v>2.371473354231975</v>
+        <v>2.144927536231884</v>
       </c>
       <c r="N49" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>6.755485893416928</v>
+        <v>6.710144927536231</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>article_142</t>
+          <t>Netclan20241065</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Your URL for article_142</t>
+          <t>https://insights.blackcoffer.com/analytical-solution-for-a-tech-firm/</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>0.009732360097323601</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="F50" t="n">
-        <v>0.04866180048661801</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="G50" t="n">
-        <v>16.44</v>
+        <v>11</v>
       </c>
       <c r="H50" t="n">
-        <v>48.9051094890511</v>
+        <v>34.54545454545455</v>
       </c>
       <c r="I50" t="n">
-        <v>26.13804379562044</v>
+        <v>18.21818181818182</v>
       </c>
       <c r="J50" t="n">
-        <v>16.44</v>
+        <v>11</v>
       </c>
       <c r="K50" t="n">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="L50" t="n">
-        <v>411</v>
+        <v>55</v>
       </c>
       <c r="M50" t="n">
-        <v>2.632603406326034</v>
+        <v>2.218181818181818</v>
       </c>
       <c r="N50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>7.201946472019465</v>
+        <v>6.890909090909091</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>article_143</t>
+          <t>Netclan20241066</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Your URL for article_143</t>
+          <t>https://insights.blackcoffer.com/ai-solution-for-a-technology-information-and-internet-firm/</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.009584664536741214</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="F51" t="n">
-        <v>0.03833865814696485</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="G51" t="n">
-        <v>13.04166666666667</v>
+        <v>16.75</v>
       </c>
       <c r="H51" t="n">
-        <v>42.17252396166134</v>
+        <v>43.28358208955223</v>
       </c>
       <c r="I51" t="n">
-        <v>22.0856762513312</v>
+        <v>24.01343283582089</v>
       </c>
       <c r="J51" t="n">
-        <v>13.04166666666667</v>
+        <v>16.75</v>
       </c>
       <c r="K51" t="n">
-        <v>264</v>
+        <v>29</v>
       </c>
       <c r="L51" t="n">
-        <v>626</v>
+        <v>67</v>
       </c>
       <c r="M51" t="n">
-        <v>2.468051118210862</v>
+        <v>2.402985074626866</v>
       </c>
       <c r="N51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>6.827476038338658</v>
+        <v>6.91044776119403</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>article_144</t>
+          <t>Netclan20241067</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Your URL for article_144</t>
+          <t>https://insights.blackcoffer.com/ai-and-nlp-based-solutions-to-automate-data-discovery-for-venture-capital-and-private-equity-principals/</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>0.003264417845484222</v>
+        <v>0.0291970802919708</v>
       </c>
       <c r="F52" t="n">
-        <v>0.04678998911860718</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="G52" t="n">
-        <v>11.63291139240506</v>
+        <v>17.125</v>
       </c>
       <c r="H52" t="n">
-        <v>37.10554951033732</v>
+        <v>48.17518248175183</v>
       </c>
       <c r="I52" t="n">
-        <v>19.49538436109695</v>
+        <v>26.12007299270073</v>
       </c>
       <c r="J52" t="n">
-        <v>11.63291139240506</v>
+        <v>17.125</v>
       </c>
       <c r="K52" t="n">
-        <v>341</v>
+        <v>66</v>
       </c>
       <c r="L52" t="n">
-        <v>919</v>
+        <v>137</v>
       </c>
       <c r="M52" t="n">
-        <v>2.347116430903156</v>
+        <v>2.386861313868613</v>
       </c>
       <c r="N52" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>6.636561479869424</v>
+        <v>6.861313868613139</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>article_145</t>
+          <t>Netclan20241068</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Your URL for article_145</t>
+          <t>https://insights.blackcoffer.com/an-etl-solution-for-an-internet-publishing-firm/</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0.008298755186721992</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="F53" t="n">
-        <v>0.07468879668049792</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G53" t="n">
-        <v>12.05</v>
+        <v>12</v>
       </c>
       <c r="H53" t="n">
-        <v>39.41908713692946</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="I53" t="n">
-        <v>20.58763485477179</v>
+        <v>16.46666666666667</v>
       </c>
       <c r="J53" t="n">
-        <v>12.05</v>
+        <v>12</v>
       </c>
       <c r="K53" t="n">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="L53" t="n">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="M53" t="n">
-        <v>2.452282157676349</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="N53" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O53" t="n">
-        <v>6.813278008298755</v>
+        <v>6.095238095238095</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>article_146</t>
+          <t>Netclan20241069</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Your URL for article_146</t>
+          <t>https://insights.blackcoffer.com/ai-based-algorithmic-trading-bot-for-forex/</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01273885350318471</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="F54" t="n">
-        <v>0.02547770700636943</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="G54" t="n">
-        <v>22.42857142857143</v>
+        <v>19.25</v>
       </c>
       <c r="H54" t="n">
-        <v>43.94904458598726</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="I54" t="n">
-        <v>26.55104640582347</v>
+        <v>19.12857142857143</v>
       </c>
       <c r="J54" t="n">
-        <v>22.42857142857143</v>
+        <v>19.25</v>
       </c>
       <c r="K54" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="L54" t="n">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="M54" t="n">
-        <v>2.662420382165605</v>
+        <v>2.181818181818182</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>7.29936305732484</v>
+        <v>6.584415584415584</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>article_147</t>
+          <t>Netclan20241070</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Your URL for article_147</t>
+          <t>https://insights.blackcoffer.com/equity-waterfalls-model-based-saas-application-for-real-estate-sector/</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>0.01923076923076923</v>
+        <v>-0.005747126436781609</v>
       </c>
       <c r="F55" t="n">
-        <v>0.02884615384615385</v>
+        <v>0.04022988505747126</v>
       </c>
       <c r="G55" t="n">
-        <v>13.86666666666667</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H55" t="n">
-        <v>40.38461538461539</v>
+        <v>42.5287356321839</v>
       </c>
       <c r="I55" t="n">
-        <v>21.70051282051282</v>
+        <v>20.49149425287356</v>
       </c>
       <c r="J55" t="n">
-        <v>13.86666666666667</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L55" t="n">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="M55" t="n">
-        <v>2.456730769230769</v>
+        <v>2.344827586206896</v>
       </c>
       <c r="N55" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O55" t="n">
-        <v>6.817307692307693</v>
+        <v>6.787356321839081</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>article_15</t>
+          <t>Netclan20241071</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Your URL for article_15</t>
+          <t>https://insights.blackcoffer.com/ai-solutions-for-foreign-exchange-an-automated-algo-trading-tool/</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D56" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
-        <v>0.04012036108324975</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09227683049147442</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="G56" t="n">
-        <v>12.15853658536585</v>
+        <v>16</v>
       </c>
       <c r="H56" t="n">
-        <v>49.64894684052156</v>
+        <v>39.90384615384615</v>
       </c>
       <c r="I56" t="n">
-        <v>24.72299337035497</v>
+        <v>22.36153846153846</v>
       </c>
       <c r="J56" t="n">
-        <v>12.15853658536585</v>
+        <v>16</v>
       </c>
       <c r="K56" t="n">
-        <v>495</v>
+        <v>83</v>
       </c>
       <c r="L56" t="n">
-        <v>997</v>
+        <v>208</v>
       </c>
       <c r="M56" t="n">
-        <v>2.605817452357071</v>
+        <v>2.307692307692307</v>
       </c>
       <c r="N56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O56" t="n">
-        <v>7.425275827482447</v>
+        <v>6.841346153846154</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>article_16</t>
+          <t>Netclan20241072</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Your URL for article_16</t>
+          <t>https://insights.blackcoffer.com/ai-agent-development-and-deployment-in-jina-ai/</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>10</v>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01212121212121212</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="F57" t="n">
-        <v>0.04848484848484848</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="G57" t="n">
-        <v>15.71428571428571</v>
+        <v>16.71428571428572</v>
       </c>
       <c r="H57" t="n">
-        <v>43.03030303030303</v>
+        <v>36.75213675213676</v>
       </c>
       <c r="I57" t="n">
-        <v>23.4978354978355</v>
+        <v>21.38656898656899</v>
       </c>
       <c r="J57" t="n">
-        <v>15.71428571428571</v>
+        <v>16.71428571428572</v>
       </c>
       <c r="K57" t="n">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="L57" t="n">
-        <v>330</v>
+        <v>117</v>
       </c>
       <c r="M57" t="n">
-        <v>2.521212121212121</v>
+        <v>2.418803418803419</v>
       </c>
       <c r="N57" t="n">
         <v>2</v>
       </c>
       <c r="O57" t="n">
-        <v>7.024242424242424</v>
+        <v>6.897435897435898</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>article_17</t>
+          <t>Netclan20241073</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Your URL for article_17</t>
+          <t>https://insights.blackcoffer.com/golden-record-a-knowledge-graph-database-approach-to-unfold-discovery-using-neo4j/</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E58" t="n">
-        <v>0.05529953917050692</v>
+        <v>0.04519774011299435</v>
       </c>
       <c r="F58" t="n">
-        <v>0.07987711213517665</v>
+        <v>0.0903954802259887</v>
       </c>
       <c r="G58" t="n">
-        <v>14.46666666666667</v>
+        <v>11.8</v>
       </c>
       <c r="H58" t="n">
-        <v>54.68509984639017</v>
+        <v>37.85310734463277</v>
       </c>
       <c r="I58" t="n">
-        <v>27.66070660522274</v>
+        <v>19.86124293785311</v>
       </c>
       <c r="J58" t="n">
-        <v>14.46666666666667</v>
+        <v>11.8</v>
       </c>
       <c r="K58" t="n">
-        <v>356</v>
+        <v>67</v>
       </c>
       <c r="L58" t="n">
-        <v>651</v>
+        <v>177</v>
       </c>
       <c r="M58" t="n">
-        <v>2.76036866359447</v>
+        <v>2.35593220338983</v>
       </c>
       <c r="N58" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O58" t="n">
-        <v>7.666666666666667</v>
+        <v>6.88135593220339</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>article_18</t>
+          <t>Netclan20241074</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Your URL for article_18</t>
+          <t>https://insights.blackcoffer.com/advanced-ai-for-trading-automation/</t>
         </is>
       </c>
       <c r="C59" t="n">
+        <v>12</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.03482587064676617</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0845771144278607</v>
+      </c>
+      <c r="G59" t="n">
+        <v>8.739130434782609</v>
+      </c>
+      <c r="H59" t="n">
+        <v>39.30348258706468</v>
+      </c>
+      <c r="I59" t="n">
+        <v>19.21704520873892</v>
+      </c>
+      <c r="J59" t="n">
+        <v>8.739130434782609</v>
+      </c>
+      <c r="K59" t="n">
+        <v>79</v>
+      </c>
+      <c r="L59" t="n">
+        <v>201</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2.388059701492537</v>
+      </c>
+      <c r="N59" t="n">
         <v>8</v>
       </c>
-      <c r="D59" t="n">
-        <v>4</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.01568627450980392</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.04705882352941176</v>
-      </c>
-      <c r="G59" t="n">
-        <v>13.42105263157895</v>
-      </c>
-      <c r="H59" t="n">
-        <v>44.70588235294118</v>
-      </c>
-      <c r="I59" t="n">
-        <v>23.25077399380805</v>
-      </c>
-      <c r="J59" t="n">
-        <v>13.42105263157895</v>
-      </c>
-      <c r="K59" t="n">
-        <v>114</v>
-      </c>
-      <c r="L59" t="n">
-        <v>255</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2.564705882352941</v>
-      </c>
-      <c r="N59" t="n">
-        <v>4</v>
-      </c>
       <c r="O59" t="n">
-        <v>7.188235294117647</v>
+        <v>6.706467661691542</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>article_19</t>
+          <t>Netclan20241075</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Your URL for article_19</t>
+          <t>https://insights.blackcoffer.com/create-a-knowledge-graph-to-provide-real-time-analytics-recommendations-and-a-single-source-of-truth/</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>5</v>
       </c>
       <c r="E60" t="n">
-        <v>0.03468208092485549</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.06358381502890173</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="G60" t="n">
-        <v>14.41666666666667</v>
+        <v>9.181818181818182</v>
       </c>
       <c r="H60" t="n">
-        <v>49.42196531791907</v>
+        <v>42.57425742574257</v>
       </c>
       <c r="I60" t="n">
-        <v>25.5354527938343</v>
+        <v>20.7024302430243</v>
       </c>
       <c r="J60" t="n">
-        <v>14.41666666666667</v>
+        <v>9.181818181818182</v>
       </c>
       <c r="K60" t="n">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="L60" t="n">
-        <v>346</v>
+        <v>101</v>
       </c>
       <c r="M60" t="n">
-        <v>2.673410404624277</v>
+        <v>2.405940594059406</v>
       </c>
       <c r="N60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>7.30635838150289</v>
+        <v>6.821782178217822</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>article_2</t>
+          <t>Netclan20241076</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Your URL for article_2</t>
+          <t>https://insights.blackcoffer.com/advanced-ai-for-thermal-person-detection/</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>0.01879699248120301</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="F61" t="n">
-        <v>0.04887218045112782</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="G61" t="n">
-        <v>12.09090909090909</v>
+        <v>11.2</v>
       </c>
       <c r="H61" t="n">
-        <v>37.59398496240601</v>
+        <v>33.92857142857143</v>
       </c>
       <c r="I61" t="n">
-        <v>19.87395762132604</v>
+        <v>18.05142857142857</v>
       </c>
       <c r="J61" t="n">
-        <v>12.09090909090909</v>
+        <v>11.2</v>
       </c>
       <c r="K61" t="n">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="L61" t="n">
-        <v>532</v>
+        <v>56</v>
       </c>
       <c r="M61" t="n">
-        <v>2.385338345864662</v>
+        <v>2.25</v>
       </c>
       <c r="N61" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>6.815789473684211</v>
+        <v>6.696428571428571</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>article_20</t>
+          <t>Netclan20241077</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Your URL for article_20</t>
+          <t>https://insights.blackcoffer.com/advanced-ai-for-road-cam-threat-detection/</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E62" t="n">
-        <v>0.04143646408839779</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0856353591160221</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="G62" t="n">
-        <v>15.08333333333333</v>
+        <v>13.2</v>
       </c>
       <c r="H62" t="n">
-        <v>48.06629834254144</v>
+        <v>42.42424242424242</v>
       </c>
       <c r="I62" t="n">
-        <v>25.25985267034991</v>
+        <v>22.24969696969697</v>
       </c>
       <c r="J62" t="n">
-        <v>15.08333333333333</v>
+        <v>13.2</v>
       </c>
       <c r="K62" t="n">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="L62" t="n">
-        <v>362</v>
+        <v>66</v>
       </c>
       <c r="M62" t="n">
-        <v>2.604972375690608</v>
+        <v>2.378787878787879</v>
       </c>
       <c r="N62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>7.052486187845304</v>
+        <v>6.984848484848484</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>article_21</t>
+          <t>Netclan20241078</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Your URL for article_21</t>
+          <t>https://insights.blackcoffer.com/advanced-ai-for-pedestrian-crossing-safety/</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E63" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="F63" t="n">
-        <v>0.05329153605015674</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="G63" t="n">
-        <v>10.63333333333333</v>
+        <v>10.57142857142857</v>
       </c>
       <c r="H63" t="n">
-        <v>41.37931034482759</v>
+        <v>40.54054054054054</v>
       </c>
       <c r="I63" t="n">
-        <v>20.80505747126437</v>
+        <v>20.44478764478765</v>
       </c>
       <c r="J63" t="n">
-        <v>10.63333333333333</v>
+        <v>10.57142857142857</v>
       </c>
       <c r="K63" t="n">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="L63" t="n">
-        <v>319</v>
+        <v>74</v>
       </c>
       <c r="M63" t="n">
-        <v>2.520376175548589</v>
+        <v>2.378378378378379</v>
       </c>
       <c r="N63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O63" t="n">
-        <v>6.93730407523511</v>
+        <v>7.135135135135135</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>article_22</t>
+          <t>Netclan20241079</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Your URL for article_22</t>
+          <t>https://insights.blackcoffer.com/handgun-detection-using-yolo/</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>0.03283582089552239</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="F64" t="n">
-        <v>0.05074626865671641</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="G64" t="n">
-        <v>12.40740740740741</v>
+        <v>12.6</v>
       </c>
       <c r="H64" t="n">
-        <v>51.34328358208955</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="I64" t="n">
-        <v>25.50027639579878</v>
+        <v>24.08761904761905</v>
       </c>
       <c r="J64" t="n">
-        <v>12.40740740740741</v>
+        <v>12.6</v>
       </c>
       <c r="K64" t="n">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="L64" t="n">
-        <v>335</v>
+        <v>63</v>
       </c>
       <c r="M64" t="n">
-        <v>2.71044776119403</v>
+        <v>2.492063492063492</v>
       </c>
       <c r="N64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>7.388059701492537</v>
+        <v>7.142857142857143</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>article_23</t>
+          <t>Netclan20241080</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Your URL for article_23</t>
+          <t>https://insights.blackcoffer.com/using-graph-technology-to-create-single-customer-view/</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>0.03384615384615385</v>
+        <v>-0.04166666666666666</v>
       </c>
       <c r="F65" t="n">
-        <v>0.05230769230769231</v>
+        <v>0.125</v>
       </c>
       <c r="G65" t="n">
-        <v>10.83333333333333</v>
+        <v>8.727272727272727</v>
       </c>
       <c r="H65" t="n">
-        <v>42.46153846153846</v>
+        <v>46.875</v>
       </c>
       <c r="I65" t="n">
-        <v>21.31794871794872</v>
+        <v>22.24090909090909</v>
       </c>
       <c r="J65" t="n">
-        <v>10.83333333333333</v>
+        <v>8.727272727272727</v>
       </c>
       <c r="K65" t="n">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="L65" t="n">
-        <v>325</v>
+        <v>96</v>
       </c>
       <c r="M65" t="n">
-        <v>2.523076923076923</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="N65" t="n">
         <v>3</v>
       </c>
       <c r="O65" t="n">
-        <v>7.153846153846154</v>
+        <v>7.260416666666667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>article_24</t>
+          <t>Netclan20241081</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Your URL for article_24</t>
+          <t>https://insights.blackcoffer.com/car-detection-in-satellite-images/</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0.05538461538461539</v>
+        <v>0.06134969325153374</v>
       </c>
       <c r="F66" t="n">
-        <v>0.06769230769230769</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="G66" t="n">
-        <v>11.60714285714286</v>
+        <v>8.578947368421053</v>
       </c>
       <c r="H66" t="n">
-        <v>47.38461538461539</v>
+        <v>36.80981595092025</v>
       </c>
       <c r="I66" t="n">
-        <v>23.5967032967033</v>
+        <v>18.15550532773652</v>
       </c>
       <c r="J66" t="n">
-        <v>11.60714285714286</v>
+        <v>8.578947368421053</v>
       </c>
       <c r="K66" t="n">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="L66" t="n">
-        <v>325</v>
+        <v>163</v>
       </c>
       <c r="M66" t="n">
-        <v>2.655384615384615</v>
+        <v>2.306748466257669</v>
       </c>
       <c r="N66" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O66" t="n">
-        <v>7.415384615384616</v>
+        <v>6.638036809815951</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>article_25</t>
+          <t>Netclan20241082</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Your URL for article_25</t>
+          <t>https://insights.blackcoffer.com/building-a-physics-informed-neural-network-for-circuit-evaluation/</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E67" t="n">
-        <v>0.06097560975609756</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07926829268292683</v>
+        <v>0.08290155440414508</v>
       </c>
       <c r="G67" t="n">
-        <v>12.14814814814815</v>
+        <v>10.1578947368421</v>
       </c>
       <c r="H67" t="n">
-        <v>48.47560975609756</v>
+        <v>41.45077720207254</v>
       </c>
       <c r="I67" t="n">
-        <v>24.24950316169829</v>
+        <v>20.64346877556586</v>
       </c>
       <c r="J67" t="n">
-        <v>12.14814814814815</v>
+        <v>10.1578947368421</v>
       </c>
       <c r="K67" t="n">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="L67" t="n">
-        <v>328</v>
+        <v>193</v>
       </c>
       <c r="M67" t="n">
-        <v>2.649390243902439</v>
+        <v>2.435233160621762</v>
       </c>
       <c r="N67" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="O67" t="n">
-        <v>7.375</v>
+        <v>7.212435233160622</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>article_26</t>
+          <t>Netclan20241083</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Your URL for article_26</t>
+          <t>https://insights.blackcoffer.com/connecting-mongodb-database-to-power-bi-dashboard-dashboard-automation/</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.009216589861751152</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.05529953917050692</v>
+      </c>
+      <c r="G68" t="n">
+        <v>9.863636363636363</v>
+      </c>
+      <c r="H68" t="n">
+        <v>40.09216589861751</v>
+      </c>
+      <c r="I68" t="n">
+        <v>19.98232090490155</v>
+      </c>
+      <c r="J68" t="n">
+        <v>9.863636363636363</v>
+      </c>
+      <c r="K68" t="n">
+        <v>87</v>
+      </c>
+      <c r="L68" t="n">
+        <v>217</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2.354838709677419</v>
+      </c>
+      <c r="N68" t="n">
         <v>10</v>
       </c>
-      <c r="E68" t="n">
-        <v>0.02373887240356083</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.0830860534124629</v>
-      </c>
-      <c r="G68" t="n">
-        <v>11.62068965517241</v>
-      </c>
-      <c r="H68" t="n">
-        <v>48.6646884272997</v>
-      </c>
-      <c r="I68" t="n">
-        <v>24.11415123298885</v>
-      </c>
-      <c r="J68" t="n">
-        <v>11.62068965517241</v>
-      </c>
-      <c r="K68" t="n">
-        <v>164</v>
-      </c>
-      <c r="L68" t="n">
-        <v>337</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2.623145400593472</v>
-      </c>
-      <c r="N68" t="n">
-        <v>3</v>
-      </c>
       <c r="O68" t="n">
-        <v>7.15727002967359</v>
+        <v>6.488479262672811</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>article_27</t>
+          <t>Netclan20241084</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Your URL for article_27</t>
+          <t>https://insights.blackcoffer.com/data-transformation/</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E69" t="n">
-        <v>0.03642384105960265</v>
+        <v>0.02834008097165992</v>
       </c>
       <c r="F69" t="n">
-        <v>0.04304635761589404</v>
+        <v>0.1336032388663968</v>
       </c>
       <c r="G69" t="n">
-        <v>15.1</v>
+        <v>10.29166666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>45.36423841059602</v>
+        <v>34.81781376518219</v>
       </c>
       <c r="I69" t="n">
-        <v>24.18569536423841</v>
+        <v>18.04379217273954</v>
       </c>
       <c r="J69" t="n">
-        <v>15.1</v>
+        <v>10.29166666666667</v>
       </c>
       <c r="K69" t="n">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="L69" t="n">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="M69" t="n">
-        <v>2.572847682119205</v>
+        <v>2.226720647773279</v>
       </c>
       <c r="N69" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O69" t="n">
-        <v>7.357615894039735</v>
+        <v>6.34412955465587</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>article_28</t>
+          <t>Netclan20241085</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Your URL for article_28</t>
+          <t>https://insights.blackcoffer.com/e-commerce-store-analysis-purchase-behavior-ad-spend-conversion-traffic-etc/</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0.04009433962264151</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="F70" t="n">
-        <v>0.05424528301886793</v>
+        <v>0.03755868544600939</v>
       </c>
       <c r="G70" t="n">
-        <v>15.14285714285714</v>
+        <v>11.21052631578947</v>
       </c>
       <c r="H70" t="n">
-        <v>44.5754716981132</v>
+        <v>38.96713615023474</v>
       </c>
       <c r="I70" t="n">
-        <v>23.88733153638814</v>
+        <v>20.07106498640969</v>
       </c>
       <c r="J70" t="n">
-        <v>15.14285714285714</v>
+        <v>11.21052631578947</v>
       </c>
       <c r="K70" t="n">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="L70" t="n">
-        <v>424</v>
+        <v>213</v>
       </c>
       <c r="M70" t="n">
-        <v>2.485849056603774</v>
+        <v>2.356807511737089</v>
       </c>
       <c r="N70" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O70" t="n">
-        <v>7.19811320754717</v>
+        <v>6.7981220657277</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>article_29</t>
+          <t>Netclan20241086</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Your URL for article_29</t>
+          <t>https://insights.blackcoffer.com/kpi-dashboard-for-accountants/</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.02989130434782609</v>
+        <v>0.06214689265536723</v>
       </c>
       <c r="F71" t="n">
-        <v>0.05706521739130434</v>
+        <v>0.06214689265536723</v>
       </c>
       <c r="G71" t="n">
-        <v>14.15384615384615</v>
+        <v>14.75</v>
       </c>
       <c r="H71" t="n">
-        <v>41.84782608695652</v>
+        <v>36.15819209039548</v>
       </c>
       <c r="I71" t="n">
-        <v>22.40066889632107</v>
+        <v>20.36327683615819</v>
       </c>
       <c r="J71" t="n">
-        <v>14.15384615384615</v>
+        <v>14.75</v>
       </c>
       <c r="K71" t="n">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="L71" t="n">
-        <v>368</v>
+        <v>177</v>
       </c>
       <c r="M71" t="n">
-        <v>2.548913043478261</v>
+        <v>2.265536723163842</v>
       </c>
       <c r="N71" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O71" t="n">
-        <v>7.211956521739131</v>
+        <v>6.966101694915254</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>article_3</t>
+          <t>Netclan20241087</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Your URL for article_3</t>
+          <t>https://insights.blackcoffer.com/return-on-advertising-spend-dashboard-marketing-automation-and-analytics-using-etl-and-dashboard/</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E72" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.04719101123595506</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06643356643356643</v>
+        <v>0.0651685393258427</v>
       </c>
       <c r="G72" t="n">
-        <v>19.06666666666667</v>
+        <v>13.48484848484848</v>
       </c>
       <c r="H72" t="n">
-        <v>37.06293706293706</v>
+        <v>46.51685393258427</v>
       </c>
       <c r="I72" t="n">
-        <v>22.45184149184149</v>
+        <v>24.0006809669731</v>
       </c>
       <c r="J72" t="n">
-        <v>19.06666666666667</v>
+        <v>13.48484848484848</v>
       </c>
       <c r="K72" t="n">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="L72" t="n">
-        <v>286</v>
+        <v>445</v>
       </c>
       <c r="M72" t="n">
-        <v>2.41958041958042</v>
+        <v>2.546067415730337</v>
       </c>
       <c r="N72" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O72" t="n">
-        <v>6.884615384615385</v>
+        <v>7.238202247191011</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>article_30</t>
+          <t>Netclan20241088</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Your URL for article_30</t>
+          <t>https://insights.blackcoffer.com/ranking-customer-behaviours-for-business-strategy/</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0.02976190476190476</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06547619047619048</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="G73" t="n">
-        <v>12.6</v>
+        <v>21.75</v>
       </c>
       <c r="H73" t="n">
-        <v>42.46031746031746</v>
+        <v>25.28735632183908</v>
       </c>
       <c r="I73" t="n">
-        <v>22.02412698412699</v>
+        <v>18.81494252873564</v>
       </c>
       <c r="J73" t="n">
-        <v>12.6</v>
+        <v>21.75</v>
       </c>
       <c r="K73" t="n">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="L73" t="n">
-        <v>504</v>
+        <v>87</v>
       </c>
       <c r="M73" t="n">
-        <v>2.503968253968254</v>
+        <v>2.206896551724138</v>
       </c>
       <c r="N73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>7.115079365079365</v>
+        <v>6.701149425287356</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>article_31</t>
+          <t>Netclan20241089</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Your URL for article_31</t>
+          <t>https://insights.blackcoffer.com/algorithmic-trading-for-multiple-commodities-markets-like-forex-metals-energy-etc/</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.01319261213720317</v>
+        <v>0.04098360655737705</v>
       </c>
       <c r="F74" t="n">
-        <v>0.04485488126649077</v>
+        <v>0.04098360655737705</v>
       </c>
       <c r="G74" t="n">
-        <v>13.53571428571429</v>
+        <v>15.25</v>
       </c>
       <c r="H74" t="n">
-        <v>44.32717678100263</v>
+        <v>40.98360655737705</v>
       </c>
       <c r="I74" t="n">
-        <v>23.14515642668677</v>
+        <v>22.49344262295082</v>
       </c>
       <c r="J74" t="n">
-        <v>13.53571428571429</v>
+        <v>15.25</v>
       </c>
       <c r="K74" t="n">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="L74" t="n">
-        <v>379</v>
+        <v>122</v>
       </c>
       <c r="M74" t="n">
-        <v>2.538258575197889</v>
+        <v>2.434426229508197</v>
       </c>
       <c r="N74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>7.055408970976253</v>
+        <v>7.008196721311475</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>article_32</t>
+          <t>Netclan20241090</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Your URL for article_32</t>
+          <t>https://insights.blackcoffer.com/trading-bot-for-forex/</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0.05519480519480519</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.0625</v>
       </c>
       <c r="G75" t="n">
-        <v>16.21052631578947</v>
+        <v>24</v>
       </c>
       <c r="H75" t="n">
-        <v>51.2987012987013</v>
+        <v>27.08333333333333</v>
       </c>
       <c r="I75" t="n">
-        <v>27.00369104579631</v>
+        <v>20.43333333333333</v>
       </c>
       <c r="J75" t="n">
-        <v>16.21052631578947</v>
+        <v>24</v>
       </c>
       <c r="K75" t="n">
-        <v>316</v>
+        <v>13</v>
       </c>
       <c r="L75" t="n">
-        <v>616</v>
+        <v>48</v>
       </c>
       <c r="M75" t="n">
-        <v>2.732142857142857</v>
+        <v>2.208333333333333</v>
       </c>
       <c r="N75" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>7.636363636363637</v>
+        <v>6.3125</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>article_33</t>
+          <t>Netclan20241091</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Your URL for article_33</t>
+          <t>https://insights.blackcoffer.com/python-model-for-the-analysis-of-sector-specific-stock-etfs-for-investment-purposes%ef%bf%bc/</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>0.02877697841726619</v>
+        <v>0.03105590062111801</v>
       </c>
       <c r="F76" t="n">
-        <v>0.04676258992805755</v>
+        <v>0.05590062111801242</v>
       </c>
       <c r="G76" t="n">
-        <v>13.23809523809524</v>
+        <v>11.5</v>
       </c>
       <c r="H76" t="n">
-        <v>35.43165467625899</v>
+        <v>36.02484472049689</v>
       </c>
       <c r="I76" t="n">
-        <v>19.46789996574169</v>
+        <v>19.00993788819876</v>
       </c>
       <c r="J76" t="n">
-        <v>13.23809523809524</v>
+        <v>11.5</v>
       </c>
       <c r="K76" t="n">
-        <v>197</v>
+        <v>58</v>
       </c>
       <c r="L76" t="n">
-        <v>556</v>
+        <v>161</v>
       </c>
       <c r="M76" t="n">
-        <v>2.366906474820144</v>
+        <v>2.329192546583851</v>
       </c>
       <c r="N76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O76" t="n">
-        <v>6.796762589928058</v>
+        <v>6.981366459627329</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>article_34</t>
+          <t>Netclan20241092</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Your URL for article_34</t>
+          <t>https://insights.blackcoffer.com/medical-classification/</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>0.04201680672268908</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="F77" t="n">
-        <v>0.08123249299719888</v>
+        <v>0.0426829268292683</v>
       </c>
       <c r="G77" t="n">
-        <v>14.28</v>
+        <v>14.90909090909091</v>
       </c>
       <c r="H77" t="n">
-        <v>48.17927170868347</v>
+        <v>32.31707317073171</v>
       </c>
       <c r="I77" t="n">
-        <v>24.98370868347339</v>
+        <v>18.89046563192905</v>
       </c>
       <c r="J77" t="n">
-        <v>14.28</v>
+        <v>14.90909090909091</v>
       </c>
       <c r="K77" t="n">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="L77" t="n">
-        <v>357</v>
+        <v>164</v>
       </c>
       <c r="M77" t="n">
-        <v>2.610644257703081</v>
+        <v>2.170731707317073</v>
       </c>
       <c r="N77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O77" t="n">
-        <v>7.375350140056023</v>
+        <v>6.634146341463414</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>article_35</t>
+          <t>Netclan20241093</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Your URL for article_35</t>
+          <t>https://insights.blackcoffer.com/design-develop-bert-question-answering-model-explanations-with-visualization/</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.005825242718446602</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="F78" t="n">
-        <v>0.05825242718446602</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="G78" t="n">
-        <v>9.80952380952381</v>
+        <v>19.25</v>
       </c>
       <c r="H78" t="n">
-        <v>41.74757281553398</v>
+        <v>37.66233766233766</v>
       </c>
       <c r="I78" t="n">
-        <v>20.62283865002312</v>
+        <v>22.76493506493507</v>
       </c>
       <c r="J78" t="n">
-        <v>9.80952380952381</v>
+        <v>19.25</v>
       </c>
       <c r="K78" t="n">
-        <v>430</v>
+        <v>29</v>
       </c>
       <c r="L78" t="n">
-        <v>1030</v>
+        <v>77</v>
       </c>
       <c r="M78" t="n">
-        <v>2.506796116504854</v>
+        <v>2.363636363636364</v>
       </c>
       <c r="N78" t="n">
         <v>2</v>
       </c>
       <c r="O78" t="n">
-        <v>7.290291262135923</v>
+        <v>7.233766233766234</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>article_36</t>
+          <t>Netclan20241094</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Your URL for article_36</t>
+          <t>https://insights.blackcoffer.com/design-and-develop-solution-to-anomaly-detection-classification-problems/</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.005</v>
+        <v>-0.04761904761904762</v>
       </c>
       <c r="F79" t="n">
-        <v>0.06166666666666667</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="G79" t="n">
-        <v>11.53846153846154</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>43.83333333333334</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="I79" t="n">
-        <v>22.14871794871795</v>
+        <v>23.71428571428571</v>
       </c>
       <c r="J79" t="n">
-        <v>11.53846153846154</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="K79" t="n">
-        <v>263</v>
+        <v>50</v>
       </c>
       <c r="L79" t="n">
-        <v>600</v>
+        <v>105</v>
       </c>
       <c r="M79" t="n">
-        <v>2.513333333333333</v>
+        <v>2.628571428571429</v>
       </c>
       <c r="N79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O79" t="n">
-        <v>7.048333333333333</v>
+        <v>7.238095238095238</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>article_37</t>
+          <t>Netclan20241095</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Your URL for article_37</t>
+          <t>https://insights.blackcoffer.com/an-etl-solution-for-currency-data-to-google-big-query/</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D80" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E80" t="n">
-        <v>0.02053712480252765</v>
+        <v>-0.03289473684210526</v>
       </c>
       <c r="F80" t="n">
-        <v>0.04265402843601896</v>
+        <v>0.125</v>
       </c>
       <c r="G80" t="n">
-        <v>13.1875</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>52.29067930489732</v>
+        <v>23.02631578947368</v>
       </c>
       <c r="I80" t="n">
-        <v>26.19127172195893</v>
+        <v>14.27719298245614</v>
       </c>
       <c r="J80" t="n">
-        <v>13.1875</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="K80" t="n">
-        <v>331</v>
+        <v>35</v>
       </c>
       <c r="L80" t="n">
-        <v>633</v>
+        <v>152</v>
       </c>
       <c r="M80" t="n">
-        <v>2.684044233807267</v>
+        <v>2.059210526315789</v>
       </c>
       <c r="N80" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O80" t="n">
-        <v>7.540284360189573</v>
+        <v>6.019736842105263</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>article_38</t>
+          <t>Netclan20241096</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Your URL for article_38</t>
+          <t>https://insights.blackcoffer.com/etl-and-mlops-infrastructure-for-blockchain-analytics/</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.03561643835616438</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="F81" t="n">
-        <v>0.04657534246575343</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="G81" t="n">
-        <v>17.38095238095238</v>
+        <v>24.57142857142857</v>
       </c>
       <c r="H81" t="n">
-        <v>43.01369863013699</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="I81" t="n">
-        <v>24.15786040443575</v>
+        <v>25.64252491694353</v>
       </c>
       <c r="J81" t="n">
-        <v>17.38095238095238</v>
+        <v>24.57142857142857</v>
       </c>
       <c r="K81" t="n">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="L81" t="n">
-        <v>365</v>
+        <v>172</v>
       </c>
       <c r="M81" t="n">
-        <v>2.484931506849315</v>
+        <v>2.255813953488372</v>
       </c>
       <c r="N81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>6.980821917808219</v>
+        <v>6.656976744186046</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>article_39</t>
+          <t>Netclan20241097</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Your URL for article_39</t>
+          <t>https://insights.blackcoffer.com/an-agent-based-model-of-a-virtual-power-plant-vpp/</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.07130434782608695</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="F82" t="n">
-        <v>0.08521739130434783</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G82" t="n">
-        <v>4.713114754098361</v>
+        <v>12</v>
       </c>
       <c r="H82" t="n">
-        <v>31.82608695652174</v>
+        <v>31.25</v>
       </c>
       <c r="I82" t="n">
-        <v>14.61568068424804</v>
+        <v>17.3</v>
       </c>
       <c r="J82" t="n">
-        <v>4.713114754098361</v>
+        <v>12</v>
       </c>
       <c r="K82" t="n">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c r="L82" t="n">
-        <v>575</v>
+        <v>48</v>
       </c>
       <c r="M82" t="n">
-        <v>2.259130434782609</v>
+        <v>2.270833333333333</v>
       </c>
       <c r="N82" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>6.615652173913044</v>
+        <v>6.541666666666667</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>article_4</t>
+          <t>Netclan20241098</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Your URL for article_4</t>
+          <t>https://insights.blackcoffer.com/transform-api-into-sdk-library-and-widget/</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D83" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0273972602739726</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="F83" t="n">
-        <v>0.07436399217221135</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="G83" t="n">
-        <v>15.02941176470588</v>
+        <v>19.4</v>
       </c>
       <c r="H83" t="n">
-        <v>55.77299412915851</v>
+        <v>36.08247422680412</v>
       </c>
       <c r="I83" t="n">
-        <v>28.32096235754576</v>
+        <v>22.19298969072165</v>
       </c>
       <c r="J83" t="n">
-        <v>15.02941176470588</v>
+        <v>19.4</v>
       </c>
       <c r="K83" t="n">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="L83" t="n">
-        <v>511</v>
+        <v>97</v>
       </c>
       <c r="M83" t="n">
-        <v>2.731898238747554</v>
+        <v>2.350515463917526</v>
       </c>
       <c r="N83" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>7.632093933463796</v>
+        <v>6.917525773195877</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>article_40</t>
+          <t>Netclan20241099</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Your URL for article_40</t>
+          <t>https://insights.blackcoffer.com/integration-of-a-product-to-a-cloud-based-crm-platform/</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>0.01142857142857143</v>
+        <v>-0.01863354037267081</v>
       </c>
       <c r="F84" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.08074534161490683</v>
       </c>
       <c r="G84" t="n">
-        <v>25</v>
+        <v>10.0625</v>
       </c>
       <c r="H84" t="n">
-        <v>40</v>
+        <v>33.54037267080746</v>
       </c>
       <c r="I84" t="n">
-        <v>26</v>
+        <v>17.44114906832298</v>
       </c>
       <c r="J84" t="n">
-        <v>25</v>
+        <v>10.0625</v>
       </c>
       <c r="K84" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="L84" t="n">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M84" t="n">
-        <v>2.491428571428572</v>
+        <v>2.267080745341615</v>
       </c>
       <c r="N84" t="n">
         <v>1</v>
       </c>
       <c r="O84" t="n">
-        <v>6.862857142857143</v>
+        <v>6.900621118012422</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>article_41</t>
+          <t>Netclan20241100</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Your URL for article_41</t>
+          <t>https://insights.blackcoffer.com/a-web-based-dashboard-for-the-filtered-data-retrieval-of-land-records/</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E85" t="n">
-        <v>0.02727272727272727</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="F85" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="G85" t="n">
-        <v>19.41176470588235</v>
+        <v>14.92307692307692</v>
       </c>
       <c r="H85" t="n">
-        <v>43.33333333333334</v>
+        <v>30.41237113402062</v>
       </c>
       <c r="I85" t="n">
-        <v>25.09803921568628</v>
+        <v>18.13417922283902</v>
       </c>
       <c r="J85" t="n">
-        <v>19.41176470588235</v>
+        <v>14.92307692307692</v>
       </c>
       <c r="K85" t="n">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="L85" t="n">
-        <v>330</v>
+        <v>194</v>
       </c>
       <c r="M85" t="n">
-        <v>2.533333333333333</v>
+        <v>2.211340206185567</v>
       </c>
       <c r="N85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>7.045454545454546</v>
+        <v>6.654639175257732</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>article_42</t>
+          <t>Netclan20241101</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Your URL for article_42</t>
+          <t>https://insights.blackcoffer.com/integration-of-video-conferencing-data-to-the-existing-web-app/</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="F86" t="n">
-        <v>0.05681818181818182</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="G86" t="n">
-        <v>12.57142857142857</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="H86" t="n">
-        <v>36.36363636363637</v>
+        <v>26.42857142857143</v>
       </c>
       <c r="I86" t="n">
-        <v>19.57402597402598</v>
+        <v>16.79365079365079</v>
       </c>
       <c r="J86" t="n">
-        <v>12.57142857142857</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="K86" t="n">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="L86" t="n">
-        <v>264</v>
+        <v>140</v>
       </c>
       <c r="M86" t="n">
-        <v>2.352272727272727</v>
+        <v>2.25</v>
       </c>
       <c r="N86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>6.681818181818182</v>
+        <v>6.571428571428571</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>article_43</t>
+          <t>Netclan20241102</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Your URL for article_43</t>
+          <t>https://insights.blackcoffer.com/design-develop-an-app-in-retool-which-shows-the-progress-of-the-added-video/</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G87" t="n">
+        <v>15</v>
+      </c>
+      <c r="H87" t="n">
+        <v>31.66666666666666</v>
+      </c>
+      <c r="I87" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="J87" t="n">
+        <v>15</v>
+      </c>
+      <c r="K87" t="n">
+        <v>19</v>
+      </c>
+      <c r="L87" t="n">
+        <v>60</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N87" t="n">
         <v>2</v>
       </c>
-      <c r="E87" t="n">
-        <v>0.0176678445229682</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.03180212014134275</v>
-      </c>
-      <c r="G87" t="n">
-        <v>12.30434782608696</v>
-      </c>
-      <c r="H87" t="n">
-        <v>36.74911660777385</v>
-      </c>
-      <c r="I87" t="n">
-        <v>19.62138577354433</v>
-      </c>
-      <c r="J87" t="n">
-        <v>12.30434782608696</v>
-      </c>
-      <c r="K87" t="n">
-        <v>104</v>
-      </c>
-      <c r="L87" t="n">
-        <v>283</v>
-      </c>
-      <c r="M87" t="n">
-        <v>2.424028268551237</v>
-      </c>
-      <c r="N87" t="n">
-        <v>10</v>
-      </c>
       <c r="O87" t="n">
-        <v>6.879858657243816</v>
+        <v>6.216666666666667</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>article_44</t>
+          <t>Netclan20241103</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Your URL for article_44</t>
+          <t>https://insights.blackcoffer.com/auvik-connectwise-integration-in-grafana/</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E88" t="n">
-        <v>0.02903225806451613</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.06129032258064516</v>
+        <v>0.04</v>
       </c>
       <c r="G88" t="n">
-        <v>8.857142857142858</v>
+        <v>10</v>
       </c>
       <c r="H88" t="n">
-        <v>33.5483870967742</v>
+        <v>46</v>
       </c>
       <c r="I88" t="n">
-        <v>16.96221198156682</v>
+        <v>22.4</v>
       </c>
       <c r="J88" t="n">
-        <v>8.857142857142858</v>
+        <v>10</v>
       </c>
       <c r="K88" t="n">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="L88" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="M88" t="n">
-        <v>2.238709677419355</v>
+        <v>2.47</v>
       </c>
       <c r="N88" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>6.532258064516129</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>article_45</t>
+          <t>Netclan20241104</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Your URL for article_45</t>
+          <t>https://insights.blackcoffer.com/data-integration-and-big-data-performance-using-elk-stack/</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E89" t="n">
-        <v>0.03021148036253777</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="F89" t="n">
-        <v>0.08459214501510574</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G89" t="n">
-        <v>8.710526315789474</v>
+        <v>11.15384615384615</v>
       </c>
       <c r="H89" t="n">
-        <v>36.25377643504532</v>
+        <v>42.06896551724138</v>
       </c>
       <c r="I89" t="n">
-        <v>17.98572110033392</v>
+        <v>21.28912466843502</v>
       </c>
       <c r="J89" t="n">
-        <v>8.710526315789474</v>
+        <v>11.15384615384615</v>
       </c>
       <c r="K89" t="n">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="L89" t="n">
-        <v>331</v>
+        <v>145</v>
       </c>
       <c r="M89" t="n">
-        <v>2.226586102719033</v>
+        <v>2.482758620689655</v>
       </c>
       <c r="N89" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O89" t="n">
-        <v>6.583081570996979</v>
+        <v>7.213793103448276</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>article_46</t>
+          <t>Netclan20241105</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Your URL for article_46</t>
+          <t>https://insights.blackcoffer.com/web-data-connector/</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0.005847953216374269</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.03508771929824561</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="G90" t="n">
-        <v>11.79310344827586</v>
+        <v>8.75</v>
       </c>
       <c r="H90" t="n">
-        <v>41.52046783625731</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="I90" t="n">
-        <v>21.32542851381327</v>
+        <v>16.83333333333333</v>
       </c>
       <c r="J90" t="n">
-        <v>11.79310344827586</v>
+        <v>8.75</v>
       </c>
       <c r="K90" t="n">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="L90" t="n">
-        <v>342</v>
+        <v>105</v>
       </c>
       <c r="M90" t="n">
-        <v>2.432748538011696</v>
+        <v>2.323809523809524</v>
       </c>
       <c r="N90" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O90" t="n">
-        <v>6.885964912280702</v>
+        <v>6.561904761904762</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>article_47</t>
+          <t>Netclan20241106</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Your URL for article_47</t>
+          <t>https://insights.blackcoffer.com/an-app-for-updating-the-email-id-of-the-user-and-stripe-refund-tool-using-retool/</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.07228915662650602</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0963855421686747</v>
+      </c>
+      <c r="G91" t="n">
+        <v>27.66666666666667</v>
+      </c>
+      <c r="H91" t="n">
+        <v>24.09638554216868</v>
+      </c>
+      <c r="I91" t="n">
+        <v>20.70522088353414</v>
+      </c>
+      <c r="J91" t="n">
+        <v>27.66666666666667</v>
+      </c>
+      <c r="K91" t="n">
+        <v>20</v>
+      </c>
+      <c r="L91" t="n">
+        <v>83</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2.060240963855422</v>
+      </c>
+      <c r="N91" t="n">
         <v>3</v>
       </c>
-      <c r="E91" t="n">
-        <v>0.02054794520547945</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.0410958904109589</v>
-      </c>
-      <c r="G91" t="n">
-        <v>17.17647058823529</v>
-      </c>
-      <c r="H91" t="n">
-        <v>36.3013698630137</v>
-      </c>
-      <c r="I91" t="n">
-        <v>21.3911361804996</v>
-      </c>
-      <c r="J91" t="n">
-        <v>17.17647058823529</v>
-      </c>
-      <c r="K91" t="n">
-        <v>106</v>
-      </c>
-      <c r="L91" t="n">
-        <v>292</v>
-      </c>
-      <c r="M91" t="n">
-        <v>2.373287671232877</v>
-      </c>
-      <c r="N91" t="n">
-        <v>2</v>
-      </c>
       <c r="O91" t="n">
-        <v>6.746575342465754</v>
+        <v>6.253012048192771</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>article_48</t>
+          <t>Netclan20241107</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Your URL for article_48</t>
+          <t>https://insights.blackcoffer.com/an-ai-ml-based-web-application-that-detects-the-correctness-of-text-in-a-given-video/</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E92" t="n">
-        <v>0.01904761904761905</v>
+        <v>-0.05511811023622047</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0380952380952381</v>
+        <v>0.07086614173228346</v>
       </c>
       <c r="G92" t="n">
-        <v>17.5</v>
+        <v>42.33333333333334</v>
       </c>
       <c r="H92" t="n">
-        <v>39.52380952380953</v>
+        <v>19.68503937007874</v>
       </c>
       <c r="I92" t="n">
-        <v>22.80952380952381</v>
+        <v>24.80734908136483</v>
       </c>
       <c r="J92" t="n">
-        <v>17.5</v>
+        <v>42.33333333333334</v>
       </c>
       <c r="K92" t="n">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="L92" t="n">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="M92" t="n">
-        <v>2.447619047619048</v>
+        <v>1.897637795275591</v>
       </c>
       <c r="N92" t="n">
         <v>2</v>
       </c>
       <c r="O92" t="n">
-        <v>6.938095238095238</v>
+        <v>6.149606299212598</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>article_49</t>
+          <t>Netclan20241108</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Your URL for article_49</t>
+          <t>https://insights.blackcoffer.com/website-tracking-and-insights-using-google-analytics-google-tag-manager/</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>0.01530612244897959</v>
+        <v>0.03005464480874317</v>
       </c>
       <c r="F93" t="n">
-        <v>0.05612244897959184</v>
+        <v>0.04098360655737705</v>
       </c>
       <c r="G93" t="n">
-        <v>13.06666666666667</v>
+        <v>11.80645161290323</v>
       </c>
       <c r="H93" t="n">
-        <v>41.3265306122449</v>
+        <v>46.99453551912568</v>
       </c>
       <c r="I93" t="n">
-        <v>21.75727891156463</v>
+        <v>23.52039485281156</v>
       </c>
       <c r="J93" t="n">
-        <v>13.06666666666667</v>
+        <v>11.80645161290323</v>
       </c>
       <c r="K93" t="n">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="L93" t="n">
-        <v>196</v>
+        <v>366</v>
       </c>
       <c r="M93" t="n">
-        <v>2.489795918367347</v>
+        <v>2.445355191256831</v>
       </c>
       <c r="N93" t="n">
         <v>3</v>
       </c>
       <c r="O93" t="n">
-        <v>7.005102040816326</v>
+        <v>6.737704918032787</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>article_5</t>
+          <t>Netclan20241109</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Your URL for article_5</t>
+          <t>https://insights.blackcoffer.com/dashboard-to-track-the-analytics-of-the-website-using-google-analytics-and-google-tag-manager/</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0.01587301587301587</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="F94" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.04473684210526316</v>
       </c>
       <c r="G94" t="n">
-        <v>16.8</v>
+        <v>13.57142857142857</v>
       </c>
       <c r="H94" t="n">
-        <v>43.25396825396825</v>
+        <v>41.31578947368421</v>
       </c>
       <c r="I94" t="n">
-        <v>24.0215873015873</v>
+        <v>21.95488721804512</v>
       </c>
       <c r="J94" t="n">
-        <v>16.8</v>
+        <v>13.57142857142857</v>
       </c>
       <c r="K94" t="n">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="L94" t="n">
-        <v>252</v>
+        <v>380</v>
       </c>
       <c r="M94" t="n">
-        <v>2.523809523809524</v>
+        <v>2.389473684210526</v>
       </c>
       <c r="N94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>6.98015873015873</v>
+        <v>6.771052631578947</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>article_50</t>
+          <t>Netclan20241110</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Your URL for article_50</t>
+          <t>https://insights.blackcoffer.com/power-bi-dashboard-on-operations-transactions-and-marketing-embedding-the-dashboard-to-web-app/</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.02403846153846154</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="F95" t="n">
-        <v>0.04326923076923077</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="G95" t="n">
-        <v>18.90909090909091</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>43.75</v>
+        <v>41.86046511627907</v>
       </c>
       <c r="I95" t="n">
-        <v>25.06363636363636</v>
+        <v>22.47751937984496</v>
       </c>
       <c r="J95" t="n">
-        <v>18.90909090909091</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="K95" t="n">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="L95" t="n">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="M95" t="n">
-        <v>2.533653846153846</v>
+        <v>2.395348837209302</v>
       </c>
       <c r="N95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>7.004807692307693</v>
+        <v>6.813953488372093</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>article_51</t>
+          <t>Netclan20241111</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Your URL for article_51</t>
+          <t>https://insights.blackcoffer.com/nft-data-automation-looksrare-and-etl-tool/</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>0.02158273381294964</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04316546762589928</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="G96" t="n">
-        <v>16.35294117647059</v>
+        <v>8.5</v>
       </c>
       <c r="H96" t="n">
-        <v>46.0431654676259</v>
+        <v>34.11764705882353</v>
       </c>
       <c r="I96" t="n">
-        <v>24.9584426576386</v>
+        <v>17.04705882352941</v>
       </c>
       <c r="J96" t="n">
-        <v>16.35294117647059</v>
+        <v>8.5</v>
       </c>
       <c r="K96" t="n">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="L96" t="n">
-        <v>278</v>
+        <v>85</v>
       </c>
       <c r="M96" t="n">
-        <v>2.492805755395683</v>
+        <v>2.211764705882353</v>
       </c>
       <c r="N96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O96" t="n">
-        <v>6.956834532374101</v>
+        <v>6.329411764705882</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>article_52</t>
+          <t>Netclan20241112</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Your URL for article_52</t>
+          <t>https://insights.blackcoffer.com/optimize-the-data-scraper-program-to-easily-accommodate-large-files-and-solve-oom-errors/</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
+        <v>3</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.01075268817204301</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.07526881720430108</v>
+      </c>
+      <c r="G97" t="n">
+        <v>11.625</v>
+      </c>
+      <c r="H97" t="n">
+        <v>39.78494623655914</v>
+      </c>
+      <c r="I97" t="n">
+        <v>20.56397849462365</v>
+      </c>
+      <c r="J97" t="n">
+        <v>11.625</v>
+      </c>
+      <c r="K97" t="n">
+        <v>37</v>
+      </c>
+      <c r="L97" t="n">
+        <v>93</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2.354838709677419</v>
+      </c>
+      <c r="N97" t="n">
         <v>2</v>
       </c>
-      <c r="E97" t="n">
-        <v>0.03883495145631068</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.05177993527508091</v>
-      </c>
-      <c r="G97" t="n">
-        <v>13.43478260869565</v>
-      </c>
-      <c r="H97" t="n">
-        <v>35.92233009708738</v>
-      </c>
-      <c r="I97" t="n">
-        <v>19.74284508231322</v>
-      </c>
-      <c r="J97" t="n">
-        <v>13.43478260869565</v>
-      </c>
-      <c r="K97" t="n">
-        <v>111</v>
-      </c>
-      <c r="L97" t="n">
-        <v>309</v>
-      </c>
-      <c r="M97" t="n">
-        <v>2.349514563106796</v>
-      </c>
-      <c r="N97" t="n">
-        <v>11</v>
-      </c>
       <c r="O97" t="n">
-        <v>6.53074433656958</v>
+        <v>6.763440860215054</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>article_53</t>
+          <t>Netclan20241113</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Your URL for article_53</t>
+          <t>https://insights.blackcoffer.com/making-a-robust-way-to-sync-data-from-airtables-to-mongodb-using-python-etl-solution/</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E98" t="n">
-        <v>0.01376146788990826</v>
+        <v>-0.007575757575757576</v>
       </c>
       <c r="F98" t="n">
-        <v>0.04128440366972477</v>
+        <v>0.05303030303030303</v>
       </c>
       <c r="G98" t="n">
-        <v>13.625</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="H98" t="n">
-        <v>38.53211009174312</v>
+        <v>31.06060606060606</v>
       </c>
       <c r="I98" t="n">
-        <v>20.86284403669725</v>
+        <v>18.29090909090909</v>
       </c>
       <c r="J98" t="n">
-        <v>13.625</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="K98" t="n">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L98" t="n">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="M98" t="n">
-        <v>2.44954128440367</v>
+        <v>2.196969696969697</v>
       </c>
       <c r="N98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O98" t="n">
-        <v>6.885321100917431</v>
+        <v>6.454545454545454</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>article_54</t>
+          <t>Netclan20241114</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Your URL for article_54</t>
+          <t>https://insights.blackcoffer.com/incident-duration-prediction-infrastructure-and-real-estate/</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0.003174603174603175</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.03492063492063492</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="G99" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="H99" t="n">
-        <v>43.17460317460318</v>
+        <v>46.55172413793103</v>
       </c>
       <c r="I99" t="n">
-        <v>21.46984126984127</v>
+        <v>24.42068965517241</v>
       </c>
       <c r="J99" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="K99" t="n">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="L99" t="n">
-        <v>315</v>
+        <v>116</v>
       </c>
       <c r="M99" t="n">
-        <v>2.457142857142857</v>
+        <v>2.456896551724138</v>
       </c>
       <c r="N99" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O99" t="n">
-        <v>6.904761904761905</v>
+        <v>7.224137931034483</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>article_55</t>
+          <t>Netclan20241115</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Your URL for article_55</t>
+          <t>https://insights.blackcoffer.com/statistical-data-analysis-of-reinforced-concrete/</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D100" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>0.01146131805157593</v>
+        <v>0.02747252747252747</v>
       </c>
       <c r="F100" t="n">
-        <v>0.05157593123209169</v>
+        <v>0.04945054945054945</v>
       </c>
       <c r="G100" t="n">
-        <v>16.61904761904762</v>
+        <v>12.13333333333333</v>
       </c>
       <c r="H100" t="n">
-        <v>41.54727793696275</v>
+        <v>46.7032967032967</v>
       </c>
       <c r="I100" t="n">
-        <v>23.26653022240415</v>
+        <v>23.53465201465201</v>
       </c>
       <c r="J100" t="n">
-        <v>16.61904761904762</v>
+        <v>12.13333333333333</v>
       </c>
       <c r="K100" t="n">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="L100" t="n">
-        <v>349</v>
+        <v>182</v>
       </c>
       <c r="M100" t="n">
-        <v>2.424068767908309</v>
+        <v>2.653846153846154</v>
       </c>
       <c r="N100" t="n">
         <v>4</v>
       </c>
       <c r="O100" t="n">
-        <v>6.925501432664756</v>
+        <v>7.576923076923077</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>article_56</t>
+          <t>Netclan20241116</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Your URL for article_56</t>
+          <t>https://insights.blackcoffer.com/database-normalization-segmentation-with-google-data-studio-dashboard-insights/</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.01550387596899225</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="F101" t="n">
-        <v>0.08527131782945736</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="G101" t="n">
-        <v>15.17647058823529</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="H101" t="n">
-        <v>40.69767441860465</v>
+        <v>30.50847457627119</v>
       </c>
       <c r="I101" t="n">
-        <v>22.34965800273598</v>
+        <v>16.13672316384181</v>
       </c>
       <c r="J101" t="n">
-        <v>15.17647058823529</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K101" t="n">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="L101" t="n">
-        <v>258</v>
+        <v>118</v>
       </c>
       <c r="M101" t="n">
-        <v>2.515503875968992</v>
+        <v>2.415254237288135</v>
       </c>
       <c r="N101" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O101" t="n">
-        <v>6.98062015503876</v>
+        <v>6.677966101694915</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>article_57</t>
+          <t>Netclan20241117</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Your URL for article_57</t>
+          <t>https://insights.blackcoffer.com/power-bi-dashboard-to-drive-insights-from-complex-data-to-generate-business-insights/</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E102" t="n">
-        <v>0.03144654088050314</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="F102" t="n">
-        <v>0.06289308176100629</v>
+        <v>0.0440251572327044</v>
       </c>
       <c r="G102" t="n">
-        <v>11.77777777777778</v>
+        <v>10.6</v>
       </c>
       <c r="H102" t="n">
-        <v>40.56603773584906</v>
+        <v>29.55974842767295</v>
       </c>
       <c r="I102" t="n">
-        <v>20.93752620545074</v>
+        <v>16.06389937106918</v>
       </c>
       <c r="J102" t="n">
-        <v>11.77777777777778</v>
+        <v>10.6</v>
       </c>
       <c r="K102" t="n">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="L102" t="n">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="M102" t="n">
-        <v>2.462264150943396</v>
+        <v>2.226415094339623</v>
       </c>
       <c r="N102" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O102" t="n">
-        <v>6.955974842767295</v>
+        <v>6.283018867924528</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>article_58</t>
+          <t>Netclan20241118</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Your URL for article_58</t>
+          <t>https://insights.blackcoffer.com/real-time-dashboard-to-monitor-infrastructure-activity-and-machines/</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0.02631578947368421</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.06140350877192982</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G103" t="n">
-        <v>10.36363636363636</v>
+        <v>13.2</v>
       </c>
       <c r="H103" t="n">
-        <v>41.2280701754386</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="I103" t="n">
-        <v>20.63668261562999</v>
+        <v>23.46181818181818</v>
       </c>
       <c r="J103" t="n">
-        <v>10.36363636363636</v>
+        <v>13.2</v>
       </c>
       <c r="K103" t="n">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="L103" t="n">
-        <v>342</v>
+        <v>66</v>
       </c>
       <c r="M103" t="n">
-        <v>2.473684210526316</v>
+        <v>2.46969696969697</v>
       </c>
       <c r="N103" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O103" t="n">
-        <v>6.847953216374269</v>
+        <v>6.939393939393939</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>article_59</t>
+          <t>Netclan20241119</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Your URL for article_59</t>
+          <t>https://insights.blackcoffer.com/electric-vehicles-ev-load-management-system-to-forecast-energy-demand/</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D104" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E104" t="n">
-        <v>0.008264462809917356</v>
+        <v>0.00625</v>
       </c>
       <c r="F104" t="n">
-        <v>0.05785123966942149</v>
+        <v>0.03125</v>
       </c>
       <c r="G104" t="n">
-        <v>12.1</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>43.38842975206612</v>
+        <v>38.75</v>
       </c>
       <c r="I104" t="n">
-        <v>22.19537190082645</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="J104" t="n">
-        <v>12.1</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="K104" t="n">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="L104" t="n">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="M104" t="n">
-        <v>2.516528925619835</v>
+        <v>2.43125</v>
       </c>
       <c r="N104" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O104" t="n">
-        <v>6.954545454545454</v>
+        <v>6.575</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>article_6</t>
+          <t>Netclan20241120</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Your URL for article_6</t>
+          <t>https://insights.blackcoffer.com/power-bi-data-driven-map-dashboard/</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.02766798418972332</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="F105" t="n">
-        <v>0.03557312252964427</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="G105" t="n">
-        <v>18.07142857142857</v>
+        <v>22</v>
       </c>
       <c r="H105" t="n">
-        <v>43.87351778656127</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="I105" t="n">
-        <v>24.77797854319594</v>
+        <v>21.52727272727273</v>
       </c>
       <c r="J105" t="n">
-        <v>18.07142857142857</v>
+        <v>22</v>
       </c>
       <c r="K105" t="n">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="L105" t="n">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="M105" t="n">
-        <v>2.494071146245059</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="N105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>7.110671936758894</v>
+        <v>6.727272727272728</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>article_60</t>
+          <t>Netclan20241121</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Your URL for article_60</t>
+          <t>https://insights.blackcoffer.com/google-local-service-ads-lsa-leads-dashboard/</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E106" t="n">
-        <v>0.02538071065989848</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="F106" t="n">
-        <v>0.04568527918781726</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="G106" t="n">
-        <v>14.07142857142857</v>
+        <v>9.538461538461538</v>
       </c>
       <c r="H106" t="n">
-        <v>41.11675126903553</v>
+        <v>34.2741935483871</v>
       </c>
       <c r="I106" t="n">
-        <v>22.07527193618564</v>
+        <v>17.52506203473946</v>
       </c>
       <c r="J106" t="n">
-        <v>14.07142857142857</v>
+        <v>9.538461538461538</v>
       </c>
       <c r="K106" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L106" t="n">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="M106" t="n">
-        <v>2.49746192893401</v>
+        <v>2.258064516129032</v>
       </c>
       <c r="N106" t="n">
         <v>3</v>
       </c>
       <c r="O106" t="n">
-        <v>6.949238578680203</v>
+        <v>6.536290322580645</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>article_61</t>
+          <t>Netclan20241122</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Your URL for article_61</t>
+          <t>https://insights.blackcoffer.com/aws-lex-voice-and-chatbot/</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="G107" t="n">
+        <v>12.57142857142857</v>
+      </c>
+      <c r="H107" t="n">
+        <v>22.72727272727273</v>
+      </c>
+      <c r="I107" t="n">
+        <v>14.11948051948052</v>
+      </c>
+      <c r="J107" t="n">
+        <v>12.57142857142857</v>
+      </c>
+      <c r="K107" t="n">
+        <v>40</v>
+      </c>
+      <c r="L107" t="n">
+        <v>176</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1.948863636363636</v>
+      </c>
+      <c r="N107" t="n">
         <v>5</v>
       </c>
-      <c r="E107" t="n">
-        <v>0.00966183574879227</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.05797101449275362</v>
-      </c>
-      <c r="G107" t="n">
-        <v>12.9375</v>
-      </c>
-      <c r="H107" t="n">
-        <v>43.47826086956522</v>
-      </c>
-      <c r="I107" t="n">
-        <v>22.56630434782609</v>
-      </c>
-      <c r="J107" t="n">
-        <v>12.9375</v>
-      </c>
-      <c r="K107" t="n">
-        <v>90</v>
-      </c>
-      <c r="L107" t="n">
-        <v>207</v>
-      </c>
-      <c r="M107" t="n">
-        <v>2.526570048309179</v>
-      </c>
-      <c r="N107" t="n">
-        <v>2</v>
-      </c>
       <c r="O107" t="n">
-        <v>7.028985507246377</v>
+        <v>5.823863636363637</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>article_62</t>
+          <t>Netclan20241123</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Your URL for article_62</t>
+          <t>https://insights.blackcoffer.com/metabridges-api-decentraland-integration/</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0186046511627907</v>
+        <v>-0.005681818181818182</v>
       </c>
       <c r="F108" t="n">
-        <v>0.06511627906976744</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="G108" t="n">
-        <v>14.33333333333333</v>
+        <v>11.73333333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>42.7906976744186</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="I108" t="n">
-        <v>22.84961240310078</v>
+        <v>18.32969696969697</v>
       </c>
       <c r="J108" t="n">
-        <v>14.33333333333333</v>
+        <v>11.73333333333333</v>
       </c>
       <c r="K108" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="L108" t="n">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="M108" t="n">
-        <v>2.52093023255814</v>
+        <v>2.125</v>
       </c>
       <c r="N108" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>7.079069767441861</v>
+        <v>6.306818181818182</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>article_63</t>
+          <t>Netclan20241124</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Your URL for article_63</t>
+          <t>https://insights.blackcoffer.com/microsoft-azure-chatbot-with-luis-language-understanding/</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.06024096385542169</v>
       </c>
       <c r="F109" t="n">
-        <v>0.04901960784313725</v>
+        <v>0.06024096385542169</v>
       </c>
       <c r="G109" t="n">
-        <v>12</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="H109" t="n">
-        <v>45.09803921568628</v>
+        <v>45.78313253012048</v>
       </c>
       <c r="I109" t="n">
-        <v>22.83921568627451</v>
+        <v>23.84658634538153</v>
       </c>
       <c r="J109" t="n">
-        <v>12</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="K109" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L109" t="n">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="M109" t="n">
-        <v>2.563725490196079</v>
+        <v>2.385542168674699</v>
       </c>
       <c r="N109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>7.078431372549019</v>
+        <v>6.578313253012048</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>article_64</t>
+          <t>Netclan20241125</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Your URL for article_64</t>
+          <t>https://insights.blackcoffer.com/impact-of-news-media-and-press-on-innovation-startups-and-investments/</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D110" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.008438818565400843</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="F110" t="n">
-        <v>0.06751054852320675</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="G110" t="n">
-        <v>11.85</v>
+        <v>7.5</v>
       </c>
       <c r="H110" t="n">
-        <v>45.14767932489451</v>
+        <v>22</v>
       </c>
       <c r="I110" t="n">
-        <v>22.79907172995781</v>
+        <v>11.8</v>
       </c>
       <c r="J110" t="n">
-        <v>11.85</v>
+        <v>7.5</v>
       </c>
       <c r="K110" t="n">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="L110" t="n">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="M110" t="n">
-        <v>2.590717299578059</v>
+        <v>2.206666666666667</v>
       </c>
       <c r="N110" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O110" t="n">
-        <v>7.135021097046414</v>
+        <v>6.306666666666667</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>article_65</t>
+          <t>Netclan20241126</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Your URL for article_65</t>
+          <t>https://insights.blackcoffer.com/aws-quicksight-reporting-dashboard/</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>0.03947368421052631</v>
+        <v>-0.01020408163265306</v>
       </c>
       <c r="F111" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="G111" t="n">
-        <v>10.13333333333333</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>40.13157894736842</v>
+        <v>33.6734693877551</v>
       </c>
       <c r="I111" t="n">
-        <v>20.1059649122807</v>
+        <v>20.00272108843538</v>
       </c>
       <c r="J111" t="n">
-        <v>10.13333333333333</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="K111" t="n">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="L111" t="n">
-        <v>304</v>
+        <v>98</v>
       </c>
       <c r="M111" t="n">
-        <v>2.440789473684211</v>
+        <v>2.255102040816327</v>
       </c>
       <c r="N111" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O111" t="n">
-        <v>6.828947368421052</v>
+        <v>6.387755102040816</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>article_66</t>
+          <t>Netclan20241127</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Your URL for article_66</t>
+          <t>https://insights.blackcoffer.com/google-data-studio-dashboard-for-marketing-ads-and-traction-data/</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D112" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E112" t="n">
-        <v>0.01796407185628742</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F112" t="n">
-        <v>0.05988023952095808</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="G112" t="n">
-        <v>11.92857142857143</v>
+        <v>15.29411764705882</v>
       </c>
       <c r="H112" t="n">
-        <v>42.51497005988024</v>
+        <v>24.61538461538462</v>
       </c>
       <c r="I112" t="n">
-        <v>21.77741659538067</v>
+        <v>15.96380090497738</v>
       </c>
       <c r="J112" t="n">
-        <v>11.92857142857143</v>
+        <v>15.29411764705882</v>
       </c>
       <c r="K112" t="n">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="L112" t="n">
-        <v>334</v>
+        <v>260</v>
       </c>
       <c r="M112" t="n">
-        <v>2.502994011976048</v>
+        <v>2.034615384615384</v>
       </c>
       <c r="N112" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O112" t="n">
-        <v>7.1437125748503</v>
+        <v>6.238461538461539</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>article_67</t>
+          <t>Netclan20241128</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Your URL for article_67</t>
+          <t>https://insights.blackcoffer.com/gangala-in-e-commerce-big-data-etl-elt-solution-and-data-warehouse/</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E113" t="n">
-        <v>0.01123595505617977</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0449438202247191</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="G113" t="n">
-        <v>11.86666666666667</v>
+        <v>11.75</v>
       </c>
       <c r="H113" t="n">
-        <v>41.85393258426966</v>
+        <v>31.91489361702128</v>
       </c>
       <c r="I113" t="n">
-        <v>21.48823970037454</v>
+        <v>17.46595744680851</v>
       </c>
       <c r="J113" t="n">
-        <v>11.86666666666667</v>
+        <v>11.75</v>
       </c>
       <c r="K113" t="n">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="L113" t="n">
-        <v>356</v>
+        <v>141</v>
       </c>
       <c r="M113" t="n">
-        <v>2.452247191011236</v>
+        <v>2.212765957446809</v>
       </c>
       <c r="N113" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O113" t="n">
-        <v>6.707865168539326</v>
+        <v>6.198581560283688</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>article_68</t>
+          <t>Netclan20241129</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Your URL for article_68</t>
+          <t>https://insights.blackcoffer.com/big-data-solution-to-an-online-multivendor-marketplace-ecommerce-business/</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D114" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0233160621761658</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="F114" t="n">
-        <v>0.09585492227979274</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="G114" t="n">
-        <v>11.6969696969697</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="H114" t="n">
-        <v>38.34196891191709</v>
+        <v>32.55813953488372</v>
       </c>
       <c r="I114" t="n">
-        <v>20.01557544355472</v>
+        <v>18.75658914728682</v>
       </c>
       <c r="J114" t="n">
-        <v>11.6969696969697</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="K114" t="n">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="L114" t="n">
-        <v>386</v>
+        <v>172</v>
       </c>
       <c r="M114" t="n">
-        <v>2.362694300518135</v>
+        <v>2.308139534883721</v>
       </c>
       <c r="N114" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O114" t="n">
-        <v>6.598445595854923</v>
+        <v>6.511627906976744</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>article_69</t>
+          <t>Netclan20241130</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Your URL for article_69</t>
+          <t>https://insights.blackcoffer.com/creating-a-custom-report-and-dashboard-using-the-data-got-from-atera-api/</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="G115" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H115" t="n">
+        <v>41.46341463414634</v>
+      </c>
+      <c r="I115" t="n">
+        <v>24.78536585365854</v>
+      </c>
+      <c r="J115" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K115" t="n">
+        <v>17</v>
+      </c>
+      <c r="L115" t="n">
+        <v>41</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2.317073170731707</v>
+      </c>
+      <c r="N115" t="n">
         <v>2</v>
       </c>
-      <c r="E115" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.03409090909090909</v>
-      </c>
-      <c r="G115" t="n">
-        <v>12.13793103448276</v>
-      </c>
-      <c r="H115" t="n">
-        <v>41.19318181818182</v>
-      </c>
-      <c r="I115" t="n">
-        <v>21.33244514106583</v>
-      </c>
-      <c r="J115" t="n">
-        <v>12.13793103448276</v>
-      </c>
-      <c r="K115" t="n">
-        <v>145</v>
-      </c>
-      <c r="L115" t="n">
-        <v>352</v>
-      </c>
-      <c r="M115" t="n">
-        <v>2.454545454545455</v>
-      </c>
-      <c r="N115" t="n">
-        <v>15</v>
-      </c>
       <c r="O115" t="n">
-        <v>6.897727272727272</v>
+        <v>6.682926829268292</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>article_7</t>
+          <t>Netclan20241131</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Your URL for article_7</t>
+          <t>https://insights.blackcoffer.com/azure-data-lake-and-power-bi-dashboard/</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E116" t="n">
-        <v>0.01879699248120301</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="F116" t="n">
-        <v>0.04887218045112782</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="G116" t="n">
-        <v>12.09090909090909</v>
+        <v>10.3</v>
       </c>
       <c r="H116" t="n">
-        <v>37.59398496240601</v>
+        <v>38.83495145631068</v>
       </c>
       <c r="I116" t="n">
-        <v>19.87395762132604</v>
+        <v>19.65398058252427</v>
       </c>
       <c r="J116" t="n">
-        <v>12.09090909090909</v>
+        <v>10.3</v>
       </c>
       <c r="K116" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="L116" t="n">
-        <v>532</v>
+        <v>103</v>
       </c>
       <c r="M116" t="n">
-        <v>2.385338345864662</v>
+        <v>2.54368932038835</v>
       </c>
       <c r="N116" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O116" t="n">
-        <v>6.815789473684211</v>
+        <v>7.504854368932039</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>article_70</t>
+          <t>Netclan20241132</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Your URL for article_70</t>
+          <t>https://insights.blackcoffer.com/google-data-studio-pipeline-with-gcp-mysql/</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.04113924050632911</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.04746835443037975</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G117" t="n">
-        <v>16.63157894736842</v>
+        <v>18.5</v>
       </c>
       <c r="H117" t="n">
-        <v>39.87341772151899</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="I117" t="n">
-        <v>22.60199866755497</v>
+        <v>19.29189189189189</v>
       </c>
       <c r="J117" t="n">
-        <v>16.63157894736842</v>
+        <v>18.5</v>
       </c>
       <c r="K117" t="n">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="L117" t="n">
-        <v>316</v>
+        <v>74</v>
       </c>
       <c r="M117" t="n">
-        <v>2.414556962025316</v>
+        <v>2.094594594594595</v>
       </c>
       <c r="N117" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O117" t="n">
-        <v>7.003164556962025</v>
+        <v>6.351351351351352</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>article_71</t>
+          <t>Netclan20241133</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Your URL for article_71</t>
+          <t>https://insights.blackcoffer.com/quickbooks-dashboard-to-find-patterns-in-finance-sales-and-forecasts/</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D118" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0.03938356164383561</v>
+        <v>0.04324324324324325</v>
       </c>
       <c r="F118" t="n">
-        <v>0.05650684931506849</v>
+        <v>0.04324324324324325</v>
       </c>
       <c r="G118" t="n">
-        <v>14.6</v>
+        <v>15.41666666666667</v>
       </c>
       <c r="H118" t="n">
-        <v>46.06164383561644</v>
+        <v>40</v>
       </c>
       <c r="I118" t="n">
-        <v>24.26465753424658</v>
+        <v>22.16666666666667</v>
       </c>
       <c r="J118" t="n">
-        <v>14.6</v>
+        <v>15.41666666666667</v>
       </c>
       <c r="K118" t="n">
-        <v>269</v>
+        <v>74</v>
       </c>
       <c r="L118" t="n">
-        <v>584</v>
+        <v>185</v>
       </c>
       <c r="M118" t="n">
-        <v>2.559931506849315</v>
+        <v>2.410810810810811</v>
       </c>
       <c r="N118" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O118" t="n">
-        <v>7.193493150684931</v>
+        <v>6.902702702702703</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>article_72</t>
+          <t>Netclan20241134</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Your URL for article_72</t>
+          <t>https://insights.blackcoffer.com/marketing-sales-and-financial-data-business-dashboard-wink-report/</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0.01908396946564886</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="F119" t="n">
-        <v>0.03435114503816794</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="G119" t="n">
-        <v>20.15384615384615</v>
+        <v>10.14285714285714</v>
       </c>
       <c r="H119" t="n">
-        <v>36.6412213740458</v>
+        <v>31.69014084507042</v>
       </c>
       <c r="I119" t="n">
-        <v>22.71802701115678</v>
+        <v>16.73319919517103</v>
       </c>
       <c r="J119" t="n">
-        <v>20.15384615384615</v>
+        <v>10.14285714285714</v>
       </c>
       <c r="K119" t="n">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="L119" t="n">
-        <v>262</v>
+        <v>142</v>
       </c>
       <c r="M119" t="n">
-        <v>2.427480916030534</v>
+        <v>2.288732394366197</v>
       </c>
       <c r="N119" t="n">
         <v>3</v>
       </c>
       <c r="O119" t="n">
-        <v>6.812977099236641</v>
+        <v>6.711267605633803</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>article_73</t>
+          <t>Netclan20241135</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Your URL for article_73</t>
+          <t>https://insights.blackcoffer.com/react-native-apps-in-the-development-portfolio/</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0.02114803625377644</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.02719033232628399</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>15.76190476190476</v>
+        <v>15</v>
       </c>
       <c r="H120" t="n">
-        <v>41.99395770392749</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="I120" t="n">
-        <v>23.1023449863329</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="J120" t="n">
-        <v>15.76190476190476</v>
+        <v>15</v>
       </c>
       <c r="K120" t="n">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="L120" t="n">
-        <v>331</v>
+        <v>15</v>
       </c>
       <c r="M120" t="n">
-        <v>2.51963746223565</v>
+        <v>2.2</v>
       </c>
       <c r="N120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>7.060422960725075</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>article_74</t>
+          <t>Netclan20241136</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Your URL for article_74</t>
+          <t>https://insights.blackcoffer.com/a-leading-firm-website-seo-optimization/</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0160427807486631</v>
+        <v>0.046875</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0374331550802139</v>
+        <v>0.046875</v>
       </c>
       <c r="G121" t="n">
-        <v>18.7</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="H121" t="n">
-        <v>40.10695187165776</v>
+        <v>45.3125</v>
       </c>
       <c r="I121" t="n">
-        <v>23.52278074866311</v>
+        <v>22.39166666666667</v>
       </c>
       <c r="J121" t="n">
-        <v>18.7</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="K121" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="L121" t="n">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="M121" t="n">
-        <v>2.502673796791444</v>
+        <v>2.375</v>
       </c>
       <c r="N121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O121" t="n">
-        <v>6.86096256684492</v>
+        <v>6.6875</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>article_75</t>
+          <t>Netclan20241137</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Your URL for article_75</t>
+          <t>https://insights.blackcoffer.com/a-leading-hospitality-firm-in-the-usa-website-seo-optimization/</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.02333333333333333</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="F122" t="n">
-        <v>0.04333333333333333</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="G122" t="n">
-        <v>14.28571428571429</v>
+        <v>14.2</v>
       </c>
       <c r="H122" t="n">
-        <v>40</v>
+        <v>38.0281690140845</v>
       </c>
       <c r="I122" t="n">
-        <v>21.71428571428572</v>
+        <v>20.8912676056338</v>
       </c>
       <c r="J122" t="n">
-        <v>14.28571428571429</v>
+        <v>14.2</v>
       </c>
       <c r="K122" t="n">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="L122" t="n">
-        <v>300</v>
+        <v>71</v>
       </c>
       <c r="M122" t="n">
-        <v>2.456666666666667</v>
+        <v>2.295774647887324</v>
       </c>
       <c r="N122" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O122" t="n">
-        <v>7.013333333333334</v>
+        <v>6.563380281690141</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>article_76</t>
+          <t>Netclan20241138</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Your URL for article_76</t>
+          <t>https://insights.blackcoffer.com/a-leading-firm-in-the-usa-website-seo-optimization/</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0165016501650165</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="F123" t="n">
-        <v>0.03630363036303631</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="G123" t="n">
-        <v>17.82352941176471</v>
+        <v>54</v>
       </c>
       <c r="H123" t="n">
-        <v>37.95379537953795</v>
+        <v>31.48148148148148</v>
       </c>
       <c r="I123" t="n">
-        <v>22.31092991652107</v>
+        <v>34.1925925925926</v>
       </c>
       <c r="J123" t="n">
-        <v>17.82352941176471</v>
+        <v>54</v>
       </c>
       <c r="K123" t="n">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="L123" t="n">
-        <v>303</v>
+        <v>54</v>
       </c>
       <c r="M123" t="n">
-        <v>2.36963696369637</v>
+        <v>2.148148148148148</v>
       </c>
       <c r="N123" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O123" t="n">
-        <v>6.825082508250826</v>
+        <v>6.148148148148148</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>article_77</t>
+          <t>Netclan20241139</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Your URL for article_77</t>
+          <t>https://insights.blackcoffer.com/a-leading-musical-instrumental-website-seo-optimization/</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>4</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E124" t="n">
-        <v>0.01388888888888889</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="F124" t="n">
-        <v>0.02314814814814815</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="G124" t="n">
-        <v>18</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="H124" t="n">
-        <v>42.12962962962963</v>
+        <v>50</v>
       </c>
       <c r="I124" t="n">
-        <v>24.05185185185185</v>
+        <v>23.08571428571429</v>
       </c>
       <c r="J124" t="n">
-        <v>18</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="K124" t="n">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="L124" t="n">
-        <v>216</v>
+        <v>54</v>
       </c>
       <c r="M124" t="n">
-        <v>2.518518518518519</v>
+        <v>2.444444444444445</v>
       </c>
       <c r="N124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O124" t="n">
-        <v>7.11574074074074</v>
+        <v>6.703703703703703</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>article_78</t>
+          <t>Netclan20241140</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Your URL for article_78</t>
+          <t>https://insights.blackcoffer.com/a-leading-firm-in-the-usa-seo-and-website-optimization/</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D125" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.01229508196721311</v>
+        <v>0.04</v>
       </c>
       <c r="F125" t="n">
-        <v>0.05327868852459016</v>
+        <v>0.08</v>
       </c>
       <c r="G125" t="n">
-        <v>16.26666666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="H125" t="n">
-        <v>45.90163934426229</v>
+        <v>44</v>
       </c>
       <c r="I125" t="n">
-        <v>24.86732240437158</v>
+        <v>20.93333333333334</v>
       </c>
       <c r="J125" t="n">
-        <v>16.26666666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="K125" t="n">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="L125" t="n">
-        <v>244</v>
+        <v>50</v>
       </c>
       <c r="M125" t="n">
-        <v>2.614754098360656</v>
+        <v>2.32</v>
       </c>
       <c r="N125" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>7.131147540983607</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>article_79</t>
+          <t>Netclan20241141</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Your URL for article_79</t>
+          <t>https://insights.blackcoffer.com/immigration-datawarehouse-ai-based-recommendations/</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D126" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.01030927835051546</v>
+        <v>0.06206896551724138</v>
       </c>
       <c r="F126" t="n">
-        <v>0.07903780068728522</v>
+        <v>0.06206896551724138</v>
       </c>
       <c r="G126" t="n">
-        <v>16.16666666666667</v>
+        <v>10.35714285714286</v>
       </c>
       <c r="H126" t="n">
-        <v>33.33333333333333</v>
+        <v>39.31034482758621</v>
       </c>
       <c r="I126" t="n">
-        <v>19.8</v>
+        <v>19.86699507389163</v>
       </c>
       <c r="J126" t="n">
-        <v>16.16666666666667</v>
+        <v>10.35714285714286</v>
       </c>
       <c r="K126" t="n">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="L126" t="n">
-        <v>291</v>
+        <v>145</v>
       </c>
       <c r="M126" t="n">
-        <v>2.31958762886598</v>
+        <v>2.413793103448276</v>
       </c>
       <c r="N126" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O126" t="n">
-        <v>6.512027491408935</v>
+        <v>6.944827586206896</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>article_8</t>
+          <t>Netclan20241142</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Your URL for article_8</t>
+          <t>https://insights.blackcoffer.com/lipsync-automation-for-celebrities-and-influencers/</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="F127" t="n">
-        <v>0.06643356643356643</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="G127" t="n">
-        <v>19.06666666666667</v>
+        <v>11</v>
       </c>
       <c r="H127" t="n">
-        <v>37.06293706293706</v>
+        <v>32.46753246753246</v>
       </c>
       <c r="I127" t="n">
-        <v>22.45184149184149</v>
+        <v>17.38701298701299</v>
       </c>
       <c r="J127" t="n">
-        <v>19.06666666666667</v>
+        <v>11</v>
       </c>
       <c r="K127" t="n">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="L127" t="n">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="M127" t="n">
-        <v>2.41958041958042</v>
+        <v>2.38961038961039</v>
       </c>
       <c r="N127" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O127" t="n">
-        <v>6.884615384615385</v>
+        <v>6.688311688311688</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>article_80</t>
+          <t>Netclan20241143</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Your URL for article_80</t>
+          <t>https://insights.blackcoffer.com/key-audit-matters-predictive-modeling/</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E128" t="n">
-        <v>0.01286173633440514</v>
+        <v>-0.02164502164502164</v>
       </c>
       <c r="F128" t="n">
-        <v>0.01929260450160772</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G128" t="n">
-        <v>25.91666666666667</v>
+        <v>17.76923076923077</v>
       </c>
       <c r="H128" t="n">
-        <v>41.80064308681672</v>
+        <v>38.52813852813853</v>
       </c>
       <c r="I128" t="n">
-        <v>27.08692390139336</v>
+        <v>22.51894771894772</v>
       </c>
       <c r="J128" t="n">
-        <v>25.91666666666667</v>
+        <v>17.76923076923077</v>
       </c>
       <c r="K128" t="n">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="L128" t="n">
-        <v>311</v>
+        <v>231</v>
       </c>
       <c r="M128" t="n">
-        <v>2.411575562700965</v>
+        <v>2.424242424242424</v>
       </c>
       <c r="N128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O128" t="n">
-        <v>6.832797427652733</v>
+        <v>6.597402597402597</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>article_81</t>
+          <t>Netclan20241144</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Your URL for article_81</t>
+          <t>https://insights.blackcoffer.com/splitting-of-songs-into-its-vocals-and-instrumental/</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0213903743315508</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="F129" t="n">
-        <v>0.03208556149732621</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="G129" t="n">
-        <v>20.77777777777778</v>
+        <v>11.8</v>
       </c>
       <c r="H129" t="n">
-        <v>41.17647058823529</v>
+        <v>31.35593220338983</v>
       </c>
       <c r="I129" t="n">
-        <v>24.78169934640523</v>
+        <v>17.26237288135593</v>
       </c>
       <c r="J129" t="n">
-        <v>20.77777777777778</v>
+        <v>11.8</v>
       </c>
       <c r="K129" t="n">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="L129" t="n">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="M129" t="n">
-        <v>2.518716577540107</v>
+        <v>2.313559322033898</v>
       </c>
       <c r="N129" t="n">
         <v>1</v>
       </c>
       <c r="O129" t="n">
-        <v>6.919786096256685</v>
+        <v>6.754237288135593</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>article_82</t>
+          <t>Netclan20241145</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Your URL for article_82</t>
+          <t>https://insights.blackcoffer.com/ai-and-ml-technologies-to-evaluate-learning-assessments/</t>
         </is>
       </c>
       <c r="C130" t="n">
+        <v>12</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.06790123456790123</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.08024691358024691</v>
+      </c>
+      <c r="G130" t="n">
+        <v>11.57142857142857</v>
+      </c>
+      <c r="H130" t="n">
+        <v>43.20987654320987</v>
+      </c>
+      <c r="I130" t="n">
+        <v>21.91252204585538</v>
+      </c>
+      <c r="J130" t="n">
+        <v>11.57142857142857</v>
+      </c>
+      <c r="K130" t="n">
+        <v>70</v>
+      </c>
+      <c r="L130" t="n">
+        <v>162</v>
+      </c>
+      <c r="M130" t="n">
+        <v>2.604938271604938</v>
+      </c>
+      <c r="N130" t="n">
         <v>11</v>
       </c>
-      <c r="D130" t="n">
-        <v>2</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.03813559322033899</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.05508474576271186</v>
-      </c>
-      <c r="G130" t="n">
-        <v>19.66666666666667</v>
-      </c>
-      <c r="H130" t="n">
-        <v>41.10169491525424</v>
-      </c>
-      <c r="I130" t="n">
-        <v>24.30734463276837</v>
-      </c>
-      <c r="J130" t="n">
-        <v>19.66666666666667</v>
-      </c>
-      <c r="K130" t="n">
-        <v>97</v>
-      </c>
-      <c r="L130" t="n">
-        <v>236</v>
-      </c>
-      <c r="M130" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N130" t="n">
-        <v>2</v>
-      </c>
       <c r="O130" t="n">
-        <v>6.995762711864407</v>
+        <v>7.358024691358025</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>article_83</t>
+          <t>Netclan20241146</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Your URL for article_83</t>
+          <t>https://insights.blackcoffer.com/datawarehouse-and-recommendations-engine-for-airbnb/</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.003333333333333334</v>
+        <v>0.04137931034482759</v>
       </c>
       <c r="F131" t="n">
-        <v>0.05666666666666666</v>
+        <v>0.08275862068965517</v>
       </c>
       <c r="G131" t="n">
-        <v>13.63636363636364</v>
+        <v>10.35714285714286</v>
       </c>
       <c r="H131" t="n">
-        <v>38.66666666666666</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="I131" t="n">
-        <v>20.92121212121212</v>
+        <v>19.31527093596059</v>
       </c>
       <c r="J131" t="n">
-        <v>13.63636363636364</v>
+        <v>10.35714285714286</v>
       </c>
       <c r="K131" t="n">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="L131" t="n">
-        <v>300</v>
+        <v>145</v>
       </c>
       <c r="M131" t="n">
-        <v>2.423333333333333</v>
+        <v>2.379310344827586</v>
       </c>
       <c r="N131" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O131" t="n">
-        <v>6.97</v>
+        <v>6.903448275862069</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>article_84</t>
+          <t>Netclan20241147</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Your URL for article_84</t>
+          <t>https://insights.blackcoffer.com/real-estate-data-warehouse/</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D132" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.02402402402402402</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="F132" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="G132" t="n">
-        <v>15.13636363636364</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="H132" t="n">
-        <v>36.33633633633634</v>
+        <v>38.06451612903226</v>
       </c>
       <c r="I132" t="n">
-        <v>20.58907998907999</v>
+        <v>19.35913978494624</v>
       </c>
       <c r="J132" t="n">
-        <v>15.13636363636364</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="K132" t="n">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="L132" t="n">
-        <v>333</v>
+        <v>155</v>
       </c>
       <c r="M132" t="n">
-        <v>2.375375375375375</v>
+        <v>2.367741935483871</v>
       </c>
       <c r="N132" t="n">
         <v>1</v>
       </c>
       <c r="O132" t="n">
-        <v>6.81981981981982</v>
+        <v>6.729032258064517</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>article_85</t>
+          <t>Netclan20241148</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Your URL for article_85</t>
+          <t>https://insights.blackcoffer.com/traction-dashboards-of-marketing-campaigns-and-posts/</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -7209,802 +7209,802 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>0.01075268817204301</v>
+        <v>0.02</v>
       </c>
       <c r="F133" t="n">
-        <v>0.01792114695340502</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G133" t="n">
-        <v>17.4375</v>
+        <v>8.823529411764707</v>
       </c>
       <c r="H133" t="n">
-        <v>35.48387096774194</v>
+        <v>32</v>
       </c>
       <c r="I133" t="n">
-        <v>21.16854838709678</v>
+        <v>16.32941176470588</v>
       </c>
       <c r="J133" t="n">
-        <v>17.4375</v>
+        <v>8.823529411764707</v>
       </c>
       <c r="K133" t="n">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="L133" t="n">
-        <v>279</v>
+        <v>150</v>
       </c>
       <c r="M133" t="n">
-        <v>2.426523297491039</v>
+        <v>2.293333333333333</v>
       </c>
       <c r="N133" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O133" t="n">
-        <v>6.810035842293907</v>
+        <v>6.773333333333333</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>article_86</t>
+          <t>Netclan20241149</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Your URL for article_86</t>
+          <t>https://insights.blackcoffer.com/google-local-service-ads-lsa-data-warehouse/</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0.02512562814070352</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="F134" t="n">
-        <v>0.03517587939698492</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G134" t="n">
-        <v>24.875</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="H134" t="n">
-        <v>40.7035175879397</v>
+        <v>36.17021276595745</v>
       </c>
       <c r="I134" t="n">
-        <v>26.23140703517588</v>
+        <v>20.73475177304965</v>
       </c>
       <c r="J134" t="n">
-        <v>24.875</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="K134" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="L134" t="n">
-        <v>199</v>
+        <v>94</v>
       </c>
       <c r="M134" t="n">
-        <v>2.482412060301507</v>
+        <v>2.265957446808511</v>
       </c>
       <c r="N134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O134" t="n">
-        <v>6.798994974874372</v>
+        <v>6.25531914893617</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>article_87</t>
+          <t>Netclan20241150</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Your URL for article_87</t>
+          <t>https://insights.blackcoffer.com/google-local-service-ads-missed-calls-and-messages-automation-tool/</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E135" t="n">
-        <v>0.008368200836820083</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.03347280334728033</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="G135" t="n">
-        <v>14.9375</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="H135" t="n">
-        <v>45.18828451882845</v>
+        <v>30.23255813953488</v>
       </c>
       <c r="I135" t="n">
-        <v>24.05031380753138</v>
+        <v>23.55968992248062</v>
       </c>
       <c r="J135" t="n">
-        <v>14.9375</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="K135" t="n">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="L135" t="n">
-        <v>239</v>
+        <v>86</v>
       </c>
       <c r="M135" t="n">
-        <v>2.548117154811715</v>
+        <v>2.116279069767442</v>
       </c>
       <c r="N135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O135" t="n">
-        <v>7.01255230125523</v>
+        <v>6.255813953488372</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>article_88</t>
+          <t>Netclan20241151</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Your URL for article_88</t>
+          <t>https://insights.blackcoffer.com/marketing-ads-leads-call-status-data-tool-to-bigquery/</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0.01056338028169014</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="F136" t="n">
-        <v>0.03169014084507042</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="G136" t="n">
-        <v>14.2</v>
+        <v>18.75</v>
       </c>
       <c r="H136" t="n">
-        <v>43.30985915492958</v>
+        <v>36</v>
       </c>
       <c r="I136" t="n">
-        <v>23.00394366197183</v>
+        <v>21.9</v>
       </c>
       <c r="J136" t="n">
-        <v>14.2</v>
+        <v>18.75</v>
       </c>
       <c r="K136" t="n">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="L136" t="n">
-        <v>284</v>
+        <v>75</v>
       </c>
       <c r="M136" t="n">
-        <v>2.542253521126761</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="N136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O136" t="n">
-        <v>7.133802816901408</v>
+        <v>6.413333333333333</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>article_89</t>
+          <t>Netclan20241152</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Your URL for article_89</t>
+          <t>https://insights.blackcoffer.com/marketing-analytics-to-automate-leads-call-status-and-reporting/</t>
         </is>
       </c>
       <c r="C137" t="n">
         <v>4</v>
       </c>
       <c r="D137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0.00819672131147541</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="F137" t="n">
-        <v>0.02459016393442623</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="G137" t="n">
-        <v>13.55555555555556</v>
+        <v>19.75</v>
       </c>
       <c r="H137" t="n">
-        <v>39.75409836065574</v>
+        <v>32.91139240506329</v>
       </c>
       <c r="I137" t="n">
-        <v>21.32386156648452</v>
+        <v>21.06455696202532</v>
       </c>
       <c r="J137" t="n">
-        <v>13.55555555555556</v>
+        <v>19.75</v>
       </c>
       <c r="K137" t="n">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="L137" t="n">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="M137" t="n">
-        <v>2.483606557377049</v>
+        <v>2.240506329113924</v>
       </c>
       <c r="N137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O137" t="n">
-        <v>6.840163934426229</v>
+        <v>6.518987341772152</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>article_9</t>
+          <t>Netclan20241153</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Your URL for article_9</t>
+          <t>https://insights.blackcoffer.com/callrail-analytics-leads-report-alert/</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D138" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0273972602739726</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="F138" t="n">
-        <v>0.07436399217221135</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="G138" t="n">
-        <v>15.02941176470588</v>
+        <v>10.625</v>
       </c>
       <c r="H138" t="n">
-        <v>55.77299412915851</v>
+        <v>34.11764705882353</v>
       </c>
       <c r="I138" t="n">
-        <v>28.32096235754576</v>
+        <v>17.89705882352941</v>
       </c>
       <c r="J138" t="n">
-        <v>15.02941176470588</v>
+        <v>10.625</v>
       </c>
       <c r="K138" t="n">
-        <v>285</v>
+        <v>29</v>
       </c>
       <c r="L138" t="n">
-        <v>511</v>
+        <v>85</v>
       </c>
       <c r="M138" t="n">
-        <v>2.731898238747554</v>
+        <v>2.341176470588235</v>
       </c>
       <c r="N138" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O138" t="n">
-        <v>7.632093933463796</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>article_90</t>
+          <t>Netclan20241154</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Your URL for article_90</t>
+          <t>https://insights.blackcoffer.com/marketing-automation-tool-to-notify-lead-details-to-clients-over-email-and-phone/</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0.03603603603603604</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="F139" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="G139" t="n">
-        <v>20.18181818181818</v>
+        <v>17.75</v>
       </c>
       <c r="H139" t="n">
-        <v>36.93693693693694</v>
+        <v>35.2112676056338</v>
       </c>
       <c r="I139" t="n">
-        <v>22.84750204750205</v>
+        <v>21.18450704225352</v>
       </c>
       <c r="J139" t="n">
-        <v>20.18181818181818</v>
+        <v>17.75</v>
       </c>
       <c r="K139" t="n">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="L139" t="n">
-        <v>222</v>
+        <v>71</v>
       </c>
       <c r="M139" t="n">
-        <v>2.400900900900901</v>
+        <v>2.211267605633803</v>
       </c>
       <c r="N139" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O139" t="n">
-        <v>6.752252252252252</v>
+        <v>6.380281690140845</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>article_91</t>
+          <t>Netclan20241155</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Your URL for article_91</t>
+          <t>https://insights.blackcoffer.com/data-etl-local-service-ads-leads-to-bigquery/</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D140" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.01879699248120301</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="F140" t="n">
-        <v>0.04887218045112782</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G140" t="n">
-        <v>33.25</v>
+        <v>14.4</v>
       </c>
       <c r="H140" t="n">
-        <v>32.70676691729324</v>
+        <v>37.5</v>
       </c>
       <c r="I140" t="n">
-        <v>26.38270676691729</v>
+        <v>20.76</v>
       </c>
       <c r="J140" t="n">
-        <v>33.25</v>
+        <v>14.4</v>
       </c>
       <c r="K140" t="n">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="L140" t="n">
-        <v>266</v>
+        <v>72</v>
       </c>
       <c r="M140" t="n">
-        <v>2.266917293233083</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="N140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O140" t="n">
-        <v>6.620300751879699</v>
+        <v>6.388888888888889</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>article_92</t>
+          <t>Netclan20241156</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Your URL for article_92</t>
+          <t>https://insights.blackcoffer.com/marbles-stimulation-using-python/</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E141" t="n">
-        <v>0.03068592057761733</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="F141" t="n">
-        <v>0.04151624548736462</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="G141" t="n">
-        <v>13.51219512195122</v>
+        <v>11.75</v>
       </c>
       <c r="H141" t="n">
-        <v>45.66787003610109</v>
+        <v>30.85106382978723</v>
       </c>
       <c r="I141" t="n">
-        <v>23.67202606322092</v>
+        <v>17.0404255319149</v>
       </c>
       <c r="J141" t="n">
-        <v>13.51219512195122</v>
+        <v>11.75</v>
       </c>
       <c r="K141" t="n">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="L141" t="n">
-        <v>554</v>
+        <v>94</v>
       </c>
       <c r="M141" t="n">
-        <v>2.472924187725632</v>
+        <v>2.180851063829787</v>
       </c>
       <c r="N141" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O141" t="n">
-        <v>6.85740072202166</v>
+        <v>6.414893617021277</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>article_93</t>
+          <t>Netclan20241157</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Your URL for article_93</t>
+          <t>https://insights.blackcoffer.com/stocktwits-data-structurization/</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D142" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E142" t="n">
-        <v>0.03125</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="F142" t="n">
-        <v>0.03819444444444445</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="G142" t="n">
-        <v>14.4</v>
+        <v>8.457627118644067</v>
       </c>
       <c r="H142" t="n">
-        <v>41.49305555555556</v>
+        <v>30.66132264529058</v>
       </c>
       <c r="I142" t="n">
-        <v>22.35722222222222</v>
+        <v>15.64757990557386</v>
       </c>
       <c r="J142" t="n">
-        <v>14.4</v>
+        <v>8.457627118644067</v>
       </c>
       <c r="K142" t="n">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="L142" t="n">
-        <v>576</v>
+        <v>499</v>
       </c>
       <c r="M142" t="n">
-        <v>2.435763888888889</v>
+        <v>2.306613226452906</v>
       </c>
       <c r="N142" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O142" t="n">
-        <v>6.829861111111111</v>
+        <v>6.673346693386773</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>article_94</t>
+          <t>Netclan20241158</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Your URL for article_94</t>
+          <t>https://insights.blackcoffer.com/sentimental-analysis-on-shareholder-letter-of-companies/</t>
         </is>
       </c>
       <c r="C143" t="n">
+        <v>8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="G143" t="n">
+        <v>14.70588235294118</v>
+      </c>
+      <c r="H143" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="I143" t="n">
+        <v>26.04235294117647</v>
+      </c>
+      <c r="J143" t="n">
+        <v>14.70588235294118</v>
+      </c>
+      <c r="K143" t="n">
+        <v>126</v>
+      </c>
+      <c r="L143" t="n">
+        <v>250</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2.608</v>
+      </c>
+      <c r="N143" t="n">
         <v>4</v>
       </c>
-      <c r="D143" t="n">
-        <v>1</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.01595744680851064</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.02659574468085106</v>
-      </c>
-      <c r="G143" t="n">
-        <v>20.88888888888889</v>
-      </c>
-      <c r="H143" t="n">
-        <v>43.08510638297872</v>
-      </c>
-      <c r="I143" t="n">
-        <v>25.58959810874704</v>
-      </c>
-      <c r="J143" t="n">
-        <v>20.88888888888889</v>
-      </c>
-      <c r="K143" t="n">
-        <v>81</v>
-      </c>
-      <c r="L143" t="n">
-        <v>188</v>
-      </c>
-      <c r="M143" t="n">
-        <v>2.531914893617021</v>
-      </c>
-      <c r="N143" t="n">
-        <v>1</v>
-      </c>
       <c r="O143" t="n">
-        <v>6.978723404255319</v>
+        <v>7.204</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>article_95</t>
+          <t>Netclan20241159</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Your URL for article_95</t>
+          <t>https://insights.blackcoffer.com/population-and-community-survey-of-america/</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D144" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E144" t="n">
-        <v>0.01090909090909091</v>
+        <v>0.008213552361396304</v>
       </c>
       <c r="F144" t="n">
-        <v>0.04</v>
+        <v>0.04106776180698152</v>
       </c>
       <c r="G144" t="n">
-        <v>11.95652173913044</v>
+        <v>12.81578947368421</v>
       </c>
       <c r="H144" t="n">
-        <v>39.27272727272727</v>
+        <v>41.47843942505133</v>
       </c>
       <c r="I144" t="n">
-        <v>20.49169960474309</v>
+        <v>21.71769155949422</v>
       </c>
       <c r="J144" t="n">
-        <v>11.95652173913044</v>
+        <v>12.81578947368421</v>
       </c>
       <c r="K144" t="n">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="L144" t="n">
-        <v>275</v>
+        <v>487</v>
       </c>
       <c r="M144" t="n">
-        <v>2.414545454545455</v>
+        <v>2.429158110882957</v>
       </c>
       <c r="N144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O144" t="n">
-        <v>6.665454545454545</v>
+        <v>6.763860369609857</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>article_96</t>
+          <t>Netclan20241160</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Your URL for article_96</t>
+          <t>https://insights.blackcoffer.com/google-lsa-api-data-automation-and-dashboarding/</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D145" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E145" t="n">
-        <v>0.01293103448275862</v>
+        <v>0.001282051282051282</v>
       </c>
       <c r="F145" t="n">
-        <v>0.04741379310344827</v>
+        <v>0.05</v>
       </c>
       <c r="G145" t="n">
-        <v>15.46666666666667</v>
+        <v>12.78688524590164</v>
       </c>
       <c r="H145" t="n">
-        <v>42.67241379310344</v>
+        <v>35.76923076923077</v>
       </c>
       <c r="I145" t="n">
-        <v>23.25563218390805</v>
+        <v>19.42244640605296</v>
       </c>
       <c r="J145" t="n">
-        <v>15.46666666666667</v>
+        <v>12.78688524590164</v>
       </c>
       <c r="K145" t="n">
-        <v>99</v>
+        <v>279</v>
       </c>
       <c r="L145" t="n">
-        <v>232</v>
+        <v>780</v>
       </c>
       <c r="M145" t="n">
-        <v>2.504310344827586</v>
+        <v>2.301282051282051</v>
       </c>
       <c r="N145" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O145" t="n">
-        <v>6.935344827586207</v>
+        <v>6.562820512820513</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>article_97</t>
+          <t>Netclan20241161</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Your URL for article_97</t>
+          <t>https://insights.blackcoffer.com/healthcare-data-analysis/</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D146" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.04195804195804196</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="G146" t="n">
-        <v>14.3</v>
+        <v>8.5</v>
       </c>
       <c r="H146" t="n">
-        <v>36.71328671328671</v>
+        <v>32.35294117647059</v>
       </c>
       <c r="I146" t="n">
-        <v>20.40531468531469</v>
+        <v>16.34117647058823</v>
       </c>
       <c r="J146" t="n">
-        <v>14.3</v>
+        <v>8.5</v>
       </c>
       <c r="K146" t="n">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="L146" t="n">
-        <v>286</v>
+        <v>102</v>
       </c>
       <c r="M146" t="n">
-        <v>2.384615384615385</v>
+        <v>2.245098039215686</v>
       </c>
       <c r="N146" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O146" t="n">
-        <v>6.727272727272728</v>
+        <v>6.490196078431373</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>article_98</t>
+          <t>Netclan20241162</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Your URL for article_98</t>
+          <t>https://insights.blackcoffer.com/budget-sales-kpi-dashboard-using-power-bi/</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0.007843137254901961</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.02352941176470588</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>18.21428571428572</v>
+        <v>18</v>
       </c>
       <c r="H147" t="n">
-        <v>45.49019607843137</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="I147" t="n">
-        <v>25.48179271708684</v>
+        <v>22.75555555555556</v>
       </c>
       <c r="J147" t="n">
-        <v>18.21428571428572</v>
+        <v>18</v>
       </c>
       <c r="K147" t="n">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="L147" t="n">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="M147" t="n">
-        <v>2.537254901960784</v>
+        <v>3.111111111111111</v>
       </c>
       <c r="N147" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O147" t="n">
-        <v>7.129411764705883</v>
+        <v>9.222222222222221</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>article_99</t>
+          <t>Netclan20241163</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Your URL for article_99</t>
+          <t>https://insights.blackcoffer.com/amazon-buy-bot-an-automation-ai-tool-to-auto-checkouts/</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>0.02180685358255452</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="F148" t="n">
-        <v>0.04049844236760124</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="G148" t="n">
-        <v>16.05</v>
+        <v>9.857142857142858</v>
       </c>
       <c r="H148" t="n">
-        <v>45.79439252336449</v>
+        <v>31.88405797101449</v>
       </c>
       <c r="I148" t="n">
-        <v>24.7377570093458</v>
+        <v>16.69648033126294</v>
       </c>
       <c r="J148" t="n">
-        <v>16.05</v>
+        <v>9.857142857142858</v>
       </c>
       <c r="K148" t="n">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="L148" t="n">
-        <v>321</v>
+        <v>69</v>
       </c>
       <c r="M148" t="n">
-        <v>2.632398753894081</v>
+        <v>2.159420289855072</v>
       </c>
       <c r="N148" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O148" t="n">
-        <v>7.348909657320872</v>
+        <v>6.347826086956522</v>
       </c>
     </row>
   </sheetData>
